--- a/SVM_results/SVM_results_avg.xlsx
+++ b/SVM_results/SVM_results_avg.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master_thesis_data\Emotra_preprocessed\SVM_results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE3B6D4-9E78-481B-B4F2-A084CFF1863D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>accuracy</t>
   </si>
@@ -37,6 +31,90 @@
     <t>Combination</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + HR + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT</t>
   </si>
   <si>
@@ -46,32 +124,299 @@
     <t xml:space="preserve"> + AE + AM + ARC</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ST</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + RT + ARC</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + ST + ARC</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + ST + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + HR + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ST</t>
   </si>
   <si>
     <t xml:space="preserve"> + AM + RT + ARC</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + ST + ARC</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + ST + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + HR + M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ST + ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + HR + M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,26 +468,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -189,7 +525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,27 +557,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,24 +591,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,218 +766,2493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.7401746085938642</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.7401746085938642</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.7312783495098278</v>
+      </c>
+      <c r="C4">
+        <v>0.4167676767676768</v>
+      </c>
+      <c r="D4">
+        <v>0.0598935953568883</v>
+      </c>
+      <c r="E4">
+        <v>0.09616295251574462</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.7401746085938644</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>0.012</v>
+      </c>
+      <c r="E5">
+        <v>0.05597147950089126</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.74214992927864221</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.73816026922889333</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.75686484904648099</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.77273081988001768</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.77965663561430032</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.76383943813100519</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.75987416475637704</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.77574989025996177</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.75794274008681639</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.78461688533385365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.65664160401002503</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.69523809523809521</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.64063359803614672</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.73242424242424231</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.59535456870495229</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.64135920708661653</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.64861111111111103</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.68100073313782994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>9.1318026911247241E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1694161193013185</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.2191251677533749</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.33976243087498781</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.14636524822695041</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.23754724111866971</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.34314849231013361</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.14892255274683741</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.33164141414141413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.1481513712902334</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>0.26280488358577597</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.33160944318839058</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.44296892427261819</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.24305706865745061</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.3384647250015933</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.4411633028375862</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.240649817769653</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.44242824759852772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>0.7668438765058772</v>
+      </c>
+      <c r="C6">
+        <v>0.6658797729618162</v>
+      </c>
+      <c r="D6">
+        <v>0.2117161185215354</v>
+      </c>
+      <c r="E6">
+        <v>0.3183631713554987</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.7401746085938642</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.7638443154660294</v>
+      </c>
+      <c r="C8">
+        <v>0.586593942764688</v>
+      </c>
+      <c r="D8">
+        <v>0.2969386009571327</v>
+      </c>
+      <c r="E8">
+        <v>0.3927313434334307</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0.7401746085938642</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0.747095546993123</v>
+      </c>
+      <c r="C10">
+        <v>0.6003174603174604</v>
+      </c>
+      <c r="D10">
+        <v>0.1142894817228388</v>
+      </c>
+      <c r="E10">
+        <v>0.1842481002100504</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.7381944105740622</v>
+      </c>
+      <c r="C11">
+        <v>0.25</v>
+      </c>
+      <c r="D11">
+        <v>0.004</v>
+      </c>
+      <c r="E11">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0.7668536311759256</v>
+      </c>
+      <c r="C12">
+        <v>0.6944891640866874</v>
+      </c>
+      <c r="D12">
+        <v>0.1931587414723551</v>
+      </c>
+      <c r="E12">
+        <v>0.2979883862421638</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0.7401746085938642</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0.7431449056235673</v>
+      </c>
+      <c r="C14">
+        <v>0.5504807692307692</v>
+      </c>
+      <c r="D14">
+        <v>0.06713043478260869</v>
+      </c>
+      <c r="E14">
+        <v>0.2562724014336918</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>0.7431449056235673</v>
+      </c>
+      <c r="C15">
+        <v>0.5530952380952381</v>
+      </c>
+      <c r="D15">
+        <v>0.09514662457998167</v>
+      </c>
+      <c r="E15">
+        <v>0.1556469641184</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0.7381944105740622</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+      <c r="D16">
+        <v>0.004</v>
+      </c>
+      <c r="E16">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.7698141735355802</v>
+      </c>
+      <c r="C17">
+        <v>0.7044000375269726</v>
+      </c>
+      <c r="D17">
+        <v>0.2037161185215354</v>
+      </c>
+      <c r="E17">
+        <v>0.3124433761760148</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0.7401746085938642</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.7431449056235673</v>
+      </c>
+      <c r="C19">
+        <v>0.5504807692307692</v>
+      </c>
+      <c r="D19">
+        <v>0.06713043478260869</v>
+      </c>
+      <c r="E19">
+        <v>0.2562724014336918</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0.7678144661756816</v>
+      </c>
+      <c r="C20">
+        <v>0.6367539622001864</v>
+      </c>
+      <c r="D20">
+        <v>0.2593799002138275</v>
+      </c>
+      <c r="E20">
+        <v>0.3660240831382383</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0.7777495976198605</v>
+      </c>
+      <c r="C21">
+        <v>0.6612087912087912</v>
+      </c>
+      <c r="D21">
+        <v>0.3119774971998778</v>
+      </c>
+      <c r="E21">
+        <v>0.4147929606625259</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>0.7342340145344582</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>0.8013754084768083</v>
+      </c>
+      <c r="C23">
+        <v>0.6957370215990906</v>
+      </c>
+      <c r="D23">
+        <v>0.4191295183789838</v>
+      </c>
+      <c r="E23">
+        <v>0.516890483160506</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0.769804418865532</v>
+      </c>
+      <c r="C24">
+        <v>0.7198340874811462</v>
+      </c>
+      <c r="D24">
+        <v>0.1868084716423989</v>
+      </c>
+      <c r="E24">
+        <v>0.2935499609679938</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>0.7381944105740622</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>0.7747402819099645</v>
+      </c>
+      <c r="C26">
+        <v>0.6481127060074428</v>
+      </c>
+      <c r="D26">
+        <v>0.2898424803991447</v>
+      </c>
+      <c r="E26">
+        <v>0.3981408779954715</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>0.7599180607715944</v>
+      </c>
+      <c r="C27">
+        <v>0.6809565434565434</v>
+      </c>
+      <c r="D27">
+        <v>0.1500415436309948</v>
+      </c>
+      <c r="E27">
+        <v>0.24180555867494</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>0.7757303809198653</v>
+      </c>
+      <c r="C28">
+        <v>0.6622315592903828</v>
+      </c>
+      <c r="D28">
+        <v>0.3023952754302006</v>
+      </c>
+      <c r="E28">
+        <v>0.408842725239784</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>0.7411647076037653</v>
+      </c>
+      <c r="C29">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D29">
+        <v>0.04608695652173913</v>
+      </c>
+      <c r="E29">
+        <v>0.1296942621806506</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0.747095546993123</v>
+      </c>
+      <c r="C30">
+        <v>0.6907142857142857</v>
+      </c>
+      <c r="D30">
+        <v>0.1026373078097953</v>
+      </c>
+      <c r="E30">
+        <v>0.1673775715783913</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0.7381944105740622</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0.760922791786568</v>
+      </c>
+      <c r="C32">
+        <v>0.6900178253119429</v>
+      </c>
+      <c r="D32">
+        <v>0.1540415436309948</v>
+      </c>
+      <c r="E32">
+        <v>0.2472537984777282</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>0.7401746085938642</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0.7401746085938642</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0.7638540701360776</v>
+      </c>
+      <c r="C35">
+        <v>0.6465350877192984</v>
+      </c>
+      <c r="D35">
+        <v>0.2130390998879951</v>
+      </c>
+      <c r="E35">
+        <v>0.3183422902368095</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>0.7866263473638005</v>
+      </c>
+      <c r="C36">
+        <v>0.695652597569106</v>
+      </c>
+      <c r="D36">
+        <v>0.340527848487934</v>
+      </c>
+      <c r="E36">
+        <v>0.4464732470044258</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0.7371945568941131</v>
+      </c>
+      <c r="C37">
+        <v>0.5661538461538462</v>
+      </c>
+      <c r="D37">
+        <v>0.0697296609306588</v>
+      </c>
+      <c r="E37">
+        <v>0.1170795008211062</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>0.8013754084768083</v>
+      </c>
+      <c r="C38">
+        <v>0.7105912279441692</v>
+      </c>
+      <c r="D38">
+        <v>0.3920123205376235</v>
+      </c>
+      <c r="E38">
+        <v>0.5021199521199521</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>0.7628981124713455</v>
+      </c>
+      <c r="C39">
+        <v>0.7069841269841269</v>
+      </c>
+      <c r="D39">
+        <v>0.1527053253232868</v>
+      </c>
+      <c r="E39">
+        <v>0.2485208094998845</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>0.7381944105740622</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>0.7767156025947421</v>
+      </c>
+      <c r="C41">
+        <v>0.7080782502521634</v>
+      </c>
+      <c r="D41">
+        <v>0.2510064148253742</v>
+      </c>
+      <c r="E41">
+        <v>0.3675461247128471</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>0.7539872213822368</v>
+      </c>
+      <c r="C42">
+        <v>0.6752907223495458</v>
+      </c>
+      <c r="D42">
+        <v>0.1235098258833113</v>
+      </c>
+      <c r="E42">
+        <v>0.2031537861046058</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>0.776705847924694</v>
+      </c>
+      <c r="C43">
+        <v>0.691945773524721</v>
+      </c>
+      <c r="D43">
+        <v>0.2543191121067101</v>
+      </c>
+      <c r="E43">
+        <v>0.3667629894510835</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>0.7381944105740622</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>0.7618738721162757</v>
+      </c>
+      <c r="C45">
+        <v>0.6369862155388472</v>
+      </c>
+      <c r="D45">
+        <v>0.2130390998879951</v>
+      </c>
+      <c r="E45">
+        <v>0.3165689751352985</v>
+      </c>
+      <c r="F45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>0.7846461493439986</v>
+      </c>
+      <c r="C46">
+        <v>0.6826404904393519</v>
+      </c>
+      <c r="D46">
+        <v>0.3398065370125242</v>
+      </c>
+      <c r="E46">
+        <v>0.4426255467302861</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>0.7362142125542602</v>
+      </c>
+      <c r="C47">
+        <v>0.4642857142857142</v>
+      </c>
+      <c r="D47">
+        <v>0.06615823235923021</v>
+      </c>
+      <c r="E47">
+        <v>0.1351106635082294</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>0.8003804321318831</v>
+      </c>
+      <c r="C48">
+        <v>0.7029495558907325</v>
+      </c>
+      <c r="D48">
+        <v>0.3920123205376235</v>
+      </c>
+      <c r="E48">
+        <v>0.5007359307359307</v>
+      </c>
+      <c r="F48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>0.7648734331561234</v>
+      </c>
+      <c r="C49">
+        <v>0.7154456654456655</v>
+      </c>
+      <c r="D49">
+        <v>0.1603318399348335</v>
+      </c>
+      <c r="E49">
+        <v>0.2588082703548805</v>
+      </c>
+      <c r="F49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>0.7381944105740622</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>0.7737501829000635</v>
+      </c>
+      <c r="C51">
+        <v>0.6939676113360325</v>
+      </c>
+      <c r="D51">
+        <v>0.2480204663476224</v>
+      </c>
+      <c r="E51">
+        <v>0.3615079365079366</v>
+      </c>
+      <c r="F51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>0.7569575184119397</v>
+      </c>
+      <c r="C52">
+        <v>0.6947216526163895</v>
+      </c>
+      <c r="D52">
+        <v>0.1362054780572243</v>
+      </c>
+      <c r="E52">
+        <v>0.2202195273808734</v>
+      </c>
+      <c r="F52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <v>0.776705847924694</v>
+      </c>
+      <c r="C53">
+        <v>0.6950419527078566</v>
+      </c>
+      <c r="D53">
+        <v>0.2546118521535485</v>
+      </c>
+      <c r="E53">
+        <v>0.368301515309188</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>24</v>
+      </c>
+      <c r="B54">
+        <v>0.7381944105740622</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>0.7796858996244451</v>
+      </c>
+      <c r="C55">
+        <v>0.6649082125603865</v>
+      </c>
+      <c r="D55">
+        <v>0.3121249363608594</v>
+      </c>
+      <c r="E55">
+        <v>0.4219742480686051</v>
+      </c>
+      <c r="F55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <v>0.7529971223723357</v>
+      </c>
+      <c r="C56">
+        <v>0.6095324283559578</v>
+      </c>
+      <c r="D56">
+        <v>0.1563024131962122</v>
+      </c>
+      <c r="E56">
+        <v>0.2459585918944862</v>
+      </c>
+      <c r="F56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <v>0.8033702385016828</v>
+      </c>
+      <c r="C57">
+        <v>0.7</v>
+      </c>
+      <c r="D57">
+        <v>0.4087887180531514</v>
+      </c>
+      <c r="E57">
+        <v>0.5135287984395717</v>
+      </c>
+      <c r="F57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <v>0.7668633858459739</v>
+      </c>
+      <c r="C58">
+        <v>0.6537321937321937</v>
+      </c>
+      <c r="D58">
+        <v>0.2553169738315854</v>
+      </c>
+      <c r="E58">
+        <v>0.3553500452923669</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>0.8063649222065065</v>
+      </c>
+      <c r="C59">
+        <v>0.6964410551996689</v>
+      </c>
+      <c r="D59">
+        <v>0.4487373994501578</v>
+      </c>
+      <c r="E59">
+        <v>0.5447650680984013</v>
+      </c>
+      <c r="F59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>0.8033653611666585</v>
+      </c>
+      <c r="C60">
+        <v>0.712591306886332</v>
+      </c>
+      <c r="D60">
+        <v>0.3893998574483249</v>
+      </c>
+      <c r="E60">
+        <v>0.5014391379808671</v>
+      </c>
+      <c r="F60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>31</v>
+      </c>
+      <c r="B61">
+        <v>0.7579476174218407</v>
+      </c>
+      <c r="C61">
+        <v>0.7966666666666666</v>
+      </c>
+      <c r="D61">
+        <v>0.1106021790041747</v>
+      </c>
+      <c r="E61">
+        <v>0.1893851520112311</v>
+      </c>
+      <c r="F61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <v>0.7806759986343461</v>
+      </c>
+      <c r="C62">
+        <v>0.6678042328042328</v>
+      </c>
+      <c r="D62">
+        <v>0.3222888707870889</v>
+      </c>
+      <c r="E62">
+        <v>0.4300122850122851</v>
+      </c>
+      <c r="F62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>33</v>
+      </c>
+      <c r="B63">
+        <v>0.7707847632053847</v>
+      </c>
+      <c r="C63">
+        <v>0.6868984155940677</v>
+      </c>
+      <c r="D63">
+        <v>0.2337898381020263</v>
+      </c>
+      <c r="E63">
+        <v>0.3438499621956693</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>34</v>
+      </c>
+      <c r="B64">
+        <v>0.7658391454909038</v>
+      </c>
+      <c r="C64">
+        <v>0.6548800356849892</v>
+      </c>
+      <c r="D64">
+        <v>0.2182184095305977</v>
+      </c>
+      <c r="E64">
+        <v>0.3239993226861952</v>
+      </c>
+      <c r="F64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0.7668097351607083</v>
+      </c>
+      <c r="C65">
+        <v>0.6807684369294276</v>
+      </c>
+      <c r="D65">
+        <v>0.1991384787699827</v>
+      </c>
+      <c r="E65">
+        <v>0.3068104759730131</v>
+      </c>
+      <c r="F65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>0.7876066917036532</v>
+      </c>
+      <c r="C66">
+        <v>0.6850883256528417</v>
+      </c>
+      <c r="D66">
+        <v>0.3478872823541391</v>
+      </c>
+      <c r="E66">
+        <v>0.4531438914068022</v>
+      </c>
+      <c r="F66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>0.739174754913915</v>
+      </c>
+      <c r="C67">
+        <v>0.6205128205128205</v>
+      </c>
+      <c r="D67">
+        <v>0.06645097240606863</v>
+      </c>
+      <c r="E67">
+        <v>0.1129545979462033</v>
+      </c>
+      <c r="F67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>0.8043408281714871</v>
+      </c>
+      <c r="C68">
+        <v>0.7159168862326757</v>
+      </c>
+      <c r="D68">
+        <v>0.408224315242847</v>
+      </c>
+      <c r="E68">
+        <v>0.5151670477921516</v>
+      </c>
+      <c r="F68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>0.7579720040969613</v>
+      </c>
+      <c r="C69">
+        <v>0.6765079365079365</v>
+      </c>
+      <c r="D69">
+        <v>0.1309500050911312</v>
+      </c>
+      <c r="E69">
+        <v>0.2183029721796321</v>
+      </c>
+      <c r="F69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>0.7391845095839633</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>0.7638930888162708</v>
+      </c>
+      <c r="C71">
+        <v>0.7557422969187675</v>
+      </c>
+      <c r="D71">
+        <v>0.1607147948274106</v>
+      </c>
+      <c r="E71">
+        <v>0.2514534882877165</v>
+      </c>
+      <c r="F71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>0.7559674194020387</v>
+      </c>
+      <c r="C72">
+        <v>0.728939393939394</v>
+      </c>
+      <c r="D72">
+        <v>0.1152427451379697</v>
+      </c>
+      <c r="E72">
+        <v>0.1944969897628946</v>
+      </c>
+      <c r="F72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>0.7747500365800126</v>
+      </c>
+      <c r="C73">
+        <v>0.7101754385964911</v>
+      </c>
+      <c r="D73">
+        <v>0.2267020669992872</v>
+      </c>
+      <c r="E73">
+        <v>0.3395500801010853</v>
+      </c>
+      <c r="F73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>0.7381944105740622</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>0.7935326537579865</v>
+      </c>
+      <c r="C75">
+        <v>0.7212314369347617</v>
+      </c>
+      <c r="D75">
+        <v>0.3390557987984931</v>
+      </c>
+      <c r="E75">
+        <v>0.4574652476489209</v>
+      </c>
+      <c r="F75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <v>0.7519972686923866</v>
+      </c>
+      <c r="C76">
+        <v>0.6195072900955254</v>
+      </c>
+      <c r="D76">
+        <v>0.1552332756338458</v>
+      </c>
+      <c r="E76">
+        <v>0.2450286614992497</v>
+      </c>
+      <c r="F76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>0.799390333121982</v>
+      </c>
+      <c r="C77">
+        <v>0.7062745098039216</v>
+      </c>
+      <c r="D77">
+        <v>0.3844408919661949</v>
+      </c>
+      <c r="E77">
+        <v>0.4951379335444189</v>
+      </c>
+      <c r="F77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>0.7796907769594693</v>
+      </c>
+      <c r="C78">
+        <v>0.6817364026092678</v>
+      </c>
+      <c r="D78">
+        <v>0.3171389878831076</v>
+      </c>
+      <c r="E78">
+        <v>0.4253022869941278</v>
+      </c>
+      <c r="F78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>0.8093108325610887</v>
+      </c>
+      <c r="C79">
+        <v>0.7098774873316029</v>
+      </c>
+      <c r="D79">
+        <v>0.4437490072294064</v>
+      </c>
+      <c r="E79">
+        <v>0.5450404756513276</v>
+      </c>
+      <c r="F79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>0.7974052577671559</v>
+      </c>
+      <c r="C80">
+        <v>0.6971814417466591</v>
+      </c>
+      <c r="D80">
+        <v>0.3893998574483249</v>
+      </c>
+      <c r="E80">
+        <v>0.4951743976682316</v>
+      </c>
+      <c r="F80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>0.7540018533873092</v>
+      </c>
+      <c r="C81">
+        <v>0.7757575757575758</v>
+      </c>
+      <c r="D81">
+        <v>0.1004733733835658</v>
+      </c>
+      <c r="E81">
+        <v>0.1720177748566047</v>
+      </c>
+      <c r="F81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>17</v>
+      </c>
+      <c r="B82">
+        <v>0.7875920596985807</v>
+      </c>
+      <c r="C82">
+        <v>0.7040978745077221</v>
+      </c>
+      <c r="D82">
+        <v>0.317512473271561</v>
+      </c>
+      <c r="E82">
+        <v>0.4345944375471964</v>
+      </c>
+      <c r="F82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>18</v>
+      </c>
+      <c r="B83">
+        <v>0.7589425937667658</v>
+      </c>
+      <c r="C83">
+        <v>0.6854761904761906</v>
+      </c>
+      <c r="D83">
+        <v>0.1649818755727523</v>
+      </c>
+      <c r="E83">
+        <v>0.2532169276088589</v>
+      </c>
+      <c r="F83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>19</v>
+      </c>
+      <c r="B84">
+        <v>0.766834121835829</v>
+      </c>
+      <c r="C84">
+        <v>0.6832567939456484</v>
+      </c>
+      <c r="D84">
+        <v>0.2077968638631504</v>
+      </c>
+      <c r="E84">
+        <v>0.3127764210697371</v>
+      </c>
+      <c r="F84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>20</v>
+      </c>
+      <c r="B85">
+        <v>0.7915524557381847</v>
+      </c>
+      <c r="C85">
+        <v>0.7099493856527104</v>
+      </c>
+      <c r="D85">
+        <v>0.3390557987984931</v>
+      </c>
+      <c r="E85">
+        <v>0.4548313902782214</v>
+      </c>
+      <c r="F85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>21</v>
+      </c>
+      <c r="B86">
+        <v>0.7510071696824856</v>
+      </c>
+      <c r="C86">
+        <v>0.6155131418289314</v>
+      </c>
+      <c r="D86">
+        <v>0.1592332756338458</v>
+      </c>
+      <c r="E86">
+        <v>0.2492105906811789</v>
+      </c>
+      <c r="F86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>0.799390333121982</v>
+      </c>
+      <c r="C87">
+        <v>0.7025245098039214</v>
+      </c>
+      <c r="D87">
+        <v>0.3884408919661949</v>
+      </c>
+      <c r="E87">
+        <v>0.4970891530566141</v>
+      </c>
+      <c r="F87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>23</v>
+      </c>
+      <c r="B88">
+        <v>0.7806857533043944</v>
+      </c>
+      <c r="C88">
+        <v>0.683047385620915</v>
+      </c>
+      <c r="D88">
+        <v>0.3254868139700641</v>
+      </c>
+      <c r="E88">
+        <v>0.4322652381900018</v>
+      </c>
+      <c r="F88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>24</v>
+      </c>
+      <c r="B89">
+        <v>0.8073355118763109</v>
+      </c>
+      <c r="C89">
+        <v>0.7038523162661093</v>
+      </c>
+      <c r="D89">
+        <v>0.4401775786579778</v>
+      </c>
+      <c r="E89">
+        <v>0.540256562091088</v>
+      </c>
+      <c r="F89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>25</v>
+      </c>
+      <c r="B90">
+        <v>0.7974052577671559</v>
+      </c>
+      <c r="C90">
+        <v>0.6971814417466591</v>
+      </c>
+      <c r="D90">
+        <v>0.3893998574483249</v>
+      </c>
+      <c r="E90">
+        <v>0.4951743976682316</v>
+      </c>
+      <c r="F90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>26</v>
+      </c>
+      <c r="B91">
+        <v>0.7520265327025314</v>
+      </c>
+      <c r="C91">
+        <v>0.7521367521367521</v>
+      </c>
+      <c r="D91">
+        <v>0.0961255472966093</v>
+      </c>
+      <c r="E91">
+        <v>0.1650624077742722</v>
+      </c>
+      <c r="F91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>27</v>
+      </c>
+      <c r="B92">
+        <v>0.7866019606886796</v>
+      </c>
+      <c r="C92">
+        <v>0.7042358473169832</v>
+      </c>
+      <c r="D92">
+        <v>0.3139410447001324</v>
+      </c>
+      <c r="E92">
+        <v>0.4299184115680138</v>
+      </c>
+      <c r="F92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>28</v>
+      </c>
+      <c r="B93">
+        <v>0.756962395746964</v>
+      </c>
+      <c r="C93">
+        <v>0.6685064935064935</v>
+      </c>
+      <c r="D93">
+        <v>0.1689818755727523</v>
+      </c>
+      <c r="E93">
+        <v>0.2564212503321561</v>
+      </c>
+      <c r="F93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>29</v>
+      </c>
+      <c r="B94">
+        <v>0.766834121835829</v>
+      </c>
+      <c r="C94">
+        <v>0.6832567939456484</v>
+      </c>
+      <c r="D94">
+        <v>0.2077968638631504</v>
+      </c>
+      <c r="E94">
+        <v>0.3127764210697371</v>
+      </c>
+      <c r="F94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <v>0.7806857533043946</v>
+      </c>
+      <c r="C95">
+        <v>0.7152450090744101</v>
+      </c>
+      <c r="D95">
+        <v>0.2745311068119336</v>
+      </c>
+      <c r="E95">
+        <v>0.3909138806325507</v>
+      </c>
+      <c r="F95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>31</v>
+      </c>
+      <c r="B96">
+        <v>0.8073160025362144</v>
+      </c>
+      <c r="C96">
+        <v>0.708475252013652</v>
+      </c>
+      <c r="D96">
+        <v>0.4257419814682823</v>
+      </c>
+      <c r="E96">
+        <v>0.5316815503116873</v>
+      </c>
+      <c r="F96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>32</v>
+      </c>
+      <c r="B97">
+        <v>0.7984148661171535</v>
+      </c>
+      <c r="C97">
+        <v>0.704621937721517</v>
+      </c>
+      <c r="D97">
+        <v>0.3699642602586294</v>
+      </c>
+      <c r="E97">
+        <v>0.4834291166776087</v>
+      </c>
+      <c r="F97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>33</v>
+      </c>
+      <c r="B98">
+        <v>0.8053650685265572</v>
+      </c>
+      <c r="C98">
+        <v>0.705380697733639</v>
+      </c>
+      <c r="D98">
+        <v>0.4256458609102943</v>
+      </c>
+      <c r="E98">
+        <v>0.5289388410593976</v>
+      </c>
+      <c r="F98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>34</v>
+      </c>
+      <c r="B99">
+        <v>0.7797005316295177</v>
+      </c>
+      <c r="C99">
+        <v>0.6889030100334448</v>
+      </c>
+      <c r="D99">
+        <v>0.2855816108339273</v>
+      </c>
+      <c r="E99">
+        <v>0.3946321810949025</v>
+      </c>
+      <c r="F99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>0.7925328000780374</v>
+      </c>
+      <c r="C100">
+        <v>0.7057149321266969</v>
+      </c>
+      <c r="D100">
+        <v>0.3454773444659403</v>
+      </c>
+      <c r="E100">
+        <v>0.4615739348370927</v>
+      </c>
+      <c r="F100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>0.7559381553918938</v>
+      </c>
+      <c r="C101">
+        <v>0.6492063492063492</v>
+      </c>
+      <c r="D101">
+        <v>0.1688784237857652</v>
+      </c>
+      <c r="E101">
+        <v>0.2658500948766603</v>
+      </c>
+      <c r="F101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>0.8013558991367118</v>
+      </c>
+      <c r="C102">
+        <v>0.7141375661375661</v>
+      </c>
+      <c r="D102">
+        <v>0.3832910090622136</v>
+      </c>
+      <c r="E102">
+        <v>0.4960317425777628</v>
+      </c>
+      <c r="F102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>0.7836462956640491</v>
+      </c>
+      <c r="C103">
+        <v>0.6816040178109144</v>
+      </c>
+      <c r="D103">
+        <v>0.3473228795438347</v>
+      </c>
+      <c r="E103">
+        <v>0.4516599174736607</v>
+      </c>
+      <c r="F103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>0.8162268936253232</v>
+      </c>
+      <c r="C104">
+        <v>0.7331124473249711</v>
+      </c>
+      <c r="D104">
+        <v>0.4514773444659403</v>
+      </c>
+      <c r="E104">
+        <v>0.5581239489040908</v>
+      </c>
+      <c r="F104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>0.801370531141784</v>
+      </c>
+      <c r="C105">
+        <v>0.7148051948051948</v>
+      </c>
+      <c r="D105">
+        <v>0.3944689950106914</v>
+      </c>
+      <c r="E105">
+        <v>0.5032979229398615</v>
+      </c>
+      <c r="F105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>0.7510315563576062</v>
+      </c>
+      <c r="C106">
+        <v>0.8020202020202021</v>
+      </c>
+      <c r="D106">
+        <v>0.08156817024742898</v>
+      </c>
+      <c r="E106">
+        <v>0.1435700216788531</v>
+      </c>
+      <c r="F106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>0.783641418329025</v>
+      </c>
+      <c r="C107">
+        <v>0.6926448551448551</v>
+      </c>
+      <c r="D107">
+        <v>0.3020768760818654</v>
+      </c>
+      <c r="E107">
+        <v>0.4169414538582895</v>
+      </c>
+      <c r="F107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>0.7480710139979516</v>
+      </c>
+      <c r="C108">
+        <v>0.7455555555555555</v>
+      </c>
+      <c r="D108">
+        <v>0.1033329599837084</v>
+      </c>
+      <c r="E108">
+        <v>0.1676103988603989</v>
+      </c>
+      <c r="F108" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>9</v>
+      </c>
+      <c r="B109">
+        <v>0.766838999170853</v>
+      </c>
+      <c r="C109">
+        <v>0.6908333333333333</v>
+      </c>
+      <c r="D109">
+        <v>0.1962254352917218</v>
+      </c>
+      <c r="E109">
+        <v>0.2999042624042624</v>
+      </c>
+      <c r="F109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>0.7856118616787787</v>
+      </c>
+      <c r="C110">
+        <v>0.7099354838709677</v>
+      </c>
+      <c r="D110">
+        <v>0.3078578556155178</v>
+      </c>
+      <c r="E110">
+        <v>0.4242262852477182</v>
+      </c>
+      <c r="F110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>11</v>
+      </c>
+      <c r="B111">
+        <v>0.8004096961420279</v>
+      </c>
+      <c r="C111">
+        <v>0.6983957219251338</v>
+      </c>
+      <c r="D111">
+        <v>0.3960674065777415</v>
+      </c>
+      <c r="E111">
+        <v>0.5052900527368613</v>
+      </c>
+      <c r="F111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>12</v>
+      </c>
+      <c r="B112">
+        <v>0.7954396917524265</v>
+      </c>
+      <c r="C112">
+        <v>0.6870216646098999</v>
+      </c>
+      <c r="D112">
+        <v>0.3731071174014866</v>
+      </c>
+      <c r="E112">
+        <v>0.4804047383799931</v>
+      </c>
+      <c r="F112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>13</v>
+      </c>
+      <c r="B113">
+        <v>0.8201629029898065</v>
+      </c>
+      <c r="C113">
+        <v>0.746460174164159</v>
+      </c>
+      <c r="D113">
+        <v>0.453767640769779</v>
+      </c>
+      <c r="E113">
+        <v>0.5633721988439978</v>
+      </c>
+      <c r="F113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>14</v>
+      </c>
+      <c r="B114">
+        <v>0.7757352582548895</v>
+      </c>
+      <c r="C114">
+        <v>0.6976767676767677</v>
+      </c>
+      <c r="D114">
+        <v>0.2626764076977904</v>
+      </c>
+      <c r="E114">
+        <v>0.3711608755740212</v>
+      </c>
+      <c r="F114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>15</v>
+      </c>
+      <c r="B115">
+        <v>0.7846217626688776</v>
+      </c>
+      <c r="C115">
+        <v>0.7047272727272726</v>
+      </c>
+      <c r="D115">
+        <v>0.3071365441401079</v>
+      </c>
+      <c r="E115">
+        <v>0.4222662715800265</v>
+      </c>
+      <c r="F115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>16</v>
+      </c>
+      <c r="B116">
+        <v>0.8004096961420279</v>
+      </c>
+      <c r="C116">
+        <v>0.6983957219251338</v>
+      </c>
+      <c r="D116">
+        <v>0.3960674065777415</v>
+      </c>
+      <c r="E116">
+        <v>0.5052900527368613</v>
+      </c>
+      <c r="F116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>17</v>
+      </c>
+      <c r="B117">
+        <v>0.799385455786958</v>
+      </c>
+      <c r="C117">
+        <v>0.6970538720538721</v>
+      </c>
+      <c r="D117">
+        <v>0.383664494450667</v>
+      </c>
+      <c r="E117">
+        <v>0.4927252509234369</v>
+      </c>
+      <c r="F117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>18</v>
+      </c>
+      <c r="B118">
+        <v>0.8211530019997074</v>
+      </c>
+      <c r="C118">
+        <v>0.7510947552693283</v>
+      </c>
+      <c r="D118">
+        <v>0.453767640769779</v>
+      </c>
+      <c r="E118">
+        <v>0.5648638798537511</v>
+      </c>
+      <c r="F118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>19</v>
+      </c>
+      <c r="B119">
+        <v>0.7747500365800126</v>
+      </c>
+      <c r="C119">
+        <v>0.6900577200577201</v>
+      </c>
+      <c r="D119">
+        <v>0.2626764076977904</v>
+      </c>
+      <c r="E119">
+        <v>0.3701973103828137</v>
+      </c>
+      <c r="F119" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>20</v>
+      </c>
+      <c r="B120">
+        <v>0.7954494464224747</v>
+      </c>
+      <c r="C120">
+        <v>0.6795456214811054</v>
+      </c>
+      <c r="D120">
+        <v>0.3911341003971082</v>
+      </c>
+      <c r="E120">
+        <v>0.4957168052406148</v>
+      </c>
+      <c r="F120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>0.7915427010681364</v>
+      </c>
+      <c r="C121">
+        <v>0.7258863636363637</v>
+      </c>
+      <c r="D121">
+        <v>0.3270557987984931</v>
+      </c>
+      <c r="E121">
+        <v>0.4463206623252057</v>
+      </c>
+      <c r="F121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>0.8063356581963614</v>
+      </c>
+      <c r="C122">
+        <v>0.7221059113300492</v>
+      </c>
+      <c r="D122">
+        <v>0.399719580490785</v>
+      </c>
+      <c r="E122">
+        <v>0.5143867130555575</v>
+      </c>
+      <c r="F122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>0.8003901868019314</v>
+      </c>
+      <c r="C123">
+        <v>0.7063726437434877</v>
+      </c>
+      <c r="D123">
+        <v>0.3767592913145301</v>
+      </c>
+      <c r="E123">
+        <v>0.4889571214090931</v>
+      </c>
+      <c r="F123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>0.8191825586499537</v>
+      </c>
+      <c r="C124">
+        <v>0.7401489686783804</v>
+      </c>
+      <c r="D124">
+        <v>0.4624632929436922</v>
+      </c>
+      <c r="E124">
+        <v>0.5684834347643479</v>
+      </c>
+      <c r="F124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>0.7757401355899137</v>
+      </c>
+      <c r="C125">
+        <v>0.7211923088353294</v>
+      </c>
+      <c r="D125">
+        <v>0.2474784645148152</v>
+      </c>
+      <c r="E125">
+        <v>0.3566675502923531</v>
+      </c>
+      <c r="F125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>0.7984294981222261</v>
+      </c>
+      <c r="C126">
+        <v>0.7003362632409286</v>
+      </c>
+      <c r="D126">
+        <v>0.3852980348233377</v>
+      </c>
+      <c r="E126">
+        <v>0.4963762124531945</v>
+      </c>
+      <c r="F126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>0.7984294981222261</v>
+      </c>
+      <c r="C127">
+        <v>0.7003362632409286</v>
+      </c>
+      <c r="D127">
+        <v>0.3852980348233377</v>
+      </c>
+      <c r="E127">
+        <v>0.4963762124531945</v>
+      </c>
+      <c r="F127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>0.8023752621567576</v>
+      </c>
+      <c r="C128">
+        <v>0.7116646141215106</v>
+      </c>
+      <c r="D128">
+        <v>0.3927887180531514</v>
+      </c>
+      <c r="E128">
+        <v>0.5060336935905512</v>
+      </c>
+      <c r="F128" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/SVM_results/SVM_results_avg.xlsx
+++ b/SVM_results/SVM_results_avg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>accuracy</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve"> + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t xml:space="preserve"> + AE + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t xml:space="preserve"> + AM + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ST</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t xml:space="preserve"> + RT + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + ST + ARC</t>
   </si>
   <si>
@@ -106,15 +118,27 @@
     <t xml:space="preserve"> + ST + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + ST + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT</t>
   </si>
   <si>
@@ -130,6 +154,9 @@
     <t xml:space="preserve"> + AE + AM + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ST</t>
   </si>
   <si>
@@ -142,6 +169,9 @@
     <t xml:space="preserve"> + AE + RT + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + ST + ARC</t>
   </si>
   <si>
@@ -151,15 +181,27 @@
     <t xml:space="preserve"> + AE + ST + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + ST + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ST</t>
   </si>
   <si>
@@ -172,6 +214,9 @@
     <t xml:space="preserve"> + AM + RT + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + ST + ARC</t>
   </si>
   <si>
@@ -181,15 +226,27 @@
     <t xml:space="preserve"> + AM + ST + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + ST + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AM + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ST + ARC</t>
   </si>
   <si>
@@ -199,27 +256,57 @@
     <t xml:space="preserve"> + RT + ST + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + ST + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + RT + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + ST + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + ST + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + ST + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + ST + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + ST + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + ST</t>
   </si>
   <si>
@@ -232,6 +319,9 @@
     <t xml:space="preserve"> + AE + AM + RT + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + RT + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + ST + ARC</t>
   </si>
   <si>
@@ -241,15 +331,27 @@
     <t xml:space="preserve"> + AE + AM + ST + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + ST + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + AM + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ST + ARC</t>
   </si>
   <si>
@@ -259,27 +361,57 @@
     <t xml:space="preserve"> + AE + RT + ST + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + ST + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + RT + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + ST + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + ST + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + ST + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + ST + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + ST + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ST + ARC</t>
   </si>
   <si>
@@ -289,42 +421,102 @@
     <t xml:space="preserve"> + AM + RT + ST + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + ST + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AM + RT + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + ST + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AM + ST + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + ST + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + ST + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + ST + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ST + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + RT + ST + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + ST + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ST + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + ST + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + ST + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + ST + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + ST + ARC</t>
   </si>
   <si>
@@ -334,82 +526,274 @@
     <t xml:space="preserve"> + AE + AM + RT + ST + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + AM + RT + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + RT + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + ST + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + AM + ST + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + ST + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + ST + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ST + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + RT + ST + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ST + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + ST + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + ST + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + ST + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ST + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AM + RT + ST + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ST + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + ST + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + ST + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + ST + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + RT + ST + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + RT + ST + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ST + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + ST + ARC + HR</t>
   </si>
   <si>
     <t xml:space="preserve"> + AE + AM + RT + ST + ARC + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + ST + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + ST + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + RT + ST + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + ST + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AM + RT + ST + ARC + HR + M</t>
   </si>
   <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + ST + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + RT + ST + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + AE + AM + RT + ST + ARC + HR + M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + HR + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + ST + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + RT + ST + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AM + RT + ST + ARC + HR + M + N.amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + AE + AM + RT + ST + ARC + HR + M + N.amp</t>
   </si>
 </sst>
 </file>
@@ -767,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7401746085938642</v>
+        <v>0.7401112032385505</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -809,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7401746085938642</v>
+        <v>0.740125835243623</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -823,16 +1207,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7312783495098278</v>
+        <v>0.8171096912646929</v>
       </c>
       <c r="C4">
-        <v>0.4167676767676768</v>
+        <v>0.7291041605016197</v>
       </c>
       <c r="D4">
-        <v>0.0598935953568883</v>
+        <v>0.497120518676493</v>
       </c>
       <c r="E4">
-        <v>0.09616295251574462</v>
+        <v>0.5852272727272727</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -843,16 +1227,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7401746085938644</v>
+        <v>0.8586938496805345</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.742859221400454</v>
       </c>
       <c r="D5">
-        <v>0.012</v>
+        <v>0.7074468388754103</v>
       </c>
       <c r="E5">
-        <v>0.05597147950089126</v>
+        <v>0.7222674169567471</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -863,16 +1247,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7668438765058772</v>
+        <v>0.8389308881627079</v>
       </c>
       <c r="C6">
-        <v>0.6658797729618162</v>
+        <v>0.7610949410949411</v>
       </c>
       <c r="D6">
-        <v>0.2117161185215354</v>
+        <v>0.5582641752734085</v>
       </c>
       <c r="E6">
-        <v>0.3183631713554987</v>
+        <v>0.6417328780781755</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -883,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7401746085938642</v>
+        <v>0.7401453445837195</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -897,16 +1281,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7638443154660294</v>
+        <v>0.8409549821977272</v>
       </c>
       <c r="C8">
-        <v>0.586593942764688</v>
+        <v>0.7614814814814814</v>
       </c>
       <c r="D8">
-        <v>0.2969386009571327</v>
+        <v>0.5503166160081053</v>
       </c>
       <c r="E8">
-        <v>0.3927313434334307</v>
+        <v>0.6349827177898557</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -914,13 +1298,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7401746085938642</v>
+        <v>0.7401648539238159</v>
+      </c>
+      <c r="C9">
+        <v>0.669047619047619</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1002105965186637</v>
+      </c>
+      <c r="E9">
+        <v>0.1574818401937046</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -928,19 +1318,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.747095546993123</v>
-      </c>
-      <c r="C10">
-        <v>0.6003174603174604</v>
+        <v>0.7401160805735746</v>
       </c>
       <c r="D10">
-        <v>0.1142894817228388</v>
-      </c>
-      <c r="E10">
-        <v>0.1842481002100504</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -948,19 +1332,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7381944105740622</v>
+        <v>0.8320245817685217</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.7271497955485229</v>
       </c>
       <c r="D11">
-        <v>0.004</v>
+        <v>0.5716827616827617</v>
       </c>
       <c r="E11">
-        <v>0.03703703703703703</v>
+        <v>0.6367889155280485</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -968,19 +1352,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7668536311759256</v>
+        <v>0.8636443447300394</v>
       </c>
       <c r="C12">
-        <v>0.6944891640866874</v>
+        <v>0.7510957804842135</v>
       </c>
       <c r="D12">
-        <v>0.1931587414723551</v>
+        <v>0.7122820752232515</v>
       </c>
       <c r="E12">
-        <v>0.2979883862421638</v>
+        <v>0.7302385750050157</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -988,13 +1372,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7401746085938642</v>
+        <v>0.8458176852167976</v>
+      </c>
+      <c r="C13">
+        <v>0.7917712837820439</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.5606172714158195</v>
+      </c>
+      <c r="E13">
+        <v>0.6527861080331576</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1002,19 +1392,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7431449056235673</v>
-      </c>
-      <c r="C14">
-        <v>0.5504807692307692</v>
+        <v>0.7401697312588402</v>
       </c>
       <c r="D14">
-        <v>0.06713043478260869</v>
-      </c>
-      <c r="E14">
-        <v>0.2562724014336918</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1022,19 +1406,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7431449056235673</v>
+        <v>0.8429059162073843</v>
       </c>
       <c r="C15">
-        <v>0.5530952380952381</v>
+        <v>0.7800528695548705</v>
       </c>
       <c r="D15">
-        <v>0.09514662457998167</v>
+        <v>0.5507254901960785</v>
       </c>
       <c r="E15">
-        <v>0.1556469641184</v>
+        <v>0.6441193892830875</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1042,19 +1426,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7381944105740622</v>
+        <v>0.7697654001853387</v>
       </c>
       <c r="C16">
-        <v>0.25</v>
+        <v>0.6376959511077158</v>
       </c>
       <c r="D16">
-        <v>0.004</v>
+        <v>0.2698908810487758</v>
       </c>
       <c r="E16">
-        <v>0.03703703703703703</v>
+        <v>0.3769222558263654</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1062,19 +1446,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7698141735355802</v>
+        <v>0.8329854167682778</v>
       </c>
       <c r="C17">
-        <v>0.7044000375269726</v>
+        <v>0.7426825112871625</v>
       </c>
       <c r="D17">
-        <v>0.2037161185215354</v>
+        <v>0.5576399655469423</v>
       </c>
       <c r="E17">
-        <v>0.3124433761760148</v>
+        <v>0.6308428508446509</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -1082,13 +1466,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7401746085938642</v>
+        <v>0.8586792176754621</v>
+      </c>
+      <c r="C18">
+        <v>0.7400759799824017</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.7050056729381289</v>
+      </c>
+      <c r="E18">
+        <v>0.7193939923684652</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -1096,19 +1486,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7431449056235673</v>
+        <v>0.8379261571477346</v>
       </c>
       <c r="C19">
-        <v>0.5504807692307692</v>
+        <v>0.769563105197286</v>
       </c>
       <c r="D19">
-        <v>0.06713043478260869</v>
+        <v>0.5323680834001604</v>
       </c>
       <c r="E19">
-        <v>0.2562724014336918</v>
+        <v>0.6271960428342147</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -1116,19 +1506,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7678144661756816</v>
-      </c>
-      <c r="C20">
-        <v>0.6367539622001864</v>
+        <v>0.7400819392284056</v>
       </c>
       <c r="D20">
-        <v>0.2593799002138275</v>
-      </c>
-      <c r="E20">
-        <v>0.3660240831382383</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
@@ -1136,19 +1520,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7777495976198605</v>
+        <v>0.8409549821977272</v>
       </c>
       <c r="C21">
-        <v>0.6612087912087912</v>
+        <v>0.7742499369058431</v>
       </c>
       <c r="D21">
-        <v>0.3119774971998778</v>
+        <v>0.5562553897180763</v>
       </c>
       <c r="E21">
-        <v>0.4147929606625259</v>
+        <v>0.6410304703613408</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
@@ -1156,16 +1540,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7342340145344582</v>
+        <v>0.7638491928010536</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.626082251082251</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.2335555555555556</v>
+      </c>
+      <c r="E22">
+        <v>0.3360959804157964</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -1173,19 +1560,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8013754084768083</v>
+        <v>0.8556991659757107</v>
       </c>
       <c r="C23">
-        <v>0.6957370215990906</v>
+        <v>0.753737879020661</v>
       </c>
       <c r="D23">
-        <v>0.4191295183789838</v>
+        <v>0.6718445391620265</v>
       </c>
       <c r="E23">
-        <v>0.516890483160506</v>
+        <v>0.7058213178591531</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -1193,19 +1580,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>0.769804418865532</v>
+        <v>0.8537677413061504</v>
       </c>
       <c r="C24">
-        <v>0.7198340874811462</v>
+        <v>0.7719082299586502</v>
       </c>
       <c r="D24">
-        <v>0.1868084716423989</v>
+        <v>0.6235787461837882</v>
       </c>
       <c r="E24">
-        <v>0.2935499609679938</v>
+        <v>0.6866075347807948</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
@@ -1213,16 +1600,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7381944105740622</v>
+        <v>0.8103106862410379</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.737620293104164</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.4270006718682113</v>
+      </c>
+      <c r="E25">
+        <v>0.5356492319259412</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -1230,19 +1620,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7747402819099645</v>
+        <v>0.8349900014632003</v>
       </c>
       <c r="C26">
-        <v>0.6481127060074428</v>
+        <v>0.7254225724150536</v>
       </c>
       <c r="D26">
-        <v>0.2898424803991447</v>
+        <v>0.5874026729335802</v>
       </c>
       <c r="E26">
-        <v>0.3981408779954715</v>
+        <v>0.648324533181084</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
@@ -1250,19 +1640,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7599180607715944</v>
+        <v>0.8162073842852265</v>
       </c>
       <c r="C27">
-        <v>0.6809565434565434</v>
+        <v>0.6943387099774888</v>
       </c>
       <c r="D27">
-        <v>0.1500415436309948</v>
+        <v>0.5279762635025793</v>
       </c>
       <c r="E27">
-        <v>0.24180555867494</v>
+        <v>0.5975379556690137</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
@@ -1270,19 +1660,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7757303809198653</v>
+        <v>0.8487977369165488</v>
       </c>
       <c r="C28">
-        <v>0.6622315592903828</v>
+        <v>0.7162571519604768</v>
       </c>
       <c r="D28">
-        <v>0.3023952754302006</v>
+        <v>0.6784552777996974</v>
       </c>
       <c r="E28">
-        <v>0.408842725239784</v>
+        <v>0.6954780997266041</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
@@ -1290,19 +1680,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7411647076037653</v>
+        <v>0.8468711895820122</v>
       </c>
       <c r="C29">
-        <v>0.6428571428571429</v>
+        <v>0.7508730538495533</v>
       </c>
       <c r="D29">
-        <v>0.04608695652173913</v>
+        <v>0.6253583519703799</v>
       </c>
       <c r="E29">
-        <v>0.1296942621806506</v>
+        <v>0.6796483178176542</v>
       </c>
       <c r="F29" t="s">
         <v>32</v>
@@ -1310,19 +1700,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>0.747095546993123</v>
+        <v>0.8586987270155587</v>
       </c>
       <c r="C30">
-        <v>0.6907142857142857</v>
+        <v>0.7417569327224499</v>
       </c>
       <c r="D30">
-        <v>0.1026373078097953</v>
+        <v>0.7157275132275132</v>
       </c>
       <c r="E30">
-        <v>0.1673775715783913</v>
+        <v>0.7216187539126507</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -1330,16 +1720,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7381944105740622</v>
+        <v>0.8567477930059015</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.7453146853146853</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.7004559270516717</v>
+      </c>
+      <c r="E31">
+        <v>0.7184667893343162</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -1347,19 +1740,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>0.760922791786568</v>
+        <v>0.8270740867190168</v>
       </c>
       <c r="C32">
-        <v>0.6900178253119429</v>
+        <v>0.7556756756756757</v>
       </c>
       <c r="D32">
-        <v>0.1540415436309948</v>
+        <v>0.5012457945526529</v>
       </c>
       <c r="E32">
-        <v>0.2472537984777282</v>
+        <v>0.6009598643019283</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -1367,13 +1760,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7401746085938642</v>
+        <v>0.8389796615129492</v>
+      </c>
+      <c r="C33">
+        <v>0.7641986062717769</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.5519783112894128</v>
+      </c>
+      <c r="E33">
+        <v>0.6400039020943161</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -1381,13 +1780,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7401746085938642</v>
+        <v>0.8458420718919182</v>
+      </c>
+      <c r="C34">
+        <v>0.773750765314849</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.5808353621424224</v>
+      </c>
+      <c r="E34">
+        <v>0.6582946325527794</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
@@ -1395,19 +1800,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7638540701360776</v>
+        <v>0.8300395064136955</v>
       </c>
       <c r="C35">
-        <v>0.6465350877192984</v>
+        <v>0.7821428571428571</v>
       </c>
       <c r="D35">
-        <v>0.2130390998879951</v>
+        <v>0.479040223540307</v>
       </c>
       <c r="E35">
-        <v>0.3183422902368095</v>
+        <v>0.5920016492466283</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -1415,19 +1820,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7866263473638005</v>
+        <v>0.7371604155489442</v>
       </c>
       <c r="C36">
-        <v>0.695652597569106</v>
+        <v>0.5</v>
       </c>
       <c r="D36">
-        <v>0.340527848487934</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="E36">
-        <v>0.4464732470044258</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="F36" t="s">
         <v>39</v>
@@ -1435,19 +1840,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7371945568941131</v>
+        <v>0.8360191191532946</v>
       </c>
       <c r="C37">
-        <v>0.5661538461538462</v>
+        <v>0.7494809914812607</v>
       </c>
       <c r="D37">
-        <v>0.0697296609306588</v>
+        <v>0.5448216619981325</v>
       </c>
       <c r="E37">
-        <v>0.1170795008211062</v>
+        <v>0.6305654558499695</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -1455,19 +1860,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8013754084768083</v>
+        <v>0.8260596010339951</v>
       </c>
       <c r="C38">
-        <v>0.7105912279441692</v>
+        <v>0.7183022774327122</v>
       </c>
       <c r="D38">
-        <v>0.3920123205376235</v>
+        <v>0.5374499714122355</v>
       </c>
       <c r="E38">
-        <v>0.5021199521199521</v>
+        <v>0.6140463295294639</v>
       </c>
       <c r="F38" t="s">
         <v>41</v>
@@ -1475,19 +1880,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7628981124713455</v>
+        <v>0.8586889723455103</v>
       </c>
       <c r="C39">
-        <v>0.7069841269841269</v>
+        <v>0.7544942954054887</v>
       </c>
       <c r="D39">
-        <v>0.1527053253232868</v>
+        <v>0.6769875776397515</v>
       </c>
       <c r="E39">
-        <v>0.2485208094998845</v>
+        <v>0.7110447024492852</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -1495,16 +1900,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7381944105740622</v>
+        <v>0.8438423645320196</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.7892178782081938</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.5498350786964196</v>
+      </c>
+      <c r="E40">
+        <v>0.6464213732714682</v>
       </c>
       <c r="F40" t="s">
         <v>43</v>
@@ -1512,19 +1920,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7767156025947421</v>
-      </c>
-      <c r="C41">
-        <v>0.7080782502521634</v>
+        <v>0.7401697312588402</v>
       </c>
       <c r="D41">
-        <v>0.2510064148253742</v>
-      </c>
-      <c r="E41">
-        <v>0.3675461247128471</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>44</v>
@@ -1532,19 +1934,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7539872213822368</v>
+        <v>0.8429205482124568</v>
       </c>
       <c r="C42">
-        <v>0.6752907223495458</v>
+        <v>0.7662523934588543</v>
       </c>
       <c r="D42">
-        <v>0.1235098258833113</v>
+        <v>0.5698164335664335</v>
       </c>
       <c r="E42">
-        <v>0.2031537861046058</v>
+        <v>0.6506234644695565</v>
       </c>
       <c r="F42" t="s">
         <v>45</v>
@@ -1552,19 +1954,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>0.776705847924694</v>
+        <v>0.7529922450373115</v>
       </c>
       <c r="C43">
-        <v>0.691945773524721</v>
+        <v>0.724963924963925</v>
       </c>
       <c r="D43">
-        <v>0.2543191121067101</v>
+        <v>0.1104347378710706</v>
       </c>
       <c r="E43">
-        <v>0.3667629894510835</v>
+        <v>0.1829449716949717</v>
       </c>
       <c r="F43" t="s">
         <v>46</v>
@@ -1572,16 +1974,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7381944105740622</v>
+        <v>0.8507633029312783</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.7396137471702902</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.6715715619581165</v>
+      </c>
+      <c r="E44">
+        <v>0.6984910852788649</v>
       </c>
       <c r="F44" t="s">
         <v>47</v>
@@ -1589,19 +1994,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7618738721162757</v>
+        <v>0.8408623128322684</v>
       </c>
       <c r="C45">
-        <v>0.6369862155388472</v>
+        <v>0.7558638461077486</v>
       </c>
       <c r="D45">
-        <v>0.2130390998879951</v>
+        <v>0.5800122954047746</v>
       </c>
       <c r="E45">
-        <v>0.3165689751352985</v>
+        <v>0.6544242945080845</v>
       </c>
       <c r="F45" t="s">
         <v>48</v>
@@ -1609,19 +2014,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7846461493439986</v>
+        <v>0.8181924596400526</v>
       </c>
       <c r="C46">
-        <v>0.6826404904393519</v>
+        <v>0.7332132132132132</v>
       </c>
       <c r="D46">
-        <v>0.3398065370125242</v>
+        <v>0.4755613201917642</v>
       </c>
       <c r="E46">
-        <v>0.4426255467302861</v>
+        <v>0.5747066960512421</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
@@ -1629,19 +2034,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7362142125542602</v>
+        <v>0.8290542847388188</v>
       </c>
       <c r="C47">
-        <v>0.4642857142857142</v>
+        <v>0.7235858585858586</v>
       </c>
       <c r="D47">
-        <v>0.06615823235923021</v>
+        <v>0.5779511841252398</v>
       </c>
       <c r="E47">
-        <v>0.1351106635082294</v>
+        <v>0.6334535774156066</v>
       </c>
       <c r="F47" t="s">
         <v>50</v>
@@ -1649,19 +2054,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8003804321318831</v>
+        <v>0.8270984733941373</v>
       </c>
       <c r="C48">
-        <v>0.7029495558907325</v>
+        <v>0.7085923600209314</v>
       </c>
       <c r="D48">
-        <v>0.3920123205376235</v>
+        <v>0.5751074658538552</v>
       </c>
       <c r="E48">
-        <v>0.5007359307359307</v>
+        <v>0.6332768848059736</v>
       </c>
       <c r="F48" t="s">
         <v>51</v>
@@ -1669,19 +2074,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7648734331561234</v>
+        <v>0.8557137979807832</v>
       </c>
       <c r="C49">
-        <v>0.7154456654456655</v>
+        <v>0.7585531135531136</v>
       </c>
       <c r="D49">
-        <v>0.1603318399348335</v>
+        <v>0.6695745240165487</v>
       </c>
       <c r="E49">
-        <v>0.2588082703548805</v>
+        <v>0.7037146427583634</v>
       </c>
       <c r="F49" t="s">
         <v>52</v>
@@ -1689,16 +2094,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7381944105740622</v>
+        <v>0.8507681802663024</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.7556618530329349</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.6263104593882461</v>
+      </c>
+      <c r="E50">
+        <v>0.6841490754190459</v>
       </c>
       <c r="F50" t="s">
         <v>53</v>
@@ -1706,19 +2114,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>0.7737501829000635</v>
+        <v>0.855704043310735</v>
       </c>
       <c r="C51">
-        <v>0.6939676113360325</v>
+        <v>0.7492108985851164</v>
       </c>
       <c r="D51">
-        <v>0.2480204663476224</v>
+        <v>0.6785825136229449</v>
       </c>
       <c r="E51">
-        <v>0.3615079365079366</v>
+        <v>0.7075186381610022</v>
       </c>
       <c r="F51" t="s">
         <v>54</v>
@@ -1726,19 +2134,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>0.7569575184119397</v>
+        <v>0.858708481685607</v>
       </c>
       <c r="C52">
-        <v>0.6947216526163895</v>
+        <v>0.755215763764032</v>
       </c>
       <c r="D52">
-        <v>0.1362054780572243</v>
+        <v>0.6894297901554274</v>
       </c>
       <c r="E52">
-        <v>0.2202195273808734</v>
+        <v>0.7163912913045223</v>
       </c>
       <c r="F52" t="s">
         <v>55</v>
@@ -1746,19 +2154,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>0.776705847924694</v>
+        <v>0.8310491147636931</v>
       </c>
       <c r="C53">
-        <v>0.6950419527078566</v>
+        <v>0.7677887866858455</v>
       </c>
       <c r="D53">
-        <v>0.2546118521535485</v>
+        <v>0.5075364936288471</v>
       </c>
       <c r="E53">
-        <v>0.368301515309188</v>
+        <v>0.6093639615936115</v>
       </c>
       <c r="F53" t="s">
         <v>56</v>
@@ -1766,16 +2174,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>0.7381944105740622</v>
+        <v>0.8458810905721114</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.7934189640768589</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.5498325358851675</v>
+      </c>
+      <c r="E54">
+        <v>0.6481800261061829</v>
       </c>
       <c r="F54" t="s">
         <v>57</v>
@@ -1783,19 +2194,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7796858996244451</v>
+        <v>0.8418865531873385</v>
       </c>
       <c r="C55">
-        <v>0.6649082125603865</v>
+        <v>0.7857010861662024</v>
       </c>
       <c r="D55">
-        <v>0.3121249363608594</v>
+        <v>0.5500248560962847</v>
       </c>
       <c r="E55">
-        <v>0.4219742480686051</v>
+        <v>0.6428837196179944</v>
       </c>
       <c r="F55" t="s">
         <v>58</v>
@@ -1803,19 +2214,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7529971223723357</v>
+        <v>0.8369311808028094</v>
       </c>
       <c r="C56">
-        <v>0.6095324283559578</v>
+        <v>0.7894515713870554</v>
       </c>
       <c r="D56">
-        <v>0.1563024131962122</v>
+        <v>0.5073645126102939</v>
       </c>
       <c r="E56">
-        <v>0.2459585918944862</v>
+        <v>0.6157144060758519</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -1823,19 +2234,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>0.8033702385016828</v>
+        <v>0.7372189435692338</v>
       </c>
       <c r="C57">
-        <v>0.7</v>
+        <v>0.3723076923076923</v>
       </c>
       <c r="D57">
-        <v>0.4087887180531514</v>
+        <v>0.06881090607505702</v>
       </c>
       <c r="E57">
-        <v>0.5135287984395717</v>
+        <v>0.136584679688128</v>
       </c>
       <c r="F57" t="s">
         <v>60</v>
@@ -1843,19 +2254,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7668633858459739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="C58">
-        <v>0.6537321937321937</v>
+        <v>0.772956307258633</v>
       </c>
       <c r="D58">
-        <v>0.2553169738315854</v>
+        <v>0.5729310344827586</v>
       </c>
       <c r="E58">
-        <v>0.3553500452923669</v>
+        <v>0.6529367678077652</v>
       </c>
       <c r="F58" t="s">
         <v>61</v>
@@ -1863,19 +2274,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>0.8063649222065065</v>
+        <v>0.8547334536409306</v>
       </c>
       <c r="C59">
-        <v>0.6964410551996689</v>
+        <v>0.7356019524514612</v>
       </c>
       <c r="D59">
-        <v>0.4487373994501578</v>
+        <v>0.6863639405091396</v>
       </c>
       <c r="E59">
-        <v>0.5447650680984013</v>
+        <v>0.7063293396884547</v>
       </c>
       <c r="F59" t="s">
         <v>62</v>
@@ -1883,19 +2294,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>0.8033653611666585</v>
+        <v>0.8418524118421693</v>
       </c>
       <c r="C60">
-        <v>0.712591306886332</v>
+        <v>0.7780344526474557</v>
       </c>
       <c r="D60">
-        <v>0.3893998574483249</v>
+        <v>0.5579151302190032</v>
       </c>
       <c r="E60">
-        <v>0.5014391379808671</v>
+        <v>0.6433686711448654</v>
       </c>
       <c r="F60" t="s">
         <v>63</v>
@@ -1903,19 +2314,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7579476174218407</v>
+        <v>0.8191435399697605</v>
       </c>
       <c r="C61">
-        <v>0.7966666666666666</v>
+        <v>0.7337254901960785</v>
       </c>
       <c r="D61">
-        <v>0.1106021790041747</v>
+        <v>0.4884505813953489</v>
       </c>
       <c r="E61">
-        <v>0.1893851520112311</v>
+        <v>0.5816349513358426</v>
       </c>
       <c r="F61" t="s">
         <v>64</v>
@@ -1923,19 +2334,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7806759986343461</v>
+        <v>0.8320392137735941</v>
       </c>
       <c r="C62">
-        <v>0.6678042328042328</v>
+        <v>0.7272563676633444</v>
       </c>
       <c r="D62">
-        <v>0.3222888707870889</v>
+        <v>0.5800961957363011</v>
       </c>
       <c r="E62">
-        <v>0.4300122850122851</v>
+        <v>0.6421626997511724</v>
       </c>
       <c r="F62" t="s">
         <v>65</v>
@@ -1943,19 +2354,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7707847632053847</v>
+        <v>0.8201141296395649</v>
       </c>
       <c r="C63">
-        <v>0.6868984155940677</v>
+        <v>0.7018502540023344</v>
       </c>
       <c r="D63">
-        <v>0.2337898381020263</v>
+        <v>0.5565717474729356</v>
       </c>
       <c r="E63">
-        <v>0.3438499621956693</v>
+        <v>0.6166483817722129</v>
       </c>
       <c r="F63" t="s">
         <v>66</v>
@@ -1963,19 +2374,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7658391454909038</v>
+        <v>0.8528069063063942</v>
       </c>
       <c r="C64">
-        <v>0.6548800356849892</v>
+        <v>0.7463528473590394</v>
       </c>
       <c r="D64">
-        <v>0.2182184095305977</v>
+        <v>0.6616029358394118</v>
       </c>
       <c r="E64">
-        <v>0.3239993226861952</v>
+        <v>0.7009646092115279</v>
       </c>
       <c r="F64" t="s">
         <v>67</v>
@@ -1983,19 +2394,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7668097351607083</v>
+        <v>0.8508120762815198</v>
       </c>
       <c r="C65">
-        <v>0.6807684369294276</v>
+        <v>0.7558622716180935</v>
       </c>
       <c r="D65">
-        <v>0.1991384787699827</v>
+        <v>0.6302614120297048</v>
       </c>
       <c r="E65">
-        <v>0.3068104759730131</v>
+        <v>0.6855941908532016</v>
       </c>
       <c r="F65" t="s">
         <v>68</v>
@@ -2003,19 +2414,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7876066917036532</v>
+        <v>0.857684241330537</v>
       </c>
       <c r="C66">
-        <v>0.6850883256528417</v>
+        <v>0.7417578076396666</v>
       </c>
       <c r="D66">
-        <v>0.3478872823541391</v>
+        <v>0.7009810938376461</v>
       </c>
       <c r="E66">
-        <v>0.4531438914068022</v>
+        <v>0.7175923413828856</v>
       </c>
       <c r="F66" t="s">
         <v>69</v>
@@ -2023,19 +2434,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>0.739174754913915</v>
+        <v>0.8576744866604887</v>
       </c>
       <c r="C67">
-        <v>0.6205128205128205</v>
+        <v>0.7355095884507649</v>
       </c>
       <c r="D67">
-        <v>0.06645097240606863</v>
+        <v>0.6979962096444603</v>
       </c>
       <c r="E67">
-        <v>0.1129545979462033</v>
+        <v>0.7153955910186427</v>
       </c>
       <c r="F67" t="s">
         <v>70</v>
@@ -2043,19 +2454,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>0.8043408281714871</v>
+        <v>0.8320197044334975</v>
       </c>
       <c r="C68">
-        <v>0.7159168862326757</v>
+        <v>0.7601665168494438</v>
       </c>
       <c r="D68">
-        <v>0.408224315242847</v>
+        <v>0.5011936312275295</v>
       </c>
       <c r="E68">
-        <v>0.5151670477921516</v>
+        <v>0.6029127614803951</v>
       </c>
       <c r="F68" t="s">
         <v>71</v>
@@ -2063,19 +2474,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7579720040969613</v>
+        <v>0.8418524118421693</v>
       </c>
       <c r="C69">
-        <v>0.6765079365079365</v>
+        <v>0.7778360535485054</v>
       </c>
       <c r="D69">
-        <v>0.1309500050911312</v>
+        <v>0.5547078585073446</v>
       </c>
       <c r="E69">
-        <v>0.2183029721796321</v>
+        <v>0.6456438224511034</v>
       </c>
       <c r="F69" t="s">
         <v>72</v>
@@ -2083,16 +2494,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>0.7391845095839633</v>
+        <v>0.8429156708774326</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.7772029272701989</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.5555153042751613</v>
+      </c>
+      <c r="E70">
+        <v>0.6446829343159155</v>
       </c>
       <c r="F70" t="s">
         <v>73</v>
@@ -2100,19 +2514,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7638930888162708</v>
+        <v>0.8339511291030581</v>
       </c>
       <c r="C71">
-        <v>0.7557422969187675</v>
+        <v>0.7671969696969697</v>
       </c>
       <c r="D71">
-        <v>0.1607147948274106</v>
+        <v>0.5159748508098891</v>
       </c>
       <c r="E71">
-        <v>0.2514534882877165</v>
+        <v>0.6145265960340212</v>
       </c>
       <c r="F71" t="s">
         <v>74</v>
@@ -2120,19 +2534,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7559674194020387</v>
+        <v>0.738145637223821</v>
       </c>
       <c r="C72">
-        <v>0.728939393939394</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="D72">
-        <v>0.1152427451379697</v>
+        <v>0.03855942548951667</v>
       </c>
       <c r="E72">
-        <v>0.1944969897628946</v>
+        <v>0.08512648536890607</v>
       </c>
       <c r="F72" t="s">
         <v>75</v>
@@ -2140,19 +2554,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7747500365800126</v>
+        <v>0.8370092181631955</v>
       </c>
       <c r="C73">
-        <v>0.7101754385964911</v>
+        <v>0.7494005694005694</v>
       </c>
       <c r="D73">
-        <v>0.2267020669992872</v>
+        <v>0.5498587391946026</v>
       </c>
       <c r="E73">
-        <v>0.3395500801010853</v>
+        <v>0.6334799916384256</v>
       </c>
       <c r="F73" t="s">
         <v>76</v>
@@ -2160,16 +2574,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7381944105740622</v>
+        <v>0.8567136516607325</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.7560951902128372</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>0.6749232890580001</v>
+      </c>
+      <c r="E74">
+        <v>0.7126735870346417</v>
       </c>
       <c r="F74" t="s">
         <v>77</v>
@@ -2177,19 +2594,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7935326537579865</v>
+        <v>0.8448373408769448</v>
       </c>
       <c r="C75">
-        <v>0.7212314369347617</v>
+        <v>0.745413116510054</v>
       </c>
       <c r="D75">
-        <v>0.3390557987984931</v>
+        <v>0.60948303870043</v>
       </c>
       <c r="E75">
-        <v>0.4574652476489209</v>
+        <v>0.668732262664516</v>
       </c>
       <c r="F75" t="s">
         <v>78</v>
@@ -2197,19 +2614,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7519972686923866</v>
+        <v>0.8537043359508365</v>
       </c>
       <c r="C76">
-        <v>0.6195072900955254</v>
+        <v>0.7343537414965986</v>
       </c>
       <c r="D76">
-        <v>0.1552332756338458</v>
+        <v>0.6705026137957414</v>
       </c>
       <c r="E76">
-        <v>0.2450286614992497</v>
+        <v>0.6983270106458607</v>
       </c>
       <c r="F76" t="s">
         <v>79</v>
@@ -2217,19 +2634,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>0.799390333121982</v>
+        <v>0.8606594156952641</v>
       </c>
       <c r="C77">
-        <v>0.7062745098039216</v>
+        <v>0.7549629550542305</v>
       </c>
       <c r="D77">
-        <v>0.3844408919661949</v>
+        <v>0.6833265913068869</v>
       </c>
       <c r="E77">
-        <v>0.4951379335444189</v>
+        <v>0.7169910952815786</v>
       </c>
       <c r="F77" t="s">
         <v>80</v>
@@ -2237,19 +2654,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7796907769594693</v>
+        <v>0.8300443837487197</v>
       </c>
       <c r="C78">
-        <v>0.6817364026092678</v>
+        <v>0.7448992673992675</v>
       </c>
       <c r="D78">
-        <v>0.3171389878831076</v>
+        <v>0.5262837368585656</v>
       </c>
       <c r="E78">
-        <v>0.4253022869941278</v>
+        <v>0.6114376306946285</v>
       </c>
       <c r="F78" t="s">
         <v>81</v>
@@ -2257,19 +2674,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>0.8093108325610887</v>
+        <v>0.8458420718919182</v>
       </c>
       <c r="C79">
-        <v>0.7098774873316029</v>
+        <v>0.7593779829498699</v>
       </c>
       <c r="D79">
-        <v>0.4437490072294064</v>
+        <v>0.5989119467415612</v>
       </c>
       <c r="E79">
-        <v>0.5450404756513276</v>
+        <v>0.6676419232940972</v>
       </c>
       <c r="F79" t="s">
         <v>82</v>
@@ -2277,19 +2694,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>0.7974052577671559</v>
+        <v>0.8498024679315221</v>
       </c>
       <c r="C80">
-        <v>0.6971814417466591</v>
+        <v>0.7518766035642466</v>
       </c>
       <c r="D80">
-        <v>0.3893998574483249</v>
+        <v>0.6340082789490424</v>
       </c>
       <c r="E80">
-        <v>0.4951743976682316</v>
+        <v>0.6848009055224595</v>
       </c>
       <c r="F80" t="s">
         <v>83</v>
@@ -2297,19 +2714,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7540018533873092</v>
+        <v>0.8192215773301468</v>
       </c>
       <c r="C81">
-        <v>0.7757575757575758</v>
+        <v>0.7116526659137311</v>
       </c>
       <c r="D81">
-        <v>0.1004733733835658</v>
+        <v>0.5113605238188919</v>
       </c>
       <c r="E81">
-        <v>0.1720177748566047</v>
+        <v>0.5925951661185364</v>
       </c>
       <c r="F81" t="s">
         <v>84</v>
@@ -2317,19 +2734,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7875920596985807</v>
+        <v>0.813212700580403</v>
       </c>
       <c r="C82">
-        <v>0.7040978745077221</v>
+        <v>0.7374479410532542</v>
       </c>
       <c r="D82">
-        <v>0.317512473271561</v>
+        <v>0.4455170731090631</v>
       </c>
       <c r="E82">
-        <v>0.4345944375471964</v>
+        <v>0.5480513581353916</v>
       </c>
       <c r="F82" t="s">
         <v>85</v>
@@ -2337,19 +2754,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7589425937667658</v>
+        <v>0.831083256108862</v>
       </c>
       <c r="C83">
-        <v>0.6854761904761906</v>
+        <v>0.7160324271818823</v>
       </c>
       <c r="D83">
-        <v>0.1649818755727523</v>
+        <v>0.5886318972033258</v>
       </c>
       <c r="E83">
-        <v>0.2532169276088589</v>
+        <v>0.6449147854571301</v>
       </c>
       <c r="F83" t="s">
         <v>86</v>
@@ -2357,19 +2774,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>0.766834121835829</v>
+        <v>0.8399453738477296</v>
       </c>
       <c r="C84">
-        <v>0.6832567939456484</v>
+        <v>0.7282719709608803</v>
       </c>
       <c r="D84">
-        <v>0.2077968638631504</v>
+        <v>0.6368498168498168</v>
       </c>
       <c r="E84">
-        <v>0.3127764210697371</v>
+        <v>0.6723385840748939</v>
       </c>
       <c r="F84" t="s">
         <v>87</v>
@@ -2377,19 +2794,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7915524557381847</v>
+        <v>0.8507486709262059</v>
       </c>
       <c r="C85">
-        <v>0.7099493856527104</v>
+        <v>0.7348851093088459</v>
       </c>
       <c r="D85">
-        <v>0.3390557987984931</v>
+        <v>0.6668672562089814</v>
       </c>
       <c r="E85">
-        <v>0.4548313902782214</v>
+        <v>0.698202150249706</v>
       </c>
       <c r="F85" t="s">
         <v>88</v>
@@ -2397,19 +2814,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7510071696824856</v>
+        <v>0.8537628639711261</v>
       </c>
       <c r="C86">
-        <v>0.6155131418289314</v>
+        <v>0.7368647979286277</v>
       </c>
       <c r="D86">
-        <v>0.1592332756338458</v>
+        <v>0.6882846220249106</v>
       </c>
       <c r="E86">
-        <v>0.2492105906811789</v>
+        <v>0.7101926621233553</v>
       </c>
       <c r="F86" t="s">
         <v>89</v>
@@ -2417,19 +2834,19 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>0.799390333121982</v>
+        <v>0.8477881285665513</v>
       </c>
       <c r="C87">
-        <v>0.7025245098039214</v>
+        <v>0.7464268461007592</v>
       </c>
       <c r="D87">
-        <v>0.3884408919661949</v>
+        <v>0.6277069214143131</v>
       </c>
       <c r="E87">
-        <v>0.4970891530566141</v>
+        <v>0.6811184958640366</v>
       </c>
       <c r="F87" t="s">
         <v>90</v>
@@ -2437,19 +2854,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7806857533043944</v>
+        <v>0.8507828122713749</v>
       </c>
       <c r="C88">
-        <v>0.683047385620915</v>
+        <v>0.7528384680464704</v>
       </c>
       <c r="D88">
-        <v>0.3254868139700641</v>
+        <v>0.6348179773701594</v>
       </c>
       <c r="E88">
-        <v>0.4322652381900018</v>
+        <v>0.6867175338109659</v>
       </c>
       <c r="F88" t="s">
         <v>91</v>
@@ -2457,19 +2874,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>0.8073355118763109</v>
+        <v>0.8596888260254596</v>
       </c>
       <c r="C89">
-        <v>0.7038523162661093</v>
+        <v>0.7436989778131057</v>
       </c>
       <c r="D89">
-        <v>0.4401775786579778</v>
+        <v>0.6973947368421052</v>
       </c>
       <c r="E89">
-        <v>0.540256562091088</v>
+        <v>0.7169950509661404</v>
       </c>
       <c r="F89" t="s">
         <v>92</v>
@@ -2477,19 +2894,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>0.7974052577671559</v>
+        <v>0.8330293127834951</v>
       </c>
       <c r="C90">
-        <v>0.6971814417466591</v>
+        <v>0.7679062855533443</v>
       </c>
       <c r="D90">
-        <v>0.3893998574483249</v>
+        <v>0.513678519244557</v>
       </c>
       <c r="E90">
-        <v>0.4951743976682316</v>
+        <v>0.6149174407345573</v>
       </c>
       <c r="F90" t="s">
         <v>93</v>
@@ -2497,19 +2914,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7520265327025314</v>
+        <v>0.8310344827586208</v>
       </c>
       <c r="C91">
-        <v>0.7521367521367521</v>
+        <v>0.75526971888121</v>
       </c>
       <c r="D91">
-        <v>0.0961255472966093</v>
+        <v>0.5166927542503579</v>
       </c>
       <c r="E91">
-        <v>0.1650624077742722</v>
+        <v>0.6111594429666719</v>
       </c>
       <c r="F91" t="s">
         <v>94</v>
@@ -2517,19 +2934,19 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7866019606886796</v>
+        <v>0.8438716285421645</v>
       </c>
       <c r="C92">
-        <v>0.7042358473169832</v>
+        <v>0.7622845127129093</v>
       </c>
       <c r="D92">
-        <v>0.3139410447001324</v>
+        <v>0.5832513202002112</v>
       </c>
       <c r="E92">
-        <v>0.4299184115680138</v>
+        <v>0.6591389534039261</v>
       </c>
       <c r="F92" t="s">
         <v>95</v>
@@ -2537,19 +2954,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>0.756962395746964</v>
+        <v>0.8260547236989708</v>
       </c>
       <c r="C93">
-        <v>0.6685064935064935</v>
+        <v>0.7479328165374677</v>
       </c>
       <c r="D93">
-        <v>0.1689818755727523</v>
+        <v>0.4986949685534592</v>
       </c>
       <c r="E93">
-        <v>0.2564212503321561</v>
+        <v>0.5958940508912514</v>
       </c>
       <c r="F93" t="s">
         <v>96</v>
@@ -2557,19 +2974,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>0.766834121835829</v>
+        <v>0.8577086280056576</v>
       </c>
       <c r="C94">
-        <v>0.6832567939456484</v>
+        <v>0.745792798607444</v>
       </c>
       <c r="D94">
-        <v>0.2077968638631504</v>
+        <v>0.680817538324637</v>
       </c>
       <c r="E94">
-        <v>0.3127764210697371</v>
+        <v>0.7099830123717009</v>
       </c>
       <c r="F94" t="s">
         <v>97</v>
@@ -2577,19 +2994,19 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>0.7806857533043946</v>
+        <v>0.8458225625518218</v>
       </c>
       <c r="C95">
-        <v>0.7152450090744101</v>
+        <v>0.7986381372250937</v>
       </c>
       <c r="D95">
-        <v>0.2745311068119336</v>
+        <v>0.551646601841848</v>
       </c>
       <c r="E95">
-        <v>0.3909138806325507</v>
+        <v>0.6426129831589377</v>
       </c>
       <c r="F95" t="s">
         <v>98</v>
@@ -2597,19 +3014,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8073160025362144</v>
+        <v>0.8211920206799006</v>
       </c>
       <c r="C96">
-        <v>0.708475252013652</v>
+        <v>0.7319973074578338</v>
       </c>
       <c r="D96">
-        <v>0.4257419814682823</v>
+        <v>0.5002073009841116</v>
       </c>
       <c r="E96">
-        <v>0.5316815503116873</v>
+        <v>0.5913641419759329</v>
       </c>
       <c r="F96" t="s">
         <v>99</v>
@@ -2617,19 +3034,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>0.7984148661171535</v>
+        <v>0.8251182753743356</v>
       </c>
       <c r="C97">
-        <v>0.704621937721517</v>
+        <v>0.7229946765376127</v>
       </c>
       <c r="D97">
-        <v>0.3699642602586294</v>
+        <v>0.5489433634933305</v>
       </c>
       <c r="E97">
-        <v>0.4834291166776087</v>
+        <v>0.6184755874051279</v>
       </c>
       <c r="F97" t="s">
         <v>100</v>
@@ -2637,19 +3054,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>0.8053650685265572</v>
+        <v>0.8181339316197629</v>
       </c>
       <c r="C98">
-        <v>0.705380697733639</v>
+        <v>0.6950910931174088</v>
       </c>
       <c r="D98">
-        <v>0.4256458609102943</v>
+        <v>0.5327301909886608</v>
       </c>
       <c r="E98">
-        <v>0.5289388410593976</v>
+        <v>0.601849514788604</v>
       </c>
       <c r="F98" t="s">
         <v>101</v>
@@ -2657,19 +3074,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7797005316295177</v>
+        <v>0.8547334536409306</v>
       </c>
       <c r="C99">
-        <v>0.6889030100334448</v>
+        <v>0.7456837044221126</v>
       </c>
       <c r="D99">
-        <v>0.2855816108339273</v>
+        <v>0.6718775434702183</v>
       </c>
       <c r="E99">
-        <v>0.3946321810949025</v>
+        <v>0.7058170898441534</v>
       </c>
       <c r="F99" t="s">
         <v>102</v>
@@ -2677,19 +3094,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>0.7925328000780374</v>
+        <v>0.8517387699361068</v>
       </c>
       <c r="C100">
-        <v>0.7057149321266969</v>
+        <v>0.7434807850898894</v>
       </c>
       <c r="D100">
-        <v>0.3454773444659403</v>
+        <v>0.6522286450092321</v>
       </c>
       <c r="E100">
-        <v>0.4615739348370927</v>
+        <v>0.6934363666361983</v>
       </c>
       <c r="F100" t="s">
         <v>103</v>
@@ -2697,19 +3114,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>0.7559381553918938</v>
+        <v>0.8546944349607374</v>
       </c>
       <c r="C101">
-        <v>0.6492063492063492</v>
+        <v>0.7496117644286981</v>
       </c>
       <c r="D101">
-        <v>0.1688784237857652</v>
+        <v>0.6729520986113278</v>
       </c>
       <c r="E101">
-        <v>0.2658500948766603</v>
+        <v>0.7064121811490234</v>
       </c>
       <c r="F101" t="s">
         <v>104</v>
@@ -2717,19 +3134,19 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>0.8013558991367118</v>
+        <v>0.8656001560747206</v>
       </c>
       <c r="C102">
-        <v>0.7141375661375661</v>
+        <v>0.7633857438076667</v>
       </c>
       <c r="D102">
-        <v>0.3832910090622136</v>
+        <v>0.7023640082414691</v>
       </c>
       <c r="E102">
-        <v>0.4960317425777628</v>
+        <v>0.7302361624661765</v>
       </c>
       <c r="F102" t="s">
         <v>105</v>
@@ -2737,19 +3154,19 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>0.7836462956640491</v>
+        <v>0.8319904404233526</v>
       </c>
       <c r="C103">
-        <v>0.6816040178109144</v>
+        <v>0.7798707247081257</v>
       </c>
       <c r="D103">
-        <v>0.3473228795438347</v>
+        <v>0.4990213806385603</v>
       </c>
       <c r="E103">
-        <v>0.4516599174736607</v>
+        <v>0.607355007341597</v>
       </c>
       <c r="F103" t="s">
         <v>106</v>
@@ -2757,19 +3174,19 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>0.8162268936253232</v>
+        <v>0.8458810905721114</v>
       </c>
       <c r="C104">
-        <v>0.7331124473249711</v>
+        <v>0.7875069379788943</v>
       </c>
       <c r="D104">
-        <v>0.4514773444659403</v>
+        <v>0.5603947963477116</v>
       </c>
       <c r="E104">
-        <v>0.5581239489040908</v>
+        <v>0.6530564534561009</v>
       </c>
       <c r="F104" t="s">
         <v>107</v>
@@ -2777,19 +3194,19 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>0.801370531141784</v>
+        <v>0.8429059162073843</v>
       </c>
       <c r="C105">
-        <v>0.7148051948051948</v>
+        <v>0.7763073942329283</v>
       </c>
       <c r="D105">
-        <v>0.3944689950106914</v>
+        <v>0.563275605267836</v>
       </c>
       <c r="E105">
-        <v>0.5032979229398615</v>
+        <v>0.6512471314976935</v>
       </c>
       <c r="F105" t="s">
         <v>108</v>
@@ -2797,19 +3214,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>0.7510315563576062</v>
+        <v>0.8408915768424133</v>
       </c>
       <c r="C106">
-        <v>0.8020202020202021</v>
+        <v>0.7801327838827838</v>
       </c>
       <c r="D106">
-        <v>0.08156817024742898</v>
+        <v>0.5422277877161599</v>
       </c>
       <c r="E106">
-        <v>0.1435700216788531</v>
+        <v>0.6383945031003855</v>
       </c>
       <c r="F106" t="s">
         <v>109</v>
@@ -2817,19 +3234,19 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>0.783641418329025</v>
+        <v>0.741154952933717</v>
       </c>
       <c r="C107">
-        <v>0.6926448551448551</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="D107">
-        <v>0.3020768760818654</v>
+        <v>0.03125370846873325</v>
       </c>
       <c r="E107">
-        <v>0.4169414538582895</v>
+        <v>0.06990212516528306</v>
       </c>
       <c r="F107" t="s">
         <v>110</v>
@@ -2837,19 +3254,19 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>0.7480710139979516</v>
+        <v>0.8428766521972394</v>
       </c>
       <c r="C108">
-        <v>0.7455555555555555</v>
+        <v>0.7500798434073696</v>
       </c>
       <c r="D108">
-        <v>0.1033329599837084</v>
+        <v>0.5960192273630763</v>
       </c>
       <c r="E108">
-        <v>0.1676103988603989</v>
+        <v>0.6611831913404946</v>
       </c>
       <c r="F108" t="s">
         <v>111</v>
@@ -2857,19 +3274,19 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>0.766838999170853</v>
+        <v>0.851772911281276</v>
       </c>
       <c r="C109">
-        <v>0.6908333333333333</v>
+        <v>0.7437350500255218</v>
       </c>
       <c r="D109">
-        <v>0.1962254352917218</v>
+        <v>0.6575521227537298</v>
       </c>
       <c r="E109">
-        <v>0.2999042624042624</v>
+        <v>0.6951906003762689</v>
       </c>
       <c r="F109" t="s">
         <v>112</v>
@@ -2877,19 +3294,19 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>0.7856118616787787</v>
+        <v>0.839925864507633</v>
       </c>
       <c r="C110">
-        <v>0.7099354838709677</v>
+        <v>0.7287588652482269</v>
       </c>
       <c r="D110">
-        <v>0.3078578556155178</v>
+        <v>0.611873232432764</v>
       </c>
       <c r="E110">
-        <v>0.4242262852477182</v>
+        <v>0.6651442036772026</v>
       </c>
       <c r="F110" t="s">
         <v>113</v>
@@ -2897,19 +3314,19 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>0.8004096961420279</v>
+        <v>0.850821830951568</v>
       </c>
       <c r="C111">
-        <v>0.6983957219251338</v>
+        <v>0.7254269080356037</v>
       </c>
       <c r="D111">
-        <v>0.3960674065777415</v>
+        <v>0.6878829858162898</v>
       </c>
       <c r="E111">
-        <v>0.5052900527368613</v>
+        <v>0.7040142325523687</v>
       </c>
       <c r="F111" t="s">
         <v>114</v>
@@ -2917,19 +3334,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>0.7954396917524265</v>
+        <v>0.8577476466858508</v>
       </c>
       <c r="C112">
-        <v>0.6870216646098999</v>
+        <v>0.7614977929871548</v>
       </c>
       <c r="D112">
-        <v>0.3731071174014866</v>
+        <v>0.6664114887703519</v>
       </c>
       <c r="E112">
-        <v>0.4804047383799931</v>
+        <v>0.7078131131265372</v>
       </c>
       <c r="F112" t="s">
         <v>115</v>
@@ -2937,19 +3354,19 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="B113">
-        <v>0.8201629029898065</v>
+        <v>0.8369360581378334</v>
       </c>
       <c r="C113">
-        <v>0.746460174164159</v>
+        <v>0.7680322943130741</v>
       </c>
       <c r="D113">
-        <v>0.453767640769779</v>
+        <v>0.5343997906855049</v>
       </c>
       <c r="E113">
-        <v>0.5633721988439978</v>
+        <v>0.6297139801503604</v>
       </c>
       <c r="F113" t="s">
         <v>116</v>
@@ -2957,19 +3374,19 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B114">
-        <v>0.7757352582548895</v>
+        <v>0.8418963078573867</v>
       </c>
       <c r="C114">
-        <v>0.6976767676767677</v>
+        <v>0.7778908810487758</v>
       </c>
       <c r="D114">
-        <v>0.2626764076977904</v>
+        <v>0.5522738664843928</v>
       </c>
       <c r="E114">
-        <v>0.3711608755740212</v>
+        <v>0.6448276329058013</v>
       </c>
       <c r="F114" t="s">
         <v>117</v>
@@ -2977,19 +3394,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>0.7846217626688776</v>
+        <v>0.8448861142271863</v>
       </c>
       <c r="C115">
-        <v>0.7047272727272726</v>
+        <v>0.7709730848861284</v>
       </c>
       <c r="D115">
-        <v>0.3071365441401079</v>
+        <v>0.5883931937540002</v>
       </c>
       <c r="E115">
-        <v>0.4222662715800265</v>
+        <v>0.6612093849218219</v>
       </c>
       <c r="F115" t="s">
         <v>118</v>
@@ -2997,19 +3414,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>0.8004096961420279</v>
+        <v>0.8240306296639515</v>
       </c>
       <c r="C116">
-        <v>0.6983957219251338</v>
+        <v>0.7193243243243244</v>
       </c>
       <c r="D116">
-        <v>0.3960674065777415</v>
+        <v>0.5253236567354215</v>
       </c>
       <c r="E116">
-        <v>0.5052900527368613</v>
+        <v>0.6053528935225951</v>
       </c>
       <c r="F116" t="s">
         <v>119</v>
@@ -3017,19 +3434,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>0.799385455786958</v>
+        <v>0.8182217236501975</v>
       </c>
       <c r="C117">
-        <v>0.6970538720538721</v>
+        <v>0.7210659000442281</v>
       </c>
       <c r="D117">
-        <v>0.383664494450667</v>
+        <v>0.4958349468990201</v>
       </c>
       <c r="E117">
-        <v>0.4927252509234369</v>
+        <v>0.5837332061894936</v>
       </c>
       <c r="F117" t="s">
         <v>120</v>
@@ -3037,19 +3454,19 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>0.8211530019997074</v>
+        <v>0.8251085207042872</v>
       </c>
       <c r="C118">
-        <v>0.7510947552693283</v>
+        <v>0.7079645144205307</v>
       </c>
       <c r="D118">
-        <v>0.453767640769779</v>
+        <v>0.5545130700501544</v>
       </c>
       <c r="E118">
-        <v>0.5648638798537511</v>
+        <v>0.6216895333349836</v>
       </c>
       <c r="F118" t="s">
         <v>121</v>
@@ -3057,19 +3474,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>0.7747500365800126</v>
+        <v>0.850782812271375</v>
       </c>
       <c r="C119">
-        <v>0.6900577200577201</v>
+        <v>0.7521937141449336</v>
       </c>
       <c r="D119">
-        <v>0.2626764076977904</v>
+        <v>0.638738174515089</v>
       </c>
       <c r="E119">
-        <v>0.3701973103828137</v>
+        <v>0.6893731574293651</v>
       </c>
       <c r="F119" t="s">
         <v>122</v>
@@ -3077,19 +3494,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>0.7954494464224747</v>
+        <v>0.8527483782861044</v>
       </c>
       <c r="C120">
-        <v>0.6795456214811054</v>
+        <v>0.7496417797888386</v>
       </c>
       <c r="D120">
-        <v>0.3911341003971082</v>
+        <v>0.6527971323941902</v>
       </c>
       <c r="E120">
-        <v>0.4957168052406148</v>
+        <v>0.6947944701513599</v>
       </c>
       <c r="F120" t="s">
         <v>123</v>
@@ -3097,19 +3514,19 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>0.7915427010681364</v>
+        <v>0.856762425010974</v>
       </c>
       <c r="C121">
-        <v>0.7258863636363637</v>
+        <v>0.7470090669008982</v>
       </c>
       <c r="D121">
-        <v>0.3270557987984931</v>
+        <v>0.6874402497331574</v>
       </c>
       <c r="E121">
-        <v>0.4463206623252057</v>
+        <v>0.7125989621539963</v>
       </c>
       <c r="F121" t="s">
         <v>124</v>
@@ -3117,19 +3534,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>0.8063356581963614</v>
+        <v>0.8557284299858556</v>
       </c>
       <c r="C122">
-        <v>0.7221059113300492</v>
+        <v>0.7683375505699639</v>
       </c>
       <c r="D122">
-        <v>0.399719580490785</v>
+        <v>0.6448464656560609</v>
       </c>
       <c r="E122">
-        <v>0.5143867130555575</v>
+        <v>0.6983112490183114</v>
       </c>
       <c r="F122" t="s">
         <v>125</v>
@@ -3137,19 +3554,19 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="B123">
-        <v>0.8003901868019314</v>
+        <v>0.852797151636346</v>
       </c>
       <c r="C123">
-        <v>0.7063726437434877</v>
+        <v>0.7606423681943878</v>
       </c>
       <c r="D123">
-        <v>0.3767592913145301</v>
+        <v>0.6353800140745954</v>
       </c>
       <c r="E123">
-        <v>0.4889571214090931</v>
+        <v>0.6907667851745757</v>
       </c>
       <c r="F123" t="s">
         <v>126</v>
@@ -3157,19 +3574,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8191825586499537</v>
+        <v>0.8596790713554114</v>
       </c>
       <c r="C124">
-        <v>0.7401489686783804</v>
+        <v>0.7549023491508853</v>
       </c>
       <c r="D124">
-        <v>0.4624632929436922</v>
+        <v>0.6835899036896046</v>
       </c>
       <c r="E124">
-        <v>0.5684834347643479</v>
+        <v>0.7157323632573203</v>
       </c>
       <c r="F124" t="s">
         <v>127</v>
@@ -3177,19 +3594,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>0.7757401355899137</v>
+        <v>0.8349607374530557</v>
       </c>
       <c r="C125">
-        <v>0.7211923088353294</v>
+        <v>0.7745424836601307</v>
       </c>
       <c r="D125">
-        <v>0.2474784645148152</v>
+        <v>0.5157036418429172</v>
       </c>
       <c r="E125">
-        <v>0.3566675502923531</v>
+        <v>0.6172746311505789</v>
       </c>
       <c r="F125" t="s">
         <v>128</v>
@@ -3197,19 +3614,19 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="B126">
-        <v>0.7984294981222261</v>
+        <v>0.8251182753743354</v>
       </c>
       <c r="C126">
-        <v>0.7003362632409286</v>
+        <v>0.7448150561053788</v>
       </c>
       <c r="D126">
-        <v>0.3852980348233377</v>
+        <v>0.5052534287418009</v>
       </c>
       <c r="E126">
-        <v>0.4963762124531945</v>
+        <v>0.5986391168188858</v>
       </c>
       <c r="F126" t="s">
         <v>129</v>
@@ -3217,19 +3634,19 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>0.7984294981222261</v>
+        <v>0.8468663122469883</v>
       </c>
       <c r="C127">
-        <v>0.7003362632409286</v>
+        <v>0.7868220015278838</v>
       </c>
       <c r="D127">
-        <v>0.3852980348233377</v>
+        <v>0.5590901324071458</v>
       </c>
       <c r="E127">
-        <v>0.4963762124531945</v>
+        <v>0.6514895956756421</v>
       </c>
       <c r="F127" t="s">
         <v>130</v>
@@ -3237,22 +3654,2582 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="B128">
-        <v>0.8023752621567576</v>
+        <v>0.8340047797883237</v>
       </c>
       <c r="C128">
-        <v>0.7116646141215106</v>
+        <v>0.7794943340553097</v>
       </c>
       <c r="D128">
-        <v>0.3927887180531514</v>
+        <v>0.5173922782198644</v>
       </c>
       <c r="E128">
-        <v>0.5060336935905512</v>
+        <v>0.6155549748860436</v>
       </c>
       <c r="F128" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.8438667512071405</v>
+      </c>
+      <c r="C129">
+        <v>0.7233366185603348</v>
+      </c>
+      <c r="D129">
+        <v>0.6564426838011744</v>
+      </c>
+      <c r="E129">
+        <v>0.6841058770698464</v>
+      </c>
+      <c r="F129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.8448909915622103</v>
+      </c>
+      <c r="C130">
+        <v>0.7396744186046511</v>
+      </c>
+      <c r="D130">
+        <v>0.621918705422195</v>
+      </c>
+      <c r="E130">
+        <v>0.6739355849921231</v>
+      </c>
+      <c r="F130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.8507779349363508</v>
+      </c>
+      <c r="C131">
+        <v>0.7359769462148462</v>
+      </c>
+      <c r="D131">
+        <v>0.6776008040972257</v>
+      </c>
+      <c r="E131">
+        <v>0.6996089053762204</v>
+      </c>
+      <c r="F131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.8508315856216162</v>
+      </c>
+      <c r="C132">
+        <v>0.7385741510741511</v>
+      </c>
+      <c r="D132">
+        <v>0.6616470588235295</v>
+      </c>
+      <c r="E132">
+        <v>0.6956870223299083</v>
+      </c>
+      <c r="F132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.8369263034677852</v>
+      </c>
+      <c r="C133">
+        <v>0.7706904125286479</v>
+      </c>
+      <c r="D133">
+        <v>0.5216043956043956</v>
+      </c>
+      <c r="E133">
+        <v>0.6210406504065041</v>
+      </c>
+      <c r="F133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.8369409354728576</v>
+      </c>
+      <c r="C134">
+        <v>0.764955235726648</v>
+      </c>
+      <c r="D134">
+        <v>0.5411327561327562</v>
+      </c>
+      <c r="E134">
+        <v>0.6315244755244754</v>
+      </c>
+      <c r="F134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.842896161537336</v>
+      </c>
+      <c r="C135">
+        <v>0.7567136394445233</v>
+      </c>
+      <c r="D135">
+        <v>0.5781216931216931</v>
+      </c>
+      <c r="E135">
+        <v>0.6532750358529504</v>
+      </c>
+      <c r="F135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.8201385163146856</v>
+      </c>
+      <c r="C136">
+        <v>0.7054560706585415</v>
+      </c>
+      <c r="D136">
+        <v>0.5143566745344873</v>
+      </c>
+      <c r="E136">
+        <v>0.5917318589003474</v>
+      </c>
+      <c r="F136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.8161634882700092</v>
+      </c>
+      <c r="C137">
+        <v>0.7167139392503629</v>
+      </c>
+      <c r="D137">
+        <v>0.4788336720382402</v>
+      </c>
+      <c r="E137">
+        <v>0.5728119166347014</v>
+      </c>
+      <c r="F137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0.8369994634931472</v>
+      </c>
+      <c r="C138">
+        <v>0.7513758522179576</v>
+      </c>
+      <c r="D138">
+        <v>0.5758999497600455</v>
+      </c>
+      <c r="E138">
+        <v>0.6479397724148519</v>
+      </c>
+      <c r="F138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0.8527288689460079</v>
+      </c>
+      <c r="C139">
+        <v>0.7581263616557734</v>
+      </c>
+      <c r="D139">
+        <v>0.6387642929335563</v>
+      </c>
+      <c r="E139">
+        <v>0.6904727024663024</v>
+      </c>
+      <c r="F139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0.8458274398868457</v>
+      </c>
+      <c r="C140">
+        <v>0.7330668477149829</v>
+      </c>
+      <c r="D140">
+        <v>0.6411389672040291</v>
+      </c>
+      <c r="E140">
+        <v>0.6828949236288686</v>
+      </c>
+      <c r="F140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.8596546846802907</v>
+      </c>
+      <c r="C141">
+        <v>0.7577015599996967</v>
+      </c>
+      <c r="D141">
+        <v>0.6842355518045175</v>
+      </c>
+      <c r="E141">
+        <v>0.7188153380134086</v>
+      </c>
+      <c r="F141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0.8468077842266984</v>
+      </c>
+      <c r="C142">
+        <v>0.7466324903167009</v>
+      </c>
+      <c r="D142">
+        <v>0.6296122140949727</v>
+      </c>
+      <c r="E142">
+        <v>0.6788393379063385</v>
+      </c>
+      <c r="F142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0.8507876896063991</v>
+      </c>
+      <c r="C143">
+        <v>0.7484638979712871</v>
+      </c>
+      <c r="D143">
+        <v>0.6375378345315952</v>
+      </c>
+      <c r="E143">
+        <v>0.6883221901222092</v>
+      </c>
+      <c r="F143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0.8655952787396967</v>
+      </c>
+      <c r="C144">
+        <v>0.7658281751062719</v>
+      </c>
+      <c r="D144">
+        <v>0.7022680614579928</v>
+      </c>
+      <c r="E144">
+        <v>0.7297041303635586</v>
+      </c>
+      <c r="F144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0.835965468468029</v>
+      </c>
+      <c r="C145">
+        <v>0.7776013513513513</v>
+      </c>
+      <c r="D145">
+        <v>0.5189533663217873</v>
+      </c>
+      <c r="E145">
+        <v>0.6218018036002551</v>
+      </c>
+      <c r="F145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0.8301224211091061</v>
+      </c>
+      <c r="C146">
+        <v>0.7500873531473287</v>
+      </c>
+      <c r="D146">
+        <v>0.5264443193545361</v>
+      </c>
+      <c r="E146">
+        <v>0.6172525101651315</v>
+      </c>
+      <c r="F146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0.8409744915378237</v>
+      </c>
+      <c r="C147">
+        <v>0.7697686925797524</v>
+      </c>
+      <c r="D147">
+        <v>0.5594529897449988</v>
+      </c>
+      <c r="E147">
+        <v>0.6460462829207778</v>
+      </c>
+      <c r="F147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.8300443837487197</v>
+      </c>
+      <c r="C148">
+        <v>0.7456517466273563</v>
+      </c>
+      <c r="D148">
+        <v>0.5265306122448979</v>
+      </c>
+      <c r="E148">
+        <v>0.6157570556270735</v>
+      </c>
+      <c r="F148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.8389601521728528</v>
+      </c>
+      <c r="C149">
+        <v>0.7318565543212527</v>
+      </c>
+      <c r="D149">
+        <v>0.6044891774891775</v>
+      </c>
+      <c r="E149">
+        <v>0.6559605169532194</v>
+      </c>
+      <c r="F149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.8448227088718724</v>
+      </c>
+      <c r="C150">
+        <v>0.7217767777646198</v>
+      </c>
+      <c r="D150">
+        <v>0.663758688513183</v>
+      </c>
+      <c r="E150">
+        <v>0.6859194939790688</v>
+      </c>
+      <c r="F150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.8498219772716187</v>
+      </c>
+      <c r="C151">
+        <v>0.7324077042897655</v>
+      </c>
+      <c r="D151">
+        <v>0.6766047471620228</v>
+      </c>
+      <c r="E151">
+        <v>0.6955467594153804</v>
+      </c>
+      <c r="F151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.8478466565868409</v>
+      </c>
+      <c r="C152">
+        <v>0.7495480783406481</v>
+      </c>
+      <c r="D152">
+        <v>0.6275445651614877</v>
+      </c>
+      <c r="E152">
+        <v>0.6805022204510703</v>
+      </c>
+      <c r="F152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.8369458128078817</v>
+      </c>
+      <c r="C153">
+        <v>0.7300264948084496</v>
+      </c>
+      <c r="D153">
+        <v>0.6117453335810101</v>
+      </c>
+      <c r="E153">
+        <v>0.6602654315489446</v>
+      </c>
+      <c r="F153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.8517972979563966</v>
+      </c>
+      <c r="C154">
+        <v>0.7356469002695418</v>
+      </c>
+      <c r="D154">
+        <v>0.6869374597034172</v>
+      </c>
+      <c r="E154">
+        <v>0.7076012706848472</v>
+      </c>
+      <c r="F154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.8379554211578792</v>
+      </c>
+      <c r="C155">
+        <v>0.7792046115041737</v>
+      </c>
+      <c r="D155">
+        <v>0.5467925343585238</v>
+      </c>
+      <c r="E155">
+        <v>0.635872091576459</v>
+      </c>
+      <c r="F155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.8300492610837438</v>
+      </c>
+      <c r="C156">
+        <v>0.7225916636554934</v>
+      </c>
+      <c r="D156">
+        <v>0.5681072778497862</v>
+      </c>
+      <c r="E156">
+        <v>0.6336523796121319</v>
+      </c>
+      <c r="F156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.8488270009266936</v>
+      </c>
+      <c r="C157">
+        <v>0.7394320782576597</v>
+      </c>
+      <c r="D157">
+        <v>0.6453341384863125</v>
+      </c>
+      <c r="E157">
+        <v>0.6881080726605023</v>
+      </c>
+      <c r="F157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.8250597473540457</v>
+      </c>
+      <c r="C158">
+        <v>0.7081118881118881</v>
+      </c>
+      <c r="D158">
+        <v>0.5564783591810653</v>
+      </c>
+      <c r="E158">
+        <v>0.6159425481106897</v>
+      </c>
+      <c r="F158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.8448080768667999</v>
+      </c>
+      <c r="C159">
+        <v>0.7322832028722013</v>
+      </c>
+      <c r="D159">
+        <v>0.6530058968685195</v>
+      </c>
+      <c r="E159">
+        <v>0.6840489494218792</v>
+      </c>
+      <c r="F159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.8488318782617178</v>
+      </c>
+      <c r="C160">
+        <v>0.7370329527763364</v>
+      </c>
+      <c r="D160">
+        <v>0.6563518518518519</v>
+      </c>
+      <c r="E160">
+        <v>0.6915479061318043</v>
+      </c>
+      <c r="F160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.8577135053406819</v>
+      </c>
+      <c r="C161">
+        <v>0.752014652014652</v>
+      </c>
+      <c r="D161">
+        <v>0.6833737875028197</v>
+      </c>
+      <c r="E161">
+        <v>0.7121498409157714</v>
+      </c>
+      <c r="F161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.8458567038969906</v>
+      </c>
+      <c r="C162">
+        <v>0.7355247098839536</v>
+      </c>
+      <c r="D162">
+        <v>0.6145736814142746</v>
+      </c>
+      <c r="E162">
+        <v>0.6687389374042739</v>
+      </c>
+      <c r="F162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.8350241428083696</v>
+      </c>
+      <c r="C163">
+        <v>0.7632311237149947</v>
+      </c>
+      <c r="D163">
+        <v>0.522808124193306</v>
+      </c>
+      <c r="E163">
+        <v>0.6200791805214468</v>
+      </c>
+      <c r="F163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.8537433546310297</v>
+      </c>
+      <c r="C164">
+        <v>0.75117602731011</v>
+      </c>
+      <c r="D164">
+        <v>0.6434774676153987</v>
+      </c>
+      <c r="E164">
+        <v>0.6928332155737443</v>
+      </c>
+      <c r="F164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.8369750768180266</v>
+      </c>
+      <c r="C165">
+        <v>0.71484335839599</v>
+      </c>
+      <c r="D165">
+        <v>0.6197838612617224</v>
+      </c>
+      <c r="E165">
+        <v>0.6593365799716355</v>
+      </c>
+      <c r="F165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.8527581329561528</v>
+      </c>
+      <c r="C166">
+        <v>0.7524688349498947</v>
+      </c>
+      <c r="D166">
+        <v>0.6580584048592047</v>
+      </c>
+      <c r="E166">
+        <v>0.6969466551937714</v>
+      </c>
+      <c r="F166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.855772326001073</v>
+      </c>
+      <c r="C167">
+        <v>0.7477401203447716</v>
+      </c>
+      <c r="D167">
+        <v>0.6781019746536988</v>
+      </c>
+      <c r="E167">
+        <v>0.7100212114673063</v>
+      </c>
+      <c r="F167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.8369555674779301</v>
+      </c>
+      <c r="C168">
+        <v>0.7731429525187175</v>
+      </c>
+      <c r="D168">
+        <v>0.527131900616445</v>
+      </c>
+      <c r="E168">
+        <v>0.6244306867962781</v>
+      </c>
+      <c r="F168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.849792713261474</v>
+      </c>
+      <c r="C169">
+        <v>0.8120163022473947</v>
+      </c>
+      <c r="D169">
+        <v>0.5526039637273026</v>
+      </c>
+      <c r="E169">
+        <v>0.6522661161468366</v>
+      </c>
+      <c r="F169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.8458225625518218</v>
+      </c>
+      <c r="C170">
+        <v>0.7765071083865919</v>
+      </c>
+      <c r="D170">
+        <v>0.5710130718954248</v>
+      </c>
+      <c r="E170">
+        <v>0.6543117501567299</v>
+      </c>
+      <c r="F170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.820182412329903</v>
+      </c>
+      <c r="C171">
+        <v>0.717737862495927</v>
+      </c>
+      <c r="D171">
+        <v>0.4925947320457419</v>
+      </c>
+      <c r="E171">
+        <v>0.5820688697691849</v>
+      </c>
+      <c r="F171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.8152124079403015</v>
+      </c>
+      <c r="C172">
+        <v>0.7161972498814604</v>
+      </c>
+      <c r="D172">
+        <v>0.4776848132710202</v>
+      </c>
+      <c r="E172">
+        <v>0.5726257076257076</v>
+      </c>
+      <c r="F172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.8379749304979759</v>
+      </c>
+      <c r="C173">
+        <v>0.7444883240420345</v>
+      </c>
+      <c r="D173">
+        <v>0.5777797079415132</v>
+      </c>
+      <c r="E173">
+        <v>0.6496048578348133</v>
+      </c>
+      <c r="F173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.8378822611325172</v>
+      </c>
+      <c r="C174">
+        <v>0.7338053199755328</v>
+      </c>
+      <c r="D174">
+        <v>0.6109418189127036</v>
+      </c>
+      <c r="E174">
+        <v>0.6603186019513263</v>
+      </c>
+      <c r="F174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.8567331610008292</v>
+      </c>
+      <c r="C175">
+        <v>0.7451677759094983</v>
+      </c>
+      <c r="D175">
+        <v>0.6738548457192526</v>
+      </c>
+      <c r="E175">
+        <v>0.7032656957957049</v>
+      </c>
+      <c r="F175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.8626249817099936</v>
+      </c>
+      <c r="C176">
+        <v>0.761288368361539</v>
+      </c>
+      <c r="D176">
+        <v>0.6856841822861045</v>
+      </c>
+      <c r="E176">
+        <v>0.7209879407647779</v>
+      </c>
+      <c r="F176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.8557381846559039</v>
+      </c>
+      <c r="C177">
+        <v>0.7620085470085469</v>
+      </c>
+      <c r="D177">
+        <v>0.6494984198504333</v>
+      </c>
+      <c r="E177">
+        <v>0.6979878749211713</v>
+      </c>
+      <c r="F177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.8567136516607325</v>
+      </c>
+      <c r="C178">
+        <v>0.7579819786383905</v>
+      </c>
+      <c r="D178">
+        <v>0.6563145857783395</v>
+      </c>
+      <c r="E178">
+        <v>0.7015885302815995</v>
+      </c>
+      <c r="F178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.8606984343754572</v>
+      </c>
+      <c r="C179">
+        <v>0.7563134593506724</v>
+      </c>
+      <c r="D179">
+        <v>0.6938318265905169</v>
+      </c>
+      <c r="E179">
+        <v>0.7222313926512306</v>
+      </c>
+      <c r="F179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.8399112325025605</v>
+      </c>
+      <c r="C180">
+        <v>0.7769427917620136</v>
+      </c>
+      <c r="D180">
+        <v>0.5305239288697935</v>
+      </c>
+      <c r="E180">
+        <v>0.6281479706503255</v>
+      </c>
+      <c r="F180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.8300736477588645</v>
+      </c>
+      <c r="C181">
+        <v>0.7494101731601732</v>
+      </c>
+      <c r="D181">
+        <v>0.5180955140676961</v>
+      </c>
+      <c r="E181">
+        <v>0.6114474278349438</v>
+      </c>
+      <c r="F181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.8487733502414281</v>
+      </c>
+      <c r="C182">
+        <v>0.7974632611304937</v>
+      </c>
+      <c r="D182">
+        <v>0.5617049513953538</v>
+      </c>
+      <c r="E182">
+        <v>0.6576551224135636</v>
+      </c>
+      <c r="F182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0.837945666487831</v>
+      </c>
+      <c r="C183">
+        <v>0.7780172413793103</v>
+      </c>
+      <c r="D183">
+        <v>0.5416189137738774</v>
+      </c>
+      <c r="E183">
+        <v>0.6337564985204703</v>
+      </c>
+      <c r="F183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0.8429059162073843</v>
+      </c>
+      <c r="C184">
+        <v>0.7490616487126881</v>
+      </c>
+      <c r="D184">
+        <v>0.5948774028059456</v>
+      </c>
+      <c r="E184">
+        <v>0.6619851856965591</v>
+      </c>
+      <c r="F184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.8557137979807832</v>
+      </c>
+      <c r="C185">
+        <v>0.7631325234007934</v>
+      </c>
+      <c r="D185">
+        <v>0.6599199428198953</v>
+      </c>
+      <c r="E185">
+        <v>0.7045950574719099</v>
+      </c>
+      <c r="F185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.8498268546066429</v>
+      </c>
+      <c r="C186">
+        <v>0.7401618926618927</v>
+      </c>
+      <c r="D186">
+        <v>0.6531707657421942</v>
+      </c>
+      <c r="E186">
+        <v>0.6899484721928653</v>
+      </c>
+      <c r="F186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.8459249865873287</v>
+      </c>
+      <c r="C187">
+        <v>0.7490059214661418</v>
+      </c>
+      <c r="D187">
+        <v>0.6296203814676573</v>
+      </c>
+      <c r="E187">
+        <v>0.6767178624615745</v>
+      </c>
+      <c r="F187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0.8438960152172852</v>
+      </c>
+      <c r="C188">
+        <v>0.7422563439270755</v>
+      </c>
+      <c r="D188">
+        <v>0.612123743114267</v>
+      </c>
+      <c r="E188">
+        <v>0.6684327455704413</v>
+      </c>
+      <c r="F188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0.8596010339950251</v>
+      </c>
+      <c r="C189">
+        <v>0.7670189955553527</v>
+      </c>
+      <c r="D189">
+        <v>0.6714413213561287</v>
+      </c>
+      <c r="E189">
+        <v>0.713112481479502</v>
+      </c>
+      <c r="F189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0.8281373457542799</v>
+      </c>
+      <c r="C190">
+        <v>0.7598590797480517</v>
+      </c>
+      <c r="D190">
+        <v>0.5000649350649351</v>
+      </c>
+      <c r="E190">
+        <v>0.6029371492321529</v>
+      </c>
+      <c r="F190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0.8408915768424132</v>
+      </c>
+      <c r="C191">
+        <v>0.772861557429348</v>
+      </c>
+      <c r="D191">
+        <v>0.5501194672353702</v>
+      </c>
+      <c r="E191">
+        <v>0.6419415463370601</v>
+      </c>
+      <c r="F191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0.8448568502170414</v>
+      </c>
+      <c r="C192">
+        <v>0.7685334471031814</v>
+      </c>
+      <c r="D192">
+        <v>0.5805276627203051</v>
+      </c>
+      <c r="E192">
+        <v>0.6568139476368338</v>
+      </c>
+      <c r="F192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0.8162171389552748</v>
+      </c>
+      <c r="C193">
+        <v>0.6927717019822281</v>
+      </c>
+      <c r="D193">
+        <v>0.515945726202418</v>
+      </c>
+      <c r="E193">
+        <v>0.5905303523195521</v>
+      </c>
+      <c r="F193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0.8439252792274301</v>
+      </c>
+      <c r="C194">
+        <v>0.7394576719576721</v>
+      </c>
+      <c r="D194">
+        <v>0.6205960826342596</v>
+      </c>
+      <c r="E194">
+        <v>0.6707747393236818</v>
+      </c>
+      <c r="F194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0.8547236989708823</v>
+      </c>
+      <c r="C195">
+        <v>0.7596917070855569</v>
+      </c>
+      <c r="D195">
+        <v>0.6416279235765781</v>
+      </c>
+      <c r="E195">
+        <v>0.6946082152051758</v>
+      </c>
+      <c r="F195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0.8577183826757059</v>
+      </c>
+      <c r="C196">
+        <v>0.7565475212511685</v>
+      </c>
+      <c r="D196">
+        <v>0.6780305300803707</v>
+      </c>
+      <c r="E196">
+        <v>0.7113553898931257</v>
+      </c>
+      <c r="F196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0.8488562649368385</v>
+      </c>
+      <c r="C197">
+        <v>0.7470414197483387</v>
+      </c>
+      <c r="D197">
+        <v>0.6352965367965367</v>
+      </c>
+      <c r="E197">
+        <v>0.6858710025173415</v>
+      </c>
+      <c r="F197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0.8369653221479784</v>
+      </c>
+      <c r="C198">
+        <v>0.7712698776875349</v>
+      </c>
+      <c r="D198">
+        <v>0.53276697845431</v>
+      </c>
+      <c r="E198">
+        <v>0.6283447480930167</v>
+      </c>
+      <c r="F198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.847778373896503</v>
+      </c>
+      <c r="C199">
+        <v>0.7517666123646191</v>
+      </c>
+      <c r="D199">
+        <v>0.6270210457123564</v>
+      </c>
+      <c r="E199">
+        <v>0.6817797623642083</v>
+      </c>
+      <c r="F199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.856728283665805</v>
+      </c>
+      <c r="C200">
+        <v>0.7626583348002113</v>
+      </c>
+      <c r="D200">
+        <v>0.6541070625281151</v>
+      </c>
+      <c r="E200">
+        <v>0.701130145397251</v>
+      </c>
+      <c r="F200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.8487977369165488</v>
+      </c>
+      <c r="C201">
+        <v>0.7390094620897605</v>
+      </c>
+      <c r="D201">
+        <v>0.6730962302499208</v>
+      </c>
+      <c r="E201">
+        <v>0.6960674412289701</v>
+      </c>
+      <c r="F201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.841901185192411</v>
+      </c>
+      <c r="C202">
+        <v>0.7333503748296544</v>
+      </c>
+      <c r="D202">
+        <v>0.6232192696768574</v>
+      </c>
+      <c r="E202">
+        <v>0.6719953849463456</v>
+      </c>
+      <c r="F202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.8468224162317709</v>
+      </c>
+      <c r="C203">
+        <v>0.7485779543891951</v>
+      </c>
+      <c r="D203">
+        <v>0.618232156594294</v>
+      </c>
+      <c r="E203">
+        <v>0.6760311736345024</v>
+      </c>
+      <c r="F203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.8517777886162999</v>
+      </c>
+      <c r="C204">
+        <v>0.7494729115206324</v>
+      </c>
+      <c r="D204">
+        <v>0.6512753643481406</v>
+      </c>
+      <c r="E204">
+        <v>0.6921544719702232</v>
+      </c>
+      <c r="F204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.8340145344583719</v>
+      </c>
+      <c r="C205">
+        <v>0.7635626535626535</v>
+      </c>
+      <c r="D205">
+        <v>0.5261239109999903</v>
+      </c>
+      <c r="E205">
+        <v>0.619139622772346</v>
+      </c>
+      <c r="F205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.8369506901429059</v>
+      </c>
+      <c r="C206">
+        <v>0.7665723174214605</v>
+      </c>
+      <c r="D206">
+        <v>0.5445764168876297</v>
+      </c>
+      <c r="E206">
+        <v>0.6333718755336792</v>
+      </c>
+      <c r="F206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.8527581329561528</v>
+      </c>
+      <c r="C207">
+        <v>0.7858642622617777</v>
+      </c>
+      <c r="D207">
+        <v>0.5954863519772242</v>
+      </c>
+      <c r="E207">
+        <v>0.6750360620207287</v>
+      </c>
+      <c r="F207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.8330195581134469</v>
+      </c>
+      <c r="C208">
+        <v>0.7442721927120904</v>
+      </c>
+      <c r="D208">
+        <v>0.5421329924555731</v>
+      </c>
+      <c r="E208">
+        <v>0.624970576717967</v>
+      </c>
+      <c r="F208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.8507486709262059</v>
+      </c>
+      <c r="C209">
+        <v>0.7603847902971808</v>
+      </c>
+      <c r="D209">
+        <v>0.6436348223499926</v>
+      </c>
+      <c r="E209">
+        <v>0.6928558089902628</v>
+      </c>
+      <c r="F209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.8507974442764473</v>
+      </c>
+      <c r="C210">
+        <v>0.7524809982983551</v>
+      </c>
+      <c r="D210">
+        <v>0.6469495328756907</v>
+      </c>
+      <c r="E210">
+        <v>0.6906258221490493</v>
+      </c>
+      <c r="F210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.8567234063307809</v>
+      </c>
+      <c r="C211">
+        <v>0.7531456554252907</v>
+      </c>
+      <c r="D211">
+        <v>0.6786550027337342</v>
+      </c>
+      <c r="E211">
+        <v>0.7095928500496523</v>
+      </c>
+      <c r="F211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.8478369019167926</v>
+      </c>
+      <c r="C212">
+        <v>0.7505130544810931</v>
+      </c>
+      <c r="D212">
+        <v>0.6307899883430618</v>
+      </c>
+      <c r="E212">
+        <v>0.6790941893741447</v>
+      </c>
+      <c r="F212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.8349656147880798</v>
+      </c>
+      <c r="C213">
+        <v>0.757297549650491</v>
+      </c>
+      <c r="D213">
+        <v>0.5319316233994233</v>
+      </c>
+      <c r="E213">
+        <v>0.6243615338206469</v>
+      </c>
+      <c r="F213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.8429059162073843</v>
+      </c>
+      <c r="C214">
+        <v>0.7319868575942718</v>
+      </c>
+      <c r="D214">
+        <v>0.6234199506145067</v>
+      </c>
+      <c r="E214">
+        <v>0.669894150423669</v>
+      </c>
+      <c r="F214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.8458615812320147</v>
+      </c>
+      <c r="C215">
+        <v>0.7413563284646258</v>
+      </c>
+      <c r="D215">
+        <v>0.6464167110193983</v>
+      </c>
+      <c r="E215">
+        <v>0.6855631649053763</v>
+      </c>
+      <c r="F215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.8616495147051652</v>
+      </c>
+      <c r="C216">
+        <v>0.7461522677480125</v>
+      </c>
+      <c r="D216">
+        <v>0.7131555805670708</v>
+      </c>
+      <c r="E216">
+        <v>0.7281885552393672</v>
+      </c>
+      <c r="F216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.8339901477832512</v>
+      </c>
+      <c r="C217">
+        <v>0.70985846840498</v>
+      </c>
+      <c r="D217">
+        <v>0.6147107008116409</v>
+      </c>
+      <c r="E217">
+        <v>0.6567269590019603</v>
+      </c>
+      <c r="F217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0.8300395064136955</v>
+      </c>
+      <c r="C218">
+        <v>0.7181667403803627</v>
+      </c>
+      <c r="D218">
+        <v>0.5729423239603875</v>
+      </c>
+      <c r="E218">
+        <v>0.6345503042427273</v>
+      </c>
+      <c r="F218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.8497683265863533</v>
+      </c>
+      <c r="C219">
+        <v>0.7400698818888152</v>
+      </c>
+      <c r="D219">
+        <v>0.6566859573175362</v>
+      </c>
+      <c r="E219">
+        <v>0.6923949384044927</v>
+      </c>
+      <c r="F219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0.8448470955469931</v>
+      </c>
+      <c r="C220">
+        <v>0.7461374478234942</v>
+      </c>
+      <c r="D220">
+        <v>0.6156776591012235</v>
+      </c>
+      <c r="E220">
+        <v>0.6740363419352183</v>
+      </c>
+      <c r="F220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.8527239916109837</v>
+      </c>
+      <c r="C221">
+        <v>0.7518662842462941</v>
+      </c>
+      <c r="D221">
+        <v>0.6544231791600212</v>
+      </c>
+      <c r="E221">
+        <v>0.6959081871097761</v>
+      </c>
+      <c r="F221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>0.8606350290201433</v>
+      </c>
+      <c r="C222">
+        <v>0.769147841447493</v>
+      </c>
+      <c r="D222">
+        <v>0.670844490207454</v>
+      </c>
+      <c r="E222">
+        <v>0.7138937197217607</v>
+      </c>
+      <c r="F222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>0.8349509827830073</v>
+      </c>
+      <c r="C223">
+        <v>0.7247294731846227</v>
+      </c>
+      <c r="D223">
+        <v>0.5852922439878961</v>
+      </c>
+      <c r="E223">
+        <v>0.646051873541879</v>
+      </c>
+      <c r="F223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>0.8408964541774374</v>
+      </c>
+      <c r="C224">
+        <v>0.7360638471888008</v>
+      </c>
+      <c r="D224">
+        <v>0.6089646685016956</v>
+      </c>
+      <c r="E224">
+        <v>0.6625911992704058</v>
+      </c>
+      <c r="F224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>0.8606740477003365</v>
+      </c>
+      <c r="C225">
+        <v>0.7554663450116051</v>
+      </c>
+      <c r="D225">
+        <v>0.6932939652939653</v>
+      </c>
+      <c r="E225">
+        <v>0.7184157155585726</v>
+      </c>
+      <c r="F225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>0.830024874408623</v>
+      </c>
+      <c r="C226">
+        <v>0.7644399794112358</v>
+      </c>
+      <c r="D226">
+        <v>0.5090847748742486</v>
+      </c>
+      <c r="E226">
+        <v>0.6021421362489486</v>
+      </c>
+      <c r="F226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>0.8309954640784275</v>
+      </c>
+      <c r="C227">
+        <v>0.7508598033815794</v>
+      </c>
+      <c r="D227">
+        <v>0.5387101615091929</v>
+      </c>
+      <c r="E227">
+        <v>0.6213076614342438</v>
+      </c>
+      <c r="F227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>0.8459201092523045</v>
+      </c>
+      <c r="C228">
+        <v>0.7800087892770821</v>
+      </c>
+      <c r="D228">
+        <v>0.5784915303634516</v>
+      </c>
+      <c r="E228">
+        <v>0.6614861743138031</v>
+      </c>
+      <c r="F228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>0.8250890113641904</v>
+      </c>
+      <c r="C229">
+        <v>0.7336314363143632</v>
+      </c>
+      <c r="D229">
+        <v>0.5081919568095365</v>
+      </c>
+      <c r="E229">
+        <v>0.5971923381818852</v>
+      </c>
+      <c r="F229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>0.8557089206457592</v>
+      </c>
+      <c r="C230">
+        <v>0.7631332536691485</v>
+      </c>
+      <c r="D230">
+        <v>0.6508091605278306</v>
+      </c>
+      <c r="E230">
+        <v>0.7009440941291607</v>
+      </c>
+      <c r="F230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>0.8557186753158075</v>
+      </c>
+      <c r="C231">
+        <v>0.751738912956487</v>
+      </c>
+      <c r="D231">
+        <v>0.6540888709532777</v>
+      </c>
+      <c r="E231">
+        <v>0.699325822473738</v>
+      </c>
+      <c r="F231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>0.8527142369409354</v>
+      </c>
+      <c r="C232">
+        <v>0.7507434036970182</v>
+      </c>
+      <c r="D232">
+        <v>0.6516450216450217</v>
+      </c>
+      <c r="E232">
+        <v>0.6956338233254469</v>
+      </c>
+      <c r="F232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>0.8498219772716189</v>
+      </c>
+      <c r="C233">
+        <v>0.7584904120767033</v>
+      </c>
+      <c r="D233">
+        <v>0.628818030624534</v>
+      </c>
+      <c r="E233">
+        <v>0.6846921518198115</v>
+      </c>
+      <c r="F233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>0.8389260108276837</v>
+      </c>
+      <c r="C234">
+        <v>0.7722972972972972</v>
+      </c>
+      <c r="D234">
+        <v>0.540759599123487</v>
+      </c>
+      <c r="E234">
+        <v>0.6349650123712834</v>
+      </c>
+      <c r="F234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>0.8488270009266936</v>
+      </c>
+      <c r="C235">
+        <v>0.7512908884935137</v>
+      </c>
+      <c r="D235">
+        <v>0.61855225876332</v>
+      </c>
+      <c r="E235">
+        <v>0.676003533910527</v>
+      </c>
+      <c r="F235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>0.8498122226015704</v>
+      </c>
+      <c r="C236">
+        <v>0.75209568172538</v>
+      </c>
+      <c r="D236">
+        <v>0.6309475295045097</v>
+      </c>
+      <c r="E236">
+        <v>0.6837675324988272</v>
+      </c>
+      <c r="F236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>0.8576988733356095</v>
+      </c>
+      <c r="C237">
+        <v>0.7613084599063045</v>
+      </c>
+      <c r="D237">
+        <v>0.6616016348600999</v>
+      </c>
+      <c r="E237">
+        <v>0.7056524626099493</v>
+      </c>
+      <c r="F237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>0.845837194556894</v>
+      </c>
+      <c r="C238">
+        <v>0.7316762231859592</v>
+      </c>
+      <c r="D238">
+        <v>0.6430748745940679</v>
+      </c>
+      <c r="E238">
+        <v>0.6844762422166866</v>
+      </c>
+      <c r="F238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>0.8359801004731015</v>
+      </c>
+      <c r="C239">
+        <v>0.7594789524201289</v>
+      </c>
+      <c r="D239">
+        <v>0.5340193704600484</v>
+      </c>
+      <c r="E239">
+        <v>0.6246294731954427</v>
+      </c>
+      <c r="F239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>0.8576891186655612</v>
+      </c>
+      <c r="C240">
+        <v>0.7734080538763985</v>
+      </c>
+      <c r="D240">
+        <v>0.6495340243170523</v>
+      </c>
+      <c r="E240">
+        <v>0.701114690219053</v>
+      </c>
+      <c r="F240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>0.8359459591279326</v>
+      </c>
+      <c r="C241">
+        <v>0.7286574284366325</v>
+      </c>
+      <c r="D241">
+        <v>0.5908854790798584</v>
+      </c>
+      <c r="E241">
+        <v>0.6498764889752472</v>
+      </c>
+      <c r="F241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>0.855772326001073</v>
+      </c>
+      <c r="C242">
+        <v>0.7594112636072751</v>
+      </c>
+      <c r="D242">
+        <v>0.6677125951147913</v>
+      </c>
+      <c r="E242">
+        <v>0.7058993905235204</v>
+      </c>
+      <c r="F242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>0.8596790713554114</v>
+      </c>
+      <c r="C243">
+        <v>0.747883295194508</v>
+      </c>
+      <c r="D243">
+        <v>0.6875137146157819</v>
+      </c>
+      <c r="E243">
+        <v>0.7157421503035362</v>
+      </c>
+      <c r="F243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>0.8498170999365946</v>
+      </c>
+      <c r="C244">
+        <v>0.7569808020608937</v>
+      </c>
+      <c r="D244">
+        <v>0.6289081909723329</v>
+      </c>
+      <c r="E244">
+        <v>0.6842124817476896</v>
+      </c>
+      <c r="F244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0.8438374871969956</v>
+      </c>
+      <c r="C245">
+        <v>0.7856312349501204</v>
+      </c>
+      <c r="D245">
+        <v>0.554004718107979</v>
+      </c>
+      <c r="E245">
+        <v>0.6457733873691319</v>
+      </c>
+      <c r="F245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0.8498073452665464</v>
+      </c>
+      <c r="C246">
+        <v>0.7368645727794665</v>
+      </c>
+      <c r="D246">
+        <v>0.6525072580963778</v>
+      </c>
+      <c r="E246">
+        <v>0.6894817123999588</v>
+      </c>
+      <c r="F246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>0.8458176852167976</v>
+      </c>
+      <c r="C247">
+        <v>0.7287204701848006</v>
+      </c>
+      <c r="D247">
+        <v>0.6562003432672804</v>
+      </c>
+      <c r="E247">
+        <v>0.6880220113516312</v>
+      </c>
+      <c r="F247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>0.8448422182119689</v>
+      </c>
+      <c r="C248">
+        <v>0.7551017686682936</v>
+      </c>
+      <c r="D248">
+        <v>0.61454548284885</v>
+      </c>
+      <c r="E248">
+        <v>0.6729485359361136</v>
+      </c>
+      <c r="F248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>0.8517387699361068</v>
+      </c>
+      <c r="C249">
+        <v>0.765163855752091</v>
+      </c>
+      <c r="D249">
+        <v>0.6217577485464669</v>
+      </c>
+      <c r="E249">
+        <v>0.6837987068818355</v>
+      </c>
+      <c r="F249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>0.84685655757694</v>
+      </c>
+      <c r="C250">
+        <v>0.7357979496307022</v>
+      </c>
+      <c r="D250">
+        <v>0.6461718592041172</v>
+      </c>
+      <c r="E250">
+        <v>0.6861179288294857</v>
+      </c>
+      <c r="F250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>0.8418767985172902</v>
+      </c>
+      <c r="C251">
+        <v>0.7362227134567561</v>
+      </c>
+      <c r="D251">
+        <v>0.6170552344785081</v>
+      </c>
+      <c r="E251">
+        <v>0.6687380163445791</v>
+      </c>
+      <c r="F251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.8379212798127103</v>
+      </c>
+      <c r="C252">
+        <v>0.7635768565799526</v>
+      </c>
+      <c r="D252">
+        <v>0.5491012078623154</v>
+      </c>
+      <c r="E252">
+        <v>0.6363344580554603</v>
+      </c>
+      <c r="F252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.8507535482612301</v>
+      </c>
+      <c r="C253">
+        <v>0.7473723257418909</v>
+      </c>
+      <c r="D253">
+        <v>0.6438975590236095</v>
+      </c>
+      <c r="E253">
+        <v>0.6906060973712502</v>
+      </c>
+      <c r="F253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.8537726186411744</v>
+      </c>
+      <c r="C254">
+        <v>0.7520290481631309</v>
+      </c>
+      <c r="D254">
+        <v>0.6519917400922633</v>
+      </c>
+      <c r="E254">
+        <v>0.6960702595700783</v>
+      </c>
+      <c r="F254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>0.8468419255718675</v>
+      </c>
+      <c r="C255">
+        <v>0.7440213049807589</v>
+      </c>
+      <c r="D255">
+        <v>0.6322912153367095</v>
+      </c>
+      <c r="E255">
+        <v>0.680404089751242</v>
+      </c>
+      <c r="F255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.8448812368921621</v>
+      </c>
+      <c r="C256">
+        <v>0.7404673962608299</v>
+      </c>
+      <c r="D256">
+        <v>0.6226606589333077</v>
+      </c>
+      <c r="E256">
+        <v>0.6709802953084424</v>
+      </c>
+      <c r="F256" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/SVM_results/SVM_results_avg.xlsx
+++ b/SVM_results/SVM_results_avg.xlsx
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7401112032385505</v>
+        <v>0.7401014485685021</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.740125835243623</v>
+        <v>0.7401258352436229</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1207,16 +1207,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8171096912646929</v>
+        <v>0.8151928986002049</v>
       </c>
       <c r="C4">
-        <v>0.7291041605016197</v>
+        <v>0.7104422604422604</v>
       </c>
       <c r="D4">
-        <v>0.497120518676493</v>
+        <v>0.4964132553606239</v>
       </c>
       <c r="E4">
-        <v>0.5852272727272727</v>
+        <v>0.5811964156337923</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -1227,16 +1227,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8586938496805345</v>
+        <v>0.8537140906208848</v>
       </c>
       <c r="C5">
-        <v>0.742859221400454</v>
+        <v>0.7254863153864265</v>
       </c>
       <c r="D5">
-        <v>0.7074468388754103</v>
+        <v>0.6924051036682616</v>
       </c>
       <c r="E5">
-        <v>0.7222674169567471</v>
+        <v>0.7082206212606543</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1247,16 +1247,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8389308881627079</v>
+        <v>0.8330049261083744</v>
       </c>
       <c r="C6">
-        <v>0.7610949410949411</v>
+        <v>0.7369013911871055</v>
       </c>
       <c r="D6">
-        <v>0.5582641752734085</v>
+        <v>0.5414149172213688</v>
       </c>
       <c r="E6">
-        <v>0.6417328780781755</v>
+        <v>0.6226497216819797</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1267,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7401453445837195</v>
+        <v>0.7401160805735746</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1281,16 +1281,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8409549821977272</v>
+        <v>0.8419206945325074</v>
       </c>
       <c r="C8">
-        <v>0.7614814814814814</v>
+        <v>0.7828312345959405</v>
       </c>
       <c r="D8">
-        <v>0.5503166160081053</v>
+        <v>0.5442985384268677</v>
       </c>
       <c r="E8">
-        <v>0.6349827177898557</v>
+        <v>0.6399713282801271</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1301,16 +1301,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7401648539238159</v>
+        <v>0.7410915475784032</v>
       </c>
       <c r="C9">
-        <v>0.669047619047619</v>
+        <v>0.5187301587301587</v>
       </c>
       <c r="D9">
-        <v>0.1002105965186637</v>
+        <v>0.08477190382081687</v>
       </c>
       <c r="E9">
-        <v>0.1574818401937046</v>
+        <v>0.1404386845644714</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1321,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7401160805735746</v>
+        <v>0.7401355899136712</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8320245817685217</v>
+        <v>0.8378627517924206</v>
       </c>
       <c r="C11">
-        <v>0.7271497955485229</v>
+        <v>0.7408753868308974</v>
       </c>
       <c r="D11">
-        <v>0.5716827616827617</v>
+        <v>0.5701405010557552</v>
       </c>
       <c r="E11">
-        <v>0.6367889155280485</v>
+        <v>0.6408208326375351</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1355,16 +1355,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8636443447300394</v>
+        <v>0.8606252743500951</v>
       </c>
       <c r="C12">
-        <v>0.7510957804842135</v>
+        <v>0.7577865928980287</v>
       </c>
       <c r="D12">
-        <v>0.7122820752232515</v>
+        <v>0.6872932593926935</v>
       </c>
       <c r="E12">
-        <v>0.7302385750050157</v>
+        <v>0.7190335638361095</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1375,16 +1375,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8458176852167976</v>
+        <v>0.8458225625518215</v>
       </c>
       <c r="C13">
-        <v>0.7917712837820439</v>
+        <v>0.7869884169884169</v>
       </c>
       <c r="D13">
-        <v>0.5606172714158195</v>
+        <v>0.5644331764831684</v>
       </c>
       <c r="E13">
-        <v>0.6527861080331576</v>
+        <v>0.6558494906890286</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1395,10 +1395,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7401697312588402</v>
+        <v>0.739174754913915</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.003703703703703703</v>
+      </c>
+      <c r="E14">
+        <v>0.03571428571428571</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1409,16 +1415,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8429059162073843</v>
+        <v>0.8418963078573867</v>
       </c>
       <c r="C15">
-        <v>0.7800528695548705</v>
+        <v>0.7810090227737286</v>
       </c>
       <c r="D15">
-        <v>0.5507254901960785</v>
+        <v>0.5552837151073282</v>
       </c>
       <c r="E15">
-        <v>0.6441193892830875</v>
+        <v>0.644288387051545</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1429,16 +1435,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7697654001853387</v>
+        <v>0.7588548017363312</v>
       </c>
       <c r="C16">
-        <v>0.6376959511077158</v>
+        <v>0.5985858585858586</v>
       </c>
       <c r="D16">
-        <v>0.2698908810487758</v>
+        <v>0.2239929042087078</v>
       </c>
       <c r="E16">
-        <v>0.3769222558263654</v>
+        <v>0.3229198618022148</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1449,16 +1455,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8329854167682778</v>
+        <v>0.8280593083938935</v>
       </c>
       <c r="C17">
-        <v>0.7426825112871625</v>
+        <v>0.7213119529058269</v>
       </c>
       <c r="D17">
-        <v>0.5576399655469423</v>
+        <v>0.5466600898813632</v>
       </c>
       <c r="E17">
-        <v>0.6308428508446509</v>
+        <v>0.6209908496112749</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -1469,16 +1475,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8586792176754621</v>
+        <v>0.8517680339462517</v>
       </c>
       <c r="C18">
-        <v>0.7400759799824017</v>
+        <v>0.7304270554011668</v>
       </c>
       <c r="D18">
-        <v>0.7050056729381289</v>
+        <v>0.682003447018941</v>
       </c>
       <c r="E18">
-        <v>0.7193939923684652</v>
+        <v>0.6999566784960596</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -1489,16 +1495,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8379261571477346</v>
+        <v>0.8448666048870896</v>
       </c>
       <c r="C19">
-        <v>0.769563105197286</v>
+        <v>0.7888611167558536</v>
       </c>
       <c r="D19">
-        <v>0.5323680834001604</v>
+        <v>0.5565128711867843</v>
       </c>
       <c r="E19">
-        <v>0.6271960428342147</v>
+        <v>0.6505385998729329</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -1509,7 +1515,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7400819392284056</v>
+        <v>0.7400868165634298</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1523,16 +1529,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8409549821977272</v>
+        <v>0.8438716285421647</v>
       </c>
       <c r="C21">
-        <v>0.7742499369058431</v>
+        <v>0.7785492354954182</v>
       </c>
       <c r="D21">
-        <v>0.5562553897180763</v>
+        <v>0.5549610962434335</v>
       </c>
       <c r="E21">
-        <v>0.6410304703613408</v>
+        <v>0.6454751720979589</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
@@ -1543,16 +1549,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7638491928010536</v>
+        <v>0.7618787494512997</v>
       </c>
       <c r="C22">
-        <v>0.626082251082251</v>
+        <v>0.6341736694677872</v>
       </c>
       <c r="D22">
-        <v>0.2335555555555556</v>
+        <v>0.2332263993316625</v>
       </c>
       <c r="E22">
-        <v>0.3360959804157964</v>
+        <v>0.3218844551505842</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -1563,16 +1569,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8556991659757107</v>
+        <v>0.853718967955909</v>
       </c>
       <c r="C23">
-        <v>0.753737879020661</v>
+        <v>0.746689388521366</v>
       </c>
       <c r="D23">
-        <v>0.6718445391620265</v>
+        <v>0.6713145289123401</v>
       </c>
       <c r="E23">
-        <v>0.7058213178591531</v>
+        <v>0.7035112444182627</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -1583,16 +1589,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8537677413061504</v>
+        <v>0.8389601521728528</v>
       </c>
       <c r="C24">
-        <v>0.7719082299586502</v>
+        <v>0.7326173590003378</v>
       </c>
       <c r="D24">
-        <v>0.6235787461837882</v>
+        <v>0.5956297420177099</v>
       </c>
       <c r="E24">
-        <v>0.6866075347807948</v>
+        <v>0.6546663997956035</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
@@ -1603,16 +1609,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8103106862410379</v>
+        <v>0.8092962005560163</v>
       </c>
       <c r="C25">
-        <v>0.737620293104164</v>
+        <v>0.7320554428668019</v>
       </c>
       <c r="D25">
-        <v>0.4270006718682113</v>
+        <v>0.4301341502188961</v>
       </c>
       <c r="E25">
-        <v>0.5356492319259412</v>
+        <v>0.5378714368674002</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -1623,16 +1629,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.8349900014632003</v>
+        <v>0.8330049261083744</v>
       </c>
       <c r="C26">
-        <v>0.7254225724150536</v>
+        <v>0.7184650980606491</v>
       </c>
       <c r="D26">
-        <v>0.5874026729335802</v>
+        <v>0.5882099498058997</v>
       </c>
       <c r="E26">
-        <v>0.648324533181084</v>
+        <v>0.6453450261897249</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
@@ -1643,16 +1649,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8162073842852265</v>
+        <v>0.8073013705311418</v>
       </c>
       <c r="C27">
-        <v>0.6943387099774888</v>
+        <v>0.6755411255411257</v>
       </c>
       <c r="D27">
-        <v>0.5279762635025793</v>
+        <v>0.4978401191658391</v>
       </c>
       <c r="E27">
-        <v>0.5975379556690137</v>
+        <v>0.5689968030619488</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
@@ -1663,16 +1669,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.8487977369165488</v>
+        <v>0.8596985806955079</v>
       </c>
       <c r="C28">
-        <v>0.7162571519604768</v>
+        <v>0.7489902060114826</v>
       </c>
       <c r="D28">
-        <v>0.6784552777996974</v>
+        <v>0.6836740238415115</v>
       </c>
       <c r="E28">
-        <v>0.6954780997266041</v>
+        <v>0.712761509058802</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
@@ -1683,16 +1689,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.8468711895820122</v>
+        <v>0.8429010388723601</v>
       </c>
       <c r="C29">
-        <v>0.7508730538495533</v>
+        <v>0.7391544566544568</v>
       </c>
       <c r="D29">
-        <v>0.6253583519703799</v>
+        <v>0.6080054460673474</v>
       </c>
       <c r="E29">
-        <v>0.6796483178176542</v>
+        <v>0.6662174136408644</v>
       </c>
       <c r="F29" t="s">
         <v>32</v>
@@ -1703,16 +1709,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8586987270155587</v>
+        <v>0.8577135053406819</v>
       </c>
       <c r="C30">
-        <v>0.7417569327224499</v>
+        <v>0.7364386893873753</v>
       </c>
       <c r="D30">
-        <v>0.7157275132275132</v>
+        <v>0.7089923964923965</v>
       </c>
       <c r="E30">
-        <v>0.7216187539126507</v>
+        <v>0.7205897948115643</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -1723,16 +1729,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8567477930059015</v>
+        <v>0.8547383309759548</v>
       </c>
       <c r="C31">
-        <v>0.7453146853146853</v>
+        <v>0.7327269849016371</v>
       </c>
       <c r="D31">
-        <v>0.7004559270516717</v>
+        <v>0.6970080413538832</v>
       </c>
       <c r="E31">
-        <v>0.7184667893343162</v>
+        <v>0.7132987227294159</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -1743,16 +1749,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8270740867190168</v>
+        <v>0.8290640394088669</v>
       </c>
       <c r="C32">
-        <v>0.7556756756756757</v>
+        <v>0.7666899841017488</v>
       </c>
       <c r="D32">
-        <v>0.5012457945526529</v>
+        <v>0.4887624015123291</v>
       </c>
       <c r="E32">
-        <v>0.6009598643019283</v>
+        <v>0.5953438084452131</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -1763,16 +1769,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8389796615129492</v>
+        <v>0.8398722138223675</v>
       </c>
       <c r="C33">
-        <v>0.7641986062717769</v>
+        <v>0.7718890586537646</v>
       </c>
       <c r="D33">
-        <v>0.5519783112894128</v>
+        <v>0.5405655747761011</v>
       </c>
       <c r="E33">
-        <v>0.6400039020943161</v>
+        <v>0.6350858846127918</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -1783,16 +1789,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8458420718919182</v>
+        <v>0.8359410817929083</v>
       </c>
       <c r="C34">
-        <v>0.773750765314849</v>
+        <v>0.7471955081502205</v>
       </c>
       <c r="D34">
-        <v>0.5808353621424224</v>
+        <v>0.5580684538838647</v>
       </c>
       <c r="E34">
-        <v>0.6582946325527794</v>
+        <v>0.6376572671807077</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
@@ -1803,16 +1809,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8300395064136955</v>
+        <v>0.8349704921231039</v>
       </c>
       <c r="C35">
-        <v>0.7821428571428571</v>
+        <v>0.8030970844037995</v>
       </c>
       <c r="D35">
-        <v>0.479040223540307</v>
+        <v>0.4967885813329163</v>
       </c>
       <c r="E35">
-        <v>0.5920016492466283</v>
+        <v>0.6091433377387961</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -1823,16 +1829,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7371604155489442</v>
+        <v>0.7371799248890406</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
-        <v>0.00392156862745098</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="E36">
-        <v>0.03846153846153846</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="F36" t="s">
         <v>39</v>
@@ -1843,16 +1849,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8360191191532946</v>
+        <v>0.8349802467931522</v>
       </c>
       <c r="C37">
-        <v>0.7494809914812607</v>
+        <v>0.7552759490893133</v>
       </c>
       <c r="D37">
-        <v>0.5448216619981325</v>
+        <v>0.5511275068148384</v>
       </c>
       <c r="E37">
-        <v>0.6305654558499695</v>
+        <v>0.6331904487204533</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -1863,16 +1869,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8260596010339951</v>
+        <v>0.824113544359362</v>
       </c>
       <c r="C38">
-        <v>0.7183022774327122</v>
+        <v>0.7274401378122308</v>
       </c>
       <c r="D38">
-        <v>0.5374499714122355</v>
+        <v>0.5444524918846269</v>
       </c>
       <c r="E38">
-        <v>0.6140463295294639</v>
+        <v>0.6131767033586318</v>
       </c>
       <c r="F38" t="s">
         <v>41</v>
@@ -1883,16 +1889,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8586889723455103</v>
+        <v>0.8567331610008292</v>
       </c>
       <c r="C39">
-        <v>0.7544942954054887</v>
+        <v>0.7405611296915644</v>
       </c>
       <c r="D39">
-        <v>0.6769875776397515</v>
+        <v>0.6914067253695737</v>
       </c>
       <c r="E39">
-        <v>0.7110447024492852</v>
+        <v>0.7124701353190379</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -1903,16 +1909,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8438423645320196</v>
+        <v>0.8468516802419158</v>
       </c>
       <c r="C40">
-        <v>0.7892178782081938</v>
+        <v>0.7928731672849321</v>
       </c>
       <c r="D40">
-        <v>0.5498350786964196</v>
+        <v>0.5538231292517006</v>
       </c>
       <c r="E40">
-        <v>0.6464213732714682</v>
+        <v>0.6516386340759455</v>
       </c>
       <c r="F40" t="s">
         <v>43</v>
@@ -1923,7 +1929,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7401697312588402</v>
+        <v>0.7391211042286494</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1937,16 +1946,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8429205482124568</v>
+        <v>0.8448666048870896</v>
       </c>
       <c r="C42">
-        <v>0.7662523934588543</v>
+        <v>0.7734661544417641</v>
       </c>
       <c r="D42">
-        <v>0.5698164335664335</v>
+        <v>0.574380395433027</v>
       </c>
       <c r="E42">
-        <v>0.6506234644695565</v>
+        <v>0.65870461576615</v>
       </c>
       <c r="F42" t="s">
         <v>45</v>
@@ -1957,16 +1966,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7529922450373115</v>
+        <v>0.7510803297078477</v>
       </c>
       <c r="C43">
-        <v>0.724963924963925</v>
+        <v>0.6167099567099568</v>
       </c>
       <c r="D43">
-        <v>0.1104347378710706</v>
+        <v>0.1291750434123315</v>
       </c>
       <c r="E43">
-        <v>0.1829449716949717</v>
+        <v>0.2009701588733846</v>
       </c>
       <c r="F43" t="s">
         <v>46</v>
@@ -1977,16 +1986,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8507633029312783</v>
+        <v>0.8448519728820172</v>
       </c>
       <c r="C44">
-        <v>0.7396137471702902</v>
+        <v>0.7191868514600694</v>
       </c>
       <c r="D44">
-        <v>0.6715715619581165</v>
+        <v>0.6585181225416435</v>
       </c>
       <c r="E44">
-        <v>0.6984910852788649</v>
+        <v>0.6864402443787465</v>
       </c>
       <c r="F44" t="s">
         <v>47</v>
@@ -1997,16 +2006,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.8408623128322684</v>
+        <v>0.8488270009266936</v>
       </c>
       <c r="C45">
-        <v>0.7558638461077486</v>
+        <v>0.7901656314699793</v>
       </c>
       <c r="D45">
-        <v>0.5800122954047746</v>
+        <v>0.5722753529724048</v>
       </c>
       <c r="E45">
-        <v>0.6544242945080845</v>
+        <v>0.6574949281224536</v>
       </c>
       <c r="F45" t="s">
         <v>48</v>
@@ -2017,16 +2026,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8181924596400526</v>
+        <v>0.8073598985514314</v>
       </c>
       <c r="C46">
-        <v>0.7332132132132132</v>
+        <v>0.6781440510315314</v>
       </c>
       <c r="D46">
-        <v>0.4755613201917642</v>
+        <v>0.4711587535271746</v>
       </c>
       <c r="E46">
-        <v>0.5747066960512421</v>
+        <v>0.5530639649013993</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
@@ -2037,16 +2046,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.8290542847388188</v>
+        <v>0.8349265961078866</v>
       </c>
       <c r="C47">
-        <v>0.7235858585858586</v>
+        <v>0.7324581231690185</v>
       </c>
       <c r="D47">
-        <v>0.5779511841252398</v>
+        <v>0.583063714063714</v>
       </c>
       <c r="E47">
-        <v>0.6334535774156066</v>
+        <v>0.646464930553791</v>
       </c>
       <c r="F47" t="s">
         <v>50</v>
@@ -2057,16 +2066,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8270984733941373</v>
+        <v>0.8211042286494659</v>
       </c>
       <c r="C48">
-        <v>0.7085923600209314</v>
+        <v>0.6901873067830515</v>
       </c>
       <c r="D48">
-        <v>0.5751074658538552</v>
+        <v>0.5631417136322796</v>
       </c>
       <c r="E48">
-        <v>0.6332768848059736</v>
+        <v>0.6174371388523688</v>
       </c>
       <c r="F48" t="s">
         <v>51</v>
@@ -2077,16 +2086,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8557137979807832</v>
+        <v>0.8537579866361019</v>
       </c>
       <c r="C49">
-        <v>0.7585531135531136</v>
+        <v>0.7425210417435152</v>
       </c>
       <c r="D49">
-        <v>0.6695745240165487</v>
+        <v>0.6687421767610446</v>
       </c>
       <c r="E49">
-        <v>0.7037146427583634</v>
+        <v>0.7027106022160103</v>
       </c>
       <c r="F49" t="s">
         <v>52</v>
@@ -2097,16 +2106,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.8507681802663024</v>
+        <v>0.8478515339218651</v>
       </c>
       <c r="C50">
-        <v>0.7556618530329349</v>
+        <v>0.7469417844657242</v>
       </c>
       <c r="D50">
-        <v>0.6263104593882461</v>
+        <v>0.6316143171524129</v>
       </c>
       <c r="E50">
-        <v>0.6841490754190459</v>
+        <v>0.6814873684408067</v>
       </c>
       <c r="F50" t="s">
         <v>53</v>
@@ -2117,16 +2126,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.855704043310735</v>
+        <v>0.8576939960005852</v>
       </c>
       <c r="C51">
-        <v>0.7492108985851164</v>
+        <v>0.7490115767475115</v>
       </c>
       <c r="D51">
-        <v>0.6785825136229449</v>
+        <v>0.6750318879214265</v>
       </c>
       <c r="E51">
-        <v>0.7075186381610022</v>
+        <v>0.7029922254821257</v>
       </c>
       <c r="F51" t="s">
         <v>54</v>
@@ -2137,16 +2146,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.858708481685607</v>
+        <v>0.8606399063551675</v>
       </c>
       <c r="C52">
-        <v>0.755215763764032</v>
+        <v>0.7412056194125159</v>
       </c>
       <c r="D52">
-        <v>0.6894297901554274</v>
+        <v>0.7106186037861884</v>
       </c>
       <c r="E52">
-        <v>0.7163912913045223</v>
+        <v>0.7233750050744936</v>
       </c>
       <c r="F52" t="s">
         <v>55</v>
@@ -2157,16 +2166,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.8310491147636931</v>
+        <v>0.826093742379164</v>
       </c>
       <c r="C53">
-        <v>0.7677887866858455</v>
+        <v>0.7530689627294042</v>
       </c>
       <c r="D53">
-        <v>0.5075364936288471</v>
+        <v>0.489376734923764</v>
       </c>
       <c r="E53">
-        <v>0.6093639615936115</v>
+        <v>0.5903188903892548</v>
       </c>
       <c r="F53" t="s">
         <v>56</v>
@@ -2177,16 +2186,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.8458810905721114</v>
+        <v>0.8389796615129492</v>
       </c>
       <c r="C54">
-        <v>0.7934189640768589</v>
+        <v>0.7703804108987036</v>
       </c>
       <c r="D54">
-        <v>0.5498325358851675</v>
+        <v>0.5463454983670617</v>
       </c>
       <c r="E54">
-        <v>0.6481800261061829</v>
+        <v>0.6357589468033749</v>
       </c>
       <c r="F54" t="s">
         <v>57</v>
@@ -2197,16 +2206,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.8418865531873385</v>
+        <v>0.8438862605472369</v>
       </c>
       <c r="C55">
-        <v>0.7857010861662024</v>
+        <v>0.7929665071770335</v>
       </c>
       <c r="D55">
-        <v>0.5500248560962847</v>
+        <v>0.5424738041291419</v>
       </c>
       <c r="E55">
-        <v>0.6428837196179944</v>
+        <v>0.6428170468931349</v>
       </c>
       <c r="F55" t="s">
         <v>58</v>
@@ -2217,16 +2226,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.8369311808028094</v>
+        <v>0.8329463980880846</v>
       </c>
       <c r="C56">
-        <v>0.7894515713870554</v>
+        <v>0.7776204869306758</v>
       </c>
       <c r="D56">
-        <v>0.5073645126102939</v>
+        <v>0.5053497360482655</v>
       </c>
       <c r="E56">
-        <v>0.6157144060758519</v>
+        <v>0.6086660976704028</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -2237,16 +2246,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7372189435692338</v>
+        <v>0.7430376042530362</v>
       </c>
       <c r="C57">
-        <v>0.3723076923076923</v>
+        <v>0.5202380952380953</v>
       </c>
       <c r="D57">
-        <v>0.06881090607505702</v>
+        <v>0.06000274838936091</v>
       </c>
       <c r="E57">
-        <v>0.136584679688128</v>
+        <v>0.1066400162418898</v>
       </c>
       <c r="F57" t="s">
         <v>60</v>
@@ -2257,16 +2266,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.8448275862068966</v>
+        <v>0.8399404965127054</v>
       </c>
       <c r="C58">
-        <v>0.772956307258633</v>
+        <v>0.7700444174618741</v>
       </c>
       <c r="D58">
-        <v>0.5729310344827586</v>
+        <v>0.5658801569552077</v>
       </c>
       <c r="E58">
-        <v>0.6529367678077652</v>
+        <v>0.6468440051584252</v>
       </c>
       <c r="F58" t="s">
         <v>61</v>
@@ -2277,16 +2286,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.8547334536409306</v>
+        <v>0.8528069063063942</v>
       </c>
       <c r="C59">
-        <v>0.7356019524514612</v>
+        <v>0.7366828892479987</v>
       </c>
       <c r="D59">
-        <v>0.6863639405091396</v>
+        <v>0.6779494190020505</v>
       </c>
       <c r="E59">
-        <v>0.7063293396884547</v>
+        <v>0.7006291133497415</v>
       </c>
       <c r="F59" t="s">
         <v>62</v>
@@ -2297,16 +2306,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.8418524118421693</v>
+        <v>0.8408915768424133</v>
       </c>
       <c r="C60">
-        <v>0.7780344526474557</v>
+        <v>0.788943609744056</v>
       </c>
       <c r="D60">
-        <v>0.5579151302190032</v>
+        <v>0.56015177787163</v>
       </c>
       <c r="E60">
-        <v>0.6433686711448654</v>
+        <v>0.6475394603604119</v>
       </c>
       <c r="F60" t="s">
         <v>63</v>
@@ -2317,16 +2326,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.8191435399697605</v>
+        <v>0.8260986197141881</v>
       </c>
       <c r="C61">
-        <v>0.7337254901960785</v>
+        <v>0.7580873724403135</v>
       </c>
       <c r="D61">
-        <v>0.4884505813953489</v>
+        <v>0.489850112475168</v>
       </c>
       <c r="E61">
-        <v>0.5816349513358426</v>
+        <v>0.5918146294947938</v>
       </c>
       <c r="F61" t="s">
         <v>64</v>
@@ -2337,16 +2346,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.8320392137735941</v>
+        <v>0.8241379310344827</v>
       </c>
       <c r="C62">
-        <v>0.7272563676633444</v>
+        <v>0.7065802804884552</v>
       </c>
       <c r="D62">
-        <v>0.5800961957363011</v>
+        <v>0.5482425056749209</v>
       </c>
       <c r="E62">
-        <v>0.6421626997511724</v>
+        <v>0.6162684535661593</v>
       </c>
       <c r="F62" t="s">
         <v>65</v>
@@ -2357,16 +2366,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.8201141296395649</v>
+        <v>0.8191630493098569</v>
       </c>
       <c r="C63">
-        <v>0.7018502540023344</v>
+        <v>0.696452337740904</v>
       </c>
       <c r="D63">
-        <v>0.5565717474729356</v>
+        <v>0.5437040761241103</v>
       </c>
       <c r="E63">
-        <v>0.6166483817722129</v>
+        <v>0.6078543738796602</v>
       </c>
       <c r="F63" t="s">
         <v>66</v>
@@ -2377,16 +2386,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.8528069063063942</v>
+        <v>0.8537970053162951</v>
       </c>
       <c r="C64">
-        <v>0.7463528473590394</v>
+        <v>0.7401082756151462</v>
       </c>
       <c r="D64">
-        <v>0.6616029358394118</v>
+        <v>0.6814234590657734</v>
       </c>
       <c r="E64">
-        <v>0.7009646092115279</v>
+        <v>0.7036135470514114</v>
       </c>
       <c r="F64" t="s">
         <v>67</v>
@@ -2397,16 +2406,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.8508120762815198</v>
+        <v>0.8547188216358581</v>
       </c>
       <c r="C65">
-        <v>0.7558622716180935</v>
+        <v>0.7517535014005603</v>
       </c>
       <c r="D65">
-        <v>0.6302614120297048</v>
+        <v>0.6519801802862396</v>
       </c>
       <c r="E65">
-        <v>0.6855941908532016</v>
+        <v>0.697535915621022</v>
       </c>
       <c r="F65" t="s">
         <v>68</v>
@@ -2417,16 +2426,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.857684241330537</v>
+        <v>0.8596449300102424</v>
       </c>
       <c r="C66">
-        <v>0.7417578076396666</v>
+        <v>0.7536043743490553</v>
       </c>
       <c r="D66">
-        <v>0.7009810938376461</v>
+        <v>0.6875146561695558</v>
       </c>
       <c r="E66">
-        <v>0.7175923413828856</v>
+        <v>0.7167631561917801</v>
       </c>
       <c r="F66" t="s">
         <v>69</v>
@@ -2437,16 +2446,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.8576744866604887</v>
+        <v>0.8586987270155587</v>
       </c>
       <c r="C67">
-        <v>0.7355095884507649</v>
+        <v>0.7436392914653783</v>
       </c>
       <c r="D67">
-        <v>0.6979962096444603</v>
+        <v>0.7037032583187648</v>
       </c>
       <c r="E67">
-        <v>0.7153955910186427</v>
+        <v>0.7206055282196365</v>
       </c>
       <c r="F67" t="s">
         <v>70</v>
@@ -2457,16 +2466,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.8320197044334975</v>
+        <v>0.8310247280885724</v>
       </c>
       <c r="C68">
-        <v>0.7601665168494438</v>
+        <v>0.770896750308515</v>
       </c>
       <c r="D68">
-        <v>0.5011936312275295</v>
+        <v>0.5087767708318742</v>
       </c>
       <c r="E68">
-        <v>0.6029127614803951</v>
+        <v>0.6088666911843212</v>
       </c>
       <c r="F68" t="s">
         <v>71</v>
@@ -2477,16 +2486,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.8418524118421693</v>
+        <v>0.8478564112568892</v>
       </c>
       <c r="C69">
-        <v>0.7778360535485054</v>
+        <v>0.8009047127622978</v>
       </c>
       <c r="D69">
-        <v>0.5547078585073446</v>
+        <v>0.5564322721700589</v>
       </c>
       <c r="E69">
-        <v>0.6456438224511034</v>
+        <v>0.6547606844289632</v>
       </c>
       <c r="F69" t="s">
         <v>72</v>
@@ -2497,16 +2506,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.8429156708774326</v>
+        <v>0.8399112325025605</v>
       </c>
       <c r="C70">
-        <v>0.7772029272701989</v>
+        <v>0.769579831932773</v>
       </c>
       <c r="D70">
-        <v>0.5555153042751613</v>
+        <v>0.54420629601702</v>
       </c>
       <c r="E70">
-        <v>0.6446829343159155</v>
+        <v>0.6352893213446221</v>
       </c>
       <c r="F70" t="s">
         <v>73</v>
@@ -2517,16 +2526,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.8339511291030581</v>
+        <v>0.8339706384431546</v>
       </c>
       <c r="C71">
-        <v>0.7671969696969697</v>
+        <v>0.7690999602614503</v>
       </c>
       <c r="D71">
-        <v>0.5159748508098891</v>
+        <v>0.5122149070154378</v>
       </c>
       <c r="E71">
-        <v>0.6145265960340212</v>
+        <v>0.6139667441696611</v>
       </c>
       <c r="F71" t="s">
         <v>74</v>
@@ -2537,16 +2546,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.738145637223821</v>
+        <v>0.7391406135687462</v>
       </c>
       <c r="C72">
-        <v>0.5303030303030303</v>
+        <v>0.48</v>
       </c>
       <c r="D72">
-        <v>0.03855942548951667</v>
+        <v>0.03790311138137225</v>
       </c>
       <c r="E72">
-        <v>0.08512648536890607</v>
+        <v>0.08420211942213668</v>
       </c>
       <c r="F72" t="s">
         <v>75</v>
@@ -2557,16 +2566,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.8370092181631955</v>
+        <v>0.8428620201921669</v>
       </c>
       <c r="C73">
-        <v>0.7494005694005694</v>
+        <v>0.7796747967479674</v>
       </c>
       <c r="D73">
-        <v>0.5498587391946026</v>
+        <v>0.5607814407814408</v>
       </c>
       <c r="E73">
-        <v>0.6334799916384256</v>
+        <v>0.6506468931526139</v>
       </c>
       <c r="F73" t="s">
         <v>76</v>
@@ -2577,16 +2586,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.8567136516607325</v>
+        <v>0.8527581329561528</v>
       </c>
       <c r="C74">
-        <v>0.7560951902128372</v>
+        <v>0.7440098452621238</v>
       </c>
       <c r="D74">
-        <v>0.6749232890580001</v>
+        <v>0.6737143293331547</v>
       </c>
       <c r="E74">
-        <v>0.7126735870346417</v>
+        <v>0.7034767347810826</v>
       </c>
       <c r="F74" t="s">
         <v>77</v>
@@ -2597,16 +2606,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.8448373408769448</v>
+        <v>0.8448422182119689</v>
       </c>
       <c r="C75">
-        <v>0.745413116510054</v>
+        <v>0.7422834924001414</v>
       </c>
       <c r="D75">
-        <v>0.60948303870043</v>
+        <v>0.61985723171707</v>
       </c>
       <c r="E75">
-        <v>0.668732262664516</v>
+        <v>0.6753700871986276</v>
       </c>
       <c r="F75" t="s">
         <v>78</v>
@@ -2617,16 +2626,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.8537043359508365</v>
+        <v>0.8498414866117153</v>
       </c>
       <c r="C76">
-        <v>0.7343537414965986</v>
+        <v>0.7366840147106517</v>
       </c>
       <c r="D76">
-        <v>0.6705026137957414</v>
+        <v>0.664714932126697</v>
       </c>
       <c r="E76">
-        <v>0.6983270106458607</v>
+        <v>0.6967135598665924</v>
       </c>
       <c r="F76" t="s">
         <v>79</v>
@@ -2637,16 +2646,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.8606594156952641</v>
+        <v>0.864653953080037</v>
       </c>
       <c r="C77">
-        <v>0.7549629550542305</v>
+        <v>0.7752637805694361</v>
       </c>
       <c r="D77">
-        <v>0.6833265913068869</v>
+        <v>0.6839444597955237</v>
       </c>
       <c r="E77">
-        <v>0.7169910952815786</v>
+        <v>0.7215601700712723</v>
       </c>
       <c r="F77" t="s">
         <v>80</v>
@@ -2657,16 +2666,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.8300443837487197</v>
+        <v>0.8320343364385699</v>
       </c>
       <c r="C78">
-        <v>0.7448992673992675</v>
+        <v>0.7452690931349468</v>
       </c>
       <c r="D78">
-        <v>0.5262837368585656</v>
+        <v>0.5367658372400529</v>
       </c>
       <c r="E78">
-        <v>0.6114376306946285</v>
+        <v>0.6228619228483581</v>
       </c>
       <c r="F78" t="s">
         <v>81</v>
@@ -2677,16 +2686,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.8458420718919182</v>
+        <v>0.8389113788226112</v>
       </c>
       <c r="C79">
-        <v>0.7593779829498699</v>
+        <v>0.7425484798889054</v>
       </c>
       <c r="D79">
-        <v>0.5989119467415612</v>
+        <v>0.5792607411062818</v>
       </c>
       <c r="E79">
-        <v>0.6676419232940972</v>
+        <v>0.6496992201431371</v>
       </c>
       <c r="F79" t="s">
         <v>82</v>
@@ -2697,16 +2706,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.8498024679315221</v>
+        <v>0.837945666487831</v>
       </c>
       <c r="C80">
-        <v>0.7518766035642466</v>
+        <v>0.7338620952387565</v>
       </c>
       <c r="D80">
-        <v>0.6340082789490424</v>
+        <v>0.5962966923449671</v>
       </c>
       <c r="E80">
-        <v>0.6848009055224595</v>
+        <v>0.6532724770820009</v>
       </c>
       <c r="F80" t="s">
         <v>83</v>
@@ -2717,16 +2726,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.8192215773301468</v>
+        <v>0.8241184216943861</v>
       </c>
       <c r="C81">
-        <v>0.7116526659137311</v>
+        <v>0.7264637262907258</v>
       </c>
       <c r="D81">
-        <v>0.5113605238188919</v>
+        <v>0.5256195232810106</v>
       </c>
       <c r="E81">
-        <v>0.5925951661185364</v>
+        <v>0.607139403895844</v>
       </c>
       <c r="F81" t="s">
         <v>84</v>
@@ -2737,16 +2746,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.813212700580403</v>
+        <v>0.8023118568014438</v>
       </c>
       <c r="C82">
-        <v>0.7374479410532542</v>
+        <v>0.6973497786211259</v>
       </c>
       <c r="D82">
-        <v>0.4455170731090631</v>
+        <v>0.4408970024791526</v>
       </c>
       <c r="E82">
-        <v>0.5480513581353916</v>
+        <v>0.5378645311810751</v>
       </c>
       <c r="F82" t="s">
         <v>85</v>
@@ -2757,16 +2766,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.831083256108862</v>
+        <v>0.8329659074281812</v>
       </c>
       <c r="C83">
-        <v>0.7160324271818823</v>
+        <v>0.7041239816084536</v>
       </c>
       <c r="D83">
-        <v>0.5886318972033258</v>
+        <v>0.6128620436167606</v>
       </c>
       <c r="E83">
-        <v>0.6449147854571301</v>
+        <v>0.6539170017842121</v>
       </c>
       <c r="F83" t="s">
         <v>86</v>
@@ -2777,16 +2786,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.8399453738477296</v>
+        <v>0.847817392576696</v>
       </c>
       <c r="C84">
-        <v>0.7282719709608803</v>
+        <v>0.7305250305250306</v>
       </c>
       <c r="D84">
-        <v>0.6368498168498168</v>
+        <v>0.6540229885057471</v>
       </c>
       <c r="E84">
-        <v>0.6723385840748939</v>
+        <v>0.688485212742452</v>
       </c>
       <c r="F84" t="s">
         <v>87</v>
@@ -2797,16 +2806,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.8507486709262059</v>
+        <v>0.8527922743013218</v>
       </c>
       <c r="C85">
-        <v>0.7348851093088459</v>
+        <v>0.7298636335304897</v>
       </c>
       <c r="D85">
-        <v>0.6668672562089814</v>
+        <v>0.693126860807216</v>
       </c>
       <c r="E85">
-        <v>0.698202150249706</v>
+        <v>0.7088884813974812</v>
       </c>
       <c r="F85" t="s">
         <v>88</v>
@@ -2820,13 +2829,13 @@
         <v>0.8537628639711261</v>
       </c>
       <c r="C86">
-        <v>0.7368647979286277</v>
+        <v>0.73193171534348</v>
       </c>
       <c r="D86">
-        <v>0.6882846220249106</v>
+        <v>0.6882954554111169</v>
       </c>
       <c r="E86">
-        <v>0.7101926621233553</v>
+        <v>0.7091182339096482</v>
       </c>
       <c r="F86" t="s">
         <v>89</v>
@@ -2837,16 +2846,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.8477881285665513</v>
+        <v>0.8467980295566502</v>
       </c>
       <c r="C87">
-        <v>0.7464268461007592</v>
+        <v>0.7527955745466006</v>
       </c>
       <c r="D87">
-        <v>0.6277069214143131</v>
+        <v>0.6306723556655813</v>
       </c>
       <c r="E87">
-        <v>0.6811184958640366</v>
+        <v>0.6800328461576192</v>
       </c>
       <c r="F87" t="s">
         <v>90</v>
@@ -2857,16 +2866,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.8507828122713749</v>
+        <v>0.8498122226015704</v>
       </c>
       <c r="C88">
-        <v>0.7528384680464704</v>
+        <v>0.7542110405192312</v>
       </c>
       <c r="D88">
-        <v>0.6348179773701594</v>
+        <v>0.620506223336412</v>
       </c>
       <c r="E88">
-        <v>0.6867175338109659</v>
+        <v>0.6795873921791956</v>
       </c>
       <c r="F88" t="s">
         <v>91</v>
@@ -2877,16 +2886,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.8596888260254596</v>
+        <v>0.858708481685607</v>
       </c>
       <c r="C89">
-        <v>0.7436989778131057</v>
+        <v>0.738106098694334</v>
       </c>
       <c r="D89">
-        <v>0.6973947368421052</v>
+        <v>0.7045419922354906</v>
       </c>
       <c r="E89">
-        <v>0.7169950509661404</v>
+        <v>0.720652728199898</v>
       </c>
       <c r="F89" t="s">
         <v>92</v>
@@ -2897,16 +2906,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8330293127834951</v>
+        <v>0.8359703458030532</v>
       </c>
       <c r="C90">
-        <v>0.7679062855533443</v>
+        <v>0.7705932476664185</v>
       </c>
       <c r="D90">
-        <v>0.513678519244557</v>
+        <v>0.5297239718516314</v>
       </c>
       <c r="E90">
-        <v>0.6149174407345573</v>
+        <v>0.6267277460823638</v>
       </c>
       <c r="F90" t="s">
         <v>93</v>
@@ -2917,16 +2926,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.8310344827586208</v>
+        <v>0.8270838413890651</v>
       </c>
       <c r="C91">
-        <v>0.75526971888121</v>
+        <v>0.7385499278721068</v>
       </c>
       <c r="D91">
-        <v>0.5166927542503579</v>
+        <v>0.5226672184703751</v>
       </c>
       <c r="E91">
-        <v>0.6111594429666719</v>
+        <v>0.6089249094156208</v>
       </c>
       <c r="F91" t="s">
         <v>94</v>
@@ -2937,16 +2946,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.8438716285421645</v>
+        <v>0.844876359557138</v>
       </c>
       <c r="C92">
-        <v>0.7622845127129093</v>
+        <v>0.7671371112067331</v>
       </c>
       <c r="D92">
-        <v>0.5832513202002112</v>
+        <v>0.5786379244451835</v>
       </c>
       <c r="E92">
-        <v>0.6591389534039261</v>
+        <v>0.6576173774007299</v>
       </c>
       <c r="F92" t="s">
         <v>95</v>
@@ -2957,16 +2966,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8260547236989708</v>
+        <v>0.833063454128664</v>
       </c>
       <c r="C93">
-        <v>0.7479328165374677</v>
+        <v>0.7634012113617377</v>
       </c>
       <c r="D93">
-        <v>0.4986949685534592</v>
+        <v>0.5222243457026066</v>
       </c>
       <c r="E93">
-        <v>0.5958940508912514</v>
+        <v>0.6193931928243981</v>
       </c>
       <c r="F93" t="s">
         <v>96</v>
@@ -2977,16 +2986,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.8577086280056576</v>
+        <v>0.8557479393259524</v>
       </c>
       <c r="C94">
-        <v>0.745792798607444</v>
+        <v>0.7433024013024012</v>
       </c>
       <c r="D94">
-        <v>0.680817538324637</v>
+        <v>0.6859288497667866</v>
       </c>
       <c r="E94">
-        <v>0.7099830123717009</v>
+        <v>0.7131706009961458</v>
       </c>
       <c r="F94" t="s">
         <v>97</v>
@@ -2997,16 +3006,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.8458225625518218</v>
+        <v>0.852733746281032</v>
       </c>
       <c r="C95">
-        <v>0.7986381372250937</v>
+        <v>0.8083110742794831</v>
       </c>
       <c r="D95">
-        <v>0.551646601841848</v>
+        <v>0.5703630847328106</v>
       </c>
       <c r="E95">
-        <v>0.6426129831589377</v>
+        <v>0.6661025010009863</v>
       </c>
       <c r="F95" t="s">
         <v>98</v>
@@ -3017,16 +3026,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8211920206799006</v>
+        <v>0.8211871433448763</v>
       </c>
       <c r="C96">
-        <v>0.7319973074578338</v>
+        <v>0.7348156682027651</v>
       </c>
       <c r="D96">
-        <v>0.5002073009841116</v>
+        <v>0.49387050211362</v>
       </c>
       <c r="E96">
-        <v>0.5913641419759329</v>
+        <v>0.5887552514204282</v>
       </c>
       <c r="F96" t="s">
         <v>99</v>
@@ -3037,16 +3046,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.8251182753743356</v>
+        <v>0.8260644783690191</v>
       </c>
       <c r="C97">
-        <v>0.7229946765376127</v>
+        <v>0.7227191166321602</v>
       </c>
       <c r="D97">
-        <v>0.5489433634933305</v>
+        <v>0.5406485671191554</v>
       </c>
       <c r="E97">
-        <v>0.6184755874051279</v>
+        <v>0.6165126506771398</v>
       </c>
       <c r="F97" t="s">
         <v>100</v>
@@ -3060,13 +3069,13 @@
         <v>0.8181339316197629</v>
       </c>
       <c r="C98">
-        <v>0.6950910931174088</v>
+        <v>0.709587710947547</v>
       </c>
       <c r="D98">
-        <v>0.5327301909886608</v>
+        <v>0.5274194324194325</v>
       </c>
       <c r="E98">
-        <v>0.601849514788604</v>
+        <v>0.6000934673551951</v>
       </c>
       <c r="F98" t="s">
         <v>101</v>
@@ -3077,16 +3086,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.8547334536409306</v>
+        <v>0.8507876896063991</v>
       </c>
       <c r="C99">
-        <v>0.7456837044221126</v>
+        <v>0.7419615428376379</v>
       </c>
       <c r="D99">
-        <v>0.6718775434702183</v>
+        <v>0.6613265306122449</v>
       </c>
       <c r="E99">
-        <v>0.7058170898441534</v>
+        <v>0.6970758365475365</v>
       </c>
       <c r="F99" t="s">
         <v>102</v>
@@ -3097,16 +3106,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.8517387699361068</v>
+        <v>0.8537482319660537</v>
       </c>
       <c r="C100">
-        <v>0.7434807850898894</v>
+        <v>0.7547563983965465</v>
       </c>
       <c r="D100">
-        <v>0.6522286450092321</v>
+        <v>0.6496186005322053</v>
       </c>
       <c r="E100">
-        <v>0.6934363666361983</v>
+        <v>0.697625838415074</v>
       </c>
       <c r="F100" t="s">
         <v>103</v>
@@ -3117,16 +3126,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.8546944349607374</v>
+        <v>0.8596985806955079</v>
       </c>
       <c r="C101">
-        <v>0.7496117644286981</v>
+        <v>0.7486777362107635</v>
       </c>
       <c r="D101">
-        <v>0.6729520986113278</v>
+        <v>0.6875863836526992</v>
       </c>
       <c r="E101">
-        <v>0.7064121811490234</v>
+        <v>0.7154047110830861</v>
       </c>
       <c r="F101" t="s">
         <v>104</v>
@@ -3137,16 +3146,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.8656001560747206</v>
+        <v>0.8636199580549186</v>
       </c>
       <c r="C102">
-        <v>0.7633857438076667</v>
+        <v>0.7552182452145448</v>
       </c>
       <c r="D102">
-        <v>0.7023640082414691</v>
+        <v>0.7080456058924428</v>
       </c>
       <c r="E102">
-        <v>0.7302361624661765</v>
+        <v>0.7303561082606282</v>
       </c>
       <c r="F102" t="s">
         <v>105</v>
@@ -3157,16 +3166,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.8319904404233526</v>
+        <v>0.828073940398966</v>
       </c>
       <c r="C103">
-        <v>0.7798707247081257</v>
+        <v>0.7550854993160054</v>
       </c>
       <c r="D103">
-        <v>0.4990213806385603</v>
+        <v>0.5151972789115646</v>
       </c>
       <c r="E103">
-        <v>0.607355007341597</v>
+        <v>0.6095021164929787</v>
       </c>
       <c r="F103" t="s">
         <v>106</v>
@@ -3177,16 +3186,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.8458810905721114</v>
+        <v>0.845837194556894</v>
       </c>
       <c r="C104">
-        <v>0.7875069379788943</v>
+        <v>0.7988661486099815</v>
       </c>
       <c r="D104">
-        <v>0.5603947963477116</v>
+        <v>0.5564567238691228</v>
       </c>
       <c r="E104">
-        <v>0.6530564534561009</v>
+        <v>0.6522841923417229</v>
       </c>
       <c r="F104" t="s">
         <v>107</v>
@@ -3197,16 +3206,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.8429059162073843</v>
+        <v>0.8419109398624591</v>
       </c>
       <c r="C105">
-        <v>0.7763073942329283</v>
+        <v>0.7819745349270382</v>
       </c>
       <c r="D105">
-        <v>0.563275605267836</v>
+        <v>0.5480711636372014</v>
       </c>
       <c r="E105">
-        <v>0.6512471314976935</v>
+        <v>0.6425192769862793</v>
       </c>
       <c r="F105" t="s">
         <v>108</v>
@@ -3217,16 +3226,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.8408915768424133</v>
+        <v>0.8350095108032971</v>
       </c>
       <c r="C106">
-        <v>0.7801327838827838</v>
+        <v>0.7804295540821777</v>
       </c>
       <c r="D106">
-        <v>0.5422277877161599</v>
+        <v>0.5284653930312226</v>
       </c>
       <c r="E106">
-        <v>0.6383945031003855</v>
+        <v>0.6231233837018685</v>
       </c>
       <c r="F106" t="s">
         <v>109</v>
@@ -3237,16 +3246,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.741154952933717</v>
+        <v>0.7401550992537679</v>
       </c>
       <c r="C107">
-        <v>0.5729166666666666</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="D107">
-        <v>0.03125370846873325</v>
+        <v>0.02249860102429352</v>
       </c>
       <c r="E107">
-        <v>0.06990212516528306</v>
+        <v>0.04295713436889908</v>
       </c>
       <c r="F107" t="s">
         <v>110</v>
@@ -3257,16 +3266,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.8428766521972394</v>
+        <v>0.8409354728576306</v>
       </c>
       <c r="C108">
-        <v>0.7500798434073696</v>
+        <v>0.7573101742458788</v>
       </c>
       <c r="D108">
-        <v>0.5960192273630763</v>
+        <v>0.5884297269508145</v>
       </c>
       <c r="E108">
-        <v>0.6611831913404946</v>
+        <v>0.6577215047806086</v>
       </c>
       <c r="F108" t="s">
         <v>111</v>
@@ -3277,16 +3286,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.851772911281276</v>
+        <v>0.8517680339462517</v>
       </c>
       <c r="C109">
-        <v>0.7437350500255218</v>
+        <v>0.7488239004288957</v>
       </c>
       <c r="D109">
-        <v>0.6575521227537298</v>
+        <v>0.6509560719881928</v>
       </c>
       <c r="E109">
-        <v>0.6951906003762689</v>
+        <v>0.6942855949725788</v>
       </c>
       <c r="F109" t="s">
         <v>112</v>
@@ -3297,16 +3306,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.839925864507633</v>
+        <v>0.8359410817929083</v>
       </c>
       <c r="C110">
-        <v>0.7287588652482269</v>
+        <v>0.7238206754485824</v>
       </c>
       <c r="D110">
-        <v>0.611873232432764</v>
+        <v>0.6057066480731021</v>
       </c>
       <c r="E110">
-        <v>0.6651442036772026</v>
+        <v>0.6546656293140998</v>
       </c>
       <c r="F110" t="s">
         <v>113</v>
@@ -3317,16 +3326,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.850821830951568</v>
+        <v>0.8507681802663024</v>
       </c>
       <c r="C111">
-        <v>0.7254269080356037</v>
+        <v>0.7432305213043332</v>
       </c>
       <c r="D111">
-        <v>0.6878829858162898</v>
+        <v>0.6607137042851329</v>
       </c>
       <c r="E111">
-        <v>0.7040142325523687</v>
+        <v>0.6972881521072637</v>
       </c>
       <c r="F111" t="s">
         <v>114</v>
@@ -3337,16 +3346,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.8577476466858508</v>
+        <v>0.8468516802419158</v>
       </c>
       <c r="C112">
-        <v>0.7614977929871548</v>
+        <v>0.7258238500707812</v>
       </c>
       <c r="D112">
-        <v>0.6664114887703519</v>
+        <v>0.6520262145262146</v>
       </c>
       <c r="E112">
-        <v>0.7078131131265372</v>
+        <v>0.6855134528241859</v>
       </c>
       <c r="F112" t="s">
         <v>115</v>
@@ -3357,16 +3366,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.8369360581378334</v>
+        <v>0.8350046334682728</v>
       </c>
       <c r="C113">
-        <v>0.7680322943130741</v>
+        <v>0.7613179599460087</v>
       </c>
       <c r="D113">
-        <v>0.5343997906855049</v>
+        <v>0.5310552061495458</v>
       </c>
       <c r="E113">
-        <v>0.6297139801503604</v>
+        <v>0.6240819837867718</v>
       </c>
       <c r="F113" t="s">
         <v>116</v>
@@ -3377,16 +3386,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.8418963078573867</v>
+        <v>0.8458274398868457</v>
       </c>
       <c r="C114">
-        <v>0.7778908810487758</v>
+        <v>0.793453765227021</v>
       </c>
       <c r="D114">
-        <v>0.5522738664843928</v>
+        <v>0.5517345399698341</v>
       </c>
       <c r="E114">
-        <v>0.6448276329058013</v>
+        <v>0.6489182931043398</v>
       </c>
       <c r="F114" t="s">
         <v>117</v>
@@ -3397,16 +3406,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.8448861142271863</v>
+        <v>0.8428668975271911</v>
       </c>
       <c r="C115">
-        <v>0.7709730848861284</v>
+        <v>0.7533249528598366</v>
       </c>
       <c r="D115">
-        <v>0.5883931937540002</v>
+        <v>0.5916984975808505</v>
       </c>
       <c r="E115">
-        <v>0.6612093849218219</v>
+        <v>0.6609471516815374</v>
       </c>
       <c r="F115" t="s">
         <v>118</v>
@@ -3417,16 +3426,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.8240306296639515</v>
+        <v>0.8201629029898065</v>
       </c>
       <c r="C116">
-        <v>0.7193243243243244</v>
+        <v>0.7200433880399926</v>
       </c>
       <c r="D116">
-        <v>0.5253236567354215</v>
+        <v>0.5175344682335564</v>
       </c>
       <c r="E116">
-        <v>0.6053528935225951</v>
+        <v>0.5961622027543243</v>
       </c>
       <c r="F116" t="s">
         <v>119</v>
@@ -3437,16 +3446,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.8182217236501975</v>
+        <v>0.8161781202750816</v>
       </c>
       <c r="C117">
-        <v>0.7210659000442281</v>
+        <v>0.7163827845872437</v>
       </c>
       <c r="D117">
-        <v>0.4958349468990201</v>
+        <v>0.4850570518805813</v>
       </c>
       <c r="E117">
-        <v>0.5837332061894936</v>
+        <v>0.5771976247695515</v>
       </c>
       <c r="F117" t="s">
         <v>120</v>
@@ -3457,16 +3466,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.8251085207042872</v>
+        <v>0.8339511291030581</v>
       </c>
       <c r="C118">
-        <v>0.7079645144205307</v>
+        <v>0.7260885341074019</v>
       </c>
       <c r="D118">
-        <v>0.5545130700501544</v>
+        <v>0.5899989658791837</v>
       </c>
       <c r="E118">
-        <v>0.6216895333349836</v>
+        <v>0.6471140593983903</v>
       </c>
       <c r="F118" t="s">
         <v>121</v>
@@ -3477,16 +3486,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.850782812271375</v>
+        <v>0.8487928595815246</v>
       </c>
       <c r="C119">
-        <v>0.7521937141449336</v>
+        <v>0.7433602848220789</v>
       </c>
       <c r="D119">
-        <v>0.638738174515089</v>
+        <v>0.6436417972691335</v>
       </c>
       <c r="E119">
-        <v>0.6893731574293651</v>
+        <v>0.6871835054187996</v>
       </c>
       <c r="F119" t="s">
         <v>122</v>
@@ -3497,16 +3506,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.8527483782861044</v>
+        <v>0.8547724723211237</v>
       </c>
       <c r="C120">
-        <v>0.7496417797888386</v>
+        <v>0.7411841897888929</v>
       </c>
       <c r="D120">
-        <v>0.6527971323941902</v>
+        <v>0.6639072370295274</v>
       </c>
       <c r="E120">
-        <v>0.6947944701513599</v>
+        <v>0.7000212846089729</v>
       </c>
       <c r="F120" t="s">
         <v>123</v>
@@ -3517,16 +3526,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.856762425010974</v>
+        <v>0.8528117836414182</v>
       </c>
       <c r="C121">
-        <v>0.7470090669008982</v>
+        <v>0.7502254861961105</v>
       </c>
       <c r="D121">
-        <v>0.6874402497331574</v>
+        <v>0.6544532237236317</v>
       </c>
       <c r="E121">
-        <v>0.7125989621539963</v>
+        <v>0.6974725936448136</v>
       </c>
       <c r="F121" t="s">
         <v>124</v>
@@ -3537,16 +3546,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.8557284299858556</v>
+        <v>0.851738769936107</v>
       </c>
       <c r="C122">
-        <v>0.7683375505699639</v>
+        <v>0.7570736883827944</v>
       </c>
       <c r="D122">
-        <v>0.6448464656560609</v>
+        <v>0.631471777853356</v>
       </c>
       <c r="E122">
-        <v>0.6983112490183114</v>
+        <v>0.6873945919937616</v>
       </c>
       <c r="F122" t="s">
         <v>125</v>
@@ -3557,16 +3566,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.852797151636346</v>
+        <v>0.8468029068916744</v>
       </c>
       <c r="C123">
-        <v>0.7606423681943878</v>
+        <v>0.7367328326679509</v>
       </c>
       <c r="D123">
-        <v>0.6353800140745954</v>
+        <v>0.6425461471256479</v>
       </c>
       <c r="E123">
-        <v>0.6907667851745757</v>
+        <v>0.6827819709963885</v>
       </c>
       <c r="F123" t="s">
         <v>126</v>
@@ -3577,16 +3586,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8596790713554114</v>
+        <v>0.8557820806711213</v>
       </c>
       <c r="C124">
-        <v>0.7549023491508853</v>
+        <v>0.7576876701270565</v>
       </c>
       <c r="D124">
-        <v>0.6835899036896046</v>
+        <v>0.6751554638080062</v>
       </c>
       <c r="E124">
-        <v>0.7157323632573203</v>
+        <v>0.7111951831086335</v>
       </c>
       <c r="F124" t="s">
         <v>127</v>
@@ -3597,16 +3606,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.8349607374530557</v>
+        <v>0.8379554211578792</v>
       </c>
       <c r="C125">
-        <v>0.7745424836601307</v>
+        <v>0.7729810167310166</v>
       </c>
       <c r="D125">
-        <v>0.5157036418429172</v>
+        <v>0.5316863433004229</v>
       </c>
       <c r="E125">
-        <v>0.6172746311505789</v>
+        <v>0.6288389351512275</v>
       </c>
       <c r="F125" t="s">
         <v>128</v>
@@ -3617,16 +3626,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.8251182753743354</v>
+        <v>0.8320148270984735</v>
       </c>
       <c r="C126">
-        <v>0.7448150561053788</v>
+        <v>0.771827759713827</v>
       </c>
       <c r="D126">
-        <v>0.5052534287418009</v>
+        <v>0.5214262546337356</v>
       </c>
       <c r="E126">
-        <v>0.5986391168188858</v>
+        <v>0.6160648505351455</v>
       </c>
       <c r="F126" t="s">
         <v>129</v>
@@ -3637,16 +3646,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.8468663122469883</v>
+        <v>0.8458664585670389</v>
       </c>
       <c r="C127">
-        <v>0.7868220015278838</v>
+        <v>0.7882651515151515</v>
       </c>
       <c r="D127">
-        <v>0.5590901324071458</v>
+        <v>0.5568791441104743</v>
       </c>
       <c r="E127">
-        <v>0.6514895956756421</v>
+        <v>0.6488341925599628</v>
       </c>
       <c r="F127" t="s">
         <v>130</v>
@@ -3657,16 +3666,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.8340047797883237</v>
+        <v>0.8280788177339901</v>
       </c>
       <c r="C128">
-        <v>0.7794943340553097</v>
+        <v>0.7457879547353231</v>
       </c>
       <c r="D128">
-        <v>0.5173922782198644</v>
+        <v>0.5191643445953791</v>
       </c>
       <c r="E128">
-        <v>0.6155549748860436</v>
+        <v>0.6088304862276324</v>
       </c>
       <c r="F128" t="s">
         <v>131</v>
@@ -3677,16 +3686,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.8438667512071405</v>
+        <v>0.8517534019411792</v>
       </c>
       <c r="C129">
-        <v>0.7233366185603348</v>
+        <v>0.739939078012721</v>
       </c>
       <c r="D129">
-        <v>0.6564426838011744</v>
+        <v>0.6666701383722661</v>
       </c>
       <c r="E129">
-        <v>0.6841058770698464</v>
+        <v>0.6979481909309688</v>
       </c>
       <c r="F129" t="s">
         <v>132</v>
@@ -3697,16 +3706,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.8448909915622103</v>
+        <v>0.8419158171974832</v>
       </c>
       <c r="C130">
-        <v>0.7396744186046511</v>
+        <v>0.7375646666344341</v>
       </c>
       <c r="D130">
-        <v>0.621918705422195</v>
+        <v>0.6212065409601804</v>
       </c>
       <c r="E130">
-        <v>0.6739355849921231</v>
+        <v>0.6702327240162147</v>
       </c>
       <c r="F130" t="s">
         <v>133</v>
@@ -3717,16 +3726,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.8507779349363508</v>
+        <v>0.8636492220650636</v>
       </c>
       <c r="C131">
-        <v>0.7359769462148462</v>
+        <v>0.7713030303030303</v>
       </c>
       <c r="D131">
-        <v>0.6776008040972257</v>
+        <v>0.6757309941520468</v>
       </c>
       <c r="E131">
-        <v>0.6996089053762204</v>
+        <v>0.7184716753522229</v>
       </c>
       <c r="F131" t="s">
         <v>134</v>
@@ -3737,16 +3746,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.8508315856216162</v>
+        <v>0.8537726186411744</v>
       </c>
       <c r="C132">
-        <v>0.7385741510741511</v>
+        <v>0.7309101253822529</v>
       </c>
       <c r="D132">
-        <v>0.6616470588235295</v>
+        <v>0.6865909394140981</v>
       </c>
       <c r="E132">
-        <v>0.6956870223299083</v>
+        <v>0.7070749100388107</v>
       </c>
       <c r="F132" t="s">
         <v>135</v>
@@ -3757,16 +3766,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.8369263034677852</v>
+        <v>0.8359849778081256</v>
       </c>
       <c r="C133">
-        <v>0.7706904125286479</v>
+        <v>0.7675585284280937</v>
       </c>
       <c r="D133">
-        <v>0.5216043956043956</v>
+        <v>0.5229045318261054</v>
       </c>
       <c r="E133">
-        <v>0.6210406504065041</v>
+        <v>0.6180703354616398</v>
       </c>
       <c r="F133" t="s">
         <v>136</v>
@@ -3777,16 +3786,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.8369409354728576</v>
+        <v>0.8488562649368385</v>
       </c>
       <c r="C134">
-        <v>0.764955235726648</v>
+        <v>0.8022700416946433</v>
       </c>
       <c r="D134">
-        <v>0.5411327561327562</v>
+        <v>0.5678432642075339</v>
       </c>
       <c r="E134">
-        <v>0.6315244755244754</v>
+        <v>0.6603390576268554</v>
       </c>
       <c r="F134" t="s">
         <v>137</v>
@@ -3797,16 +3806,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.842896161537336</v>
+        <v>0.8448568502170414</v>
       </c>
       <c r="C135">
-        <v>0.7567136394445233</v>
+        <v>0.7662589437239151</v>
       </c>
       <c r="D135">
-        <v>0.5781216931216931</v>
+        <v>0.5864974937343359</v>
       </c>
       <c r="E135">
-        <v>0.6532750358529504</v>
+        <v>0.6626775077962324</v>
       </c>
       <c r="F135" t="s">
         <v>138</v>
@@ -3817,16 +3826,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.8201385163146856</v>
+        <v>0.8241330536994586</v>
       </c>
       <c r="C136">
-        <v>0.7054560706585415</v>
+        <v>0.7225676460432557</v>
       </c>
       <c r="D136">
-        <v>0.5143566745344873</v>
+        <v>0.5167956086059535</v>
       </c>
       <c r="E136">
-        <v>0.5917318589003474</v>
+        <v>0.6000588852134822</v>
       </c>
       <c r="F136" t="s">
         <v>139</v>
@@ -3837,16 +3846,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.8161634882700092</v>
+        <v>0.8092766912159197</v>
       </c>
       <c r="C137">
-        <v>0.7167139392503629</v>
+        <v>0.6837125093940015</v>
       </c>
       <c r="D137">
-        <v>0.4788336720382402</v>
+        <v>0.4845285435811751</v>
       </c>
       <c r="E137">
-        <v>0.5728119166347014</v>
+        <v>0.5659901704456161</v>
       </c>
       <c r="F137" t="s">
         <v>140</v>
@@ -3857,16 +3866,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.8369994634931472</v>
+        <v>0.832039213773594</v>
       </c>
       <c r="C138">
-        <v>0.7513758522179576</v>
+        <v>0.7186617707058343</v>
       </c>
       <c r="D138">
-        <v>0.5758999497600455</v>
+        <v>0.5714931702571794</v>
       </c>
       <c r="E138">
-        <v>0.6479397724148519</v>
+        <v>0.636647877250577</v>
       </c>
       <c r="F138" t="s">
         <v>141</v>
@@ -3877,16 +3886,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.8527288689460079</v>
+        <v>0.848870896941911</v>
       </c>
       <c r="C139">
-        <v>0.7581263616557734</v>
+        <v>0.7595471220331242</v>
       </c>
       <c r="D139">
-        <v>0.6387642929335563</v>
+        <v>0.6294520533580308</v>
       </c>
       <c r="E139">
-        <v>0.6904727024663024</v>
+        <v>0.6837316381357267</v>
       </c>
       <c r="F139" t="s">
         <v>142</v>
@@ -3897,16 +3906,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.8458274398868457</v>
+        <v>0.8528117836414182</v>
       </c>
       <c r="C140">
-        <v>0.7330668477149829</v>
+        <v>0.7446218853714111</v>
       </c>
       <c r="D140">
-        <v>0.6411389672040291</v>
+        <v>0.6727435372005044</v>
       </c>
       <c r="E140">
-        <v>0.6828949236288686</v>
+        <v>0.7045706353571521</v>
       </c>
       <c r="F140" t="s">
         <v>143</v>
@@ -3917,16 +3926,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.8596546846802907</v>
+        <v>0.858708481685607</v>
       </c>
       <c r="C141">
-        <v>0.7577015599996967</v>
+        <v>0.7555340981774437</v>
       </c>
       <c r="D141">
-        <v>0.6842355518045175</v>
+        <v>0.6767136572700482</v>
       </c>
       <c r="E141">
-        <v>0.7188153380134086</v>
+        <v>0.7121455985958602</v>
       </c>
       <c r="F141" t="s">
         <v>144</v>
@@ -3937,16 +3946,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.8468077842266984</v>
+        <v>0.8507925669414231</v>
       </c>
       <c r="C142">
-        <v>0.7466324903167009</v>
+        <v>0.7401004616194282</v>
       </c>
       <c r="D142">
-        <v>0.6296122140949727</v>
+        <v>0.6326843740640909</v>
       </c>
       <c r="E142">
-        <v>0.6788393379063385</v>
+        <v>0.6775445598633013</v>
       </c>
       <c r="F142" t="s">
         <v>145</v>
@@ -3957,16 +3966,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.8507876896063991</v>
+        <v>0.8478222699117202</v>
       </c>
       <c r="C143">
-        <v>0.7484638979712871</v>
+        <v>0.7415939886671594</v>
       </c>
       <c r="D143">
-        <v>0.6375378345315952</v>
+        <v>0.6340706709495776</v>
       </c>
       <c r="E143">
-        <v>0.6883221901222092</v>
+        <v>0.6825917088914031</v>
       </c>
       <c r="F143" t="s">
         <v>146</v>
@@ -3977,16 +3986,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.8655952787396967</v>
+        <v>0.8646003023947715</v>
       </c>
       <c r="C144">
-        <v>0.7658281751062719</v>
+        <v>0.7609380202723692</v>
       </c>
       <c r="D144">
-        <v>0.7022680614579928</v>
+        <v>0.7055238927167548</v>
       </c>
       <c r="E144">
-        <v>0.7297041303635586</v>
+        <v>0.7310716781547255</v>
       </c>
       <c r="F144" t="s">
         <v>147</v>
@@ -3997,16 +4006,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.835965468468029</v>
+        <v>0.8339755157781787</v>
       </c>
       <c r="C145">
-        <v>0.7776013513513513</v>
+        <v>0.7801354679802955</v>
       </c>
       <c r="D145">
-        <v>0.5189533663217873</v>
+        <v>0.5088853283558387</v>
       </c>
       <c r="E145">
-        <v>0.6218018036002551</v>
+        <v>0.6116052768108985</v>
       </c>
       <c r="F145" t="s">
         <v>148</v>
@@ -4017,16 +4026,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.8301224211091061</v>
+        <v>0.827049700043896</v>
       </c>
       <c r="C146">
-        <v>0.7500873531473287</v>
+        <v>0.7461858974358975</v>
       </c>
       <c r="D146">
-        <v>0.5264443193545361</v>
+        <v>0.5137012987012988</v>
       </c>
       <c r="E146">
-        <v>0.6172525101651315</v>
+        <v>0.6054423695678369</v>
       </c>
       <c r="F146" t="s">
         <v>149</v>
@@ -4037,16 +4046,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.8409744915378237</v>
+        <v>0.8379700531629519</v>
       </c>
       <c r="C147">
-        <v>0.7697686925797524</v>
+        <v>0.7735810113519092</v>
       </c>
       <c r="D147">
-        <v>0.5594529897449988</v>
+        <v>0.5442288286655186</v>
       </c>
       <c r="E147">
-        <v>0.6460462829207778</v>
+        <v>0.6369464721730191</v>
       </c>
       <c r="F147" t="s">
         <v>150</v>
@@ -4057,16 +4066,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.8300443837487197</v>
+        <v>0.8300687704238404</v>
       </c>
       <c r="C148">
-        <v>0.7456517466273563</v>
+        <v>0.7419130490333605</v>
       </c>
       <c r="D148">
-        <v>0.5265306122448979</v>
+        <v>0.524373362248125</v>
       </c>
       <c r="E148">
-        <v>0.6157570556270735</v>
+        <v>0.6125107296925003</v>
       </c>
       <c r="F148" t="s">
         <v>151</v>
@@ -4077,16 +4086,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.8389601521728528</v>
+        <v>0.8428766521972394</v>
       </c>
       <c r="C149">
-        <v>0.7318565543212527</v>
+        <v>0.7346973059327249</v>
       </c>
       <c r="D149">
-        <v>0.6044891774891775</v>
+        <v>0.6220442592131192</v>
       </c>
       <c r="E149">
-        <v>0.6559605169532194</v>
+        <v>0.6701484586074893</v>
       </c>
       <c r="F149" t="s">
         <v>152</v>
@@ -4097,16 +4106,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.8448227088718724</v>
+        <v>0.8576988733356095</v>
       </c>
       <c r="C150">
-        <v>0.7217767777646198</v>
+        <v>0.7478023852991862</v>
       </c>
       <c r="D150">
-        <v>0.663758688513183</v>
+        <v>0.6879807212354382</v>
       </c>
       <c r="E150">
-        <v>0.6859194939790688</v>
+        <v>0.7154328982455486</v>
       </c>
       <c r="F150" t="s">
         <v>153</v>
@@ -4117,16 +4126,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.8498219772716187</v>
+        <v>0.8507633029312783</v>
       </c>
       <c r="C151">
-        <v>0.7324077042897655</v>
+        <v>0.7371452255950736</v>
       </c>
       <c r="D151">
-        <v>0.6766047471620228</v>
+        <v>0.6604229368515082</v>
       </c>
       <c r="E151">
-        <v>0.6955467594153804</v>
+        <v>0.6960427515823115</v>
       </c>
       <c r="F151" t="s">
         <v>154</v>
@@ -4137,16 +4146,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.8478466565868409</v>
+        <v>0.8507633029312783</v>
       </c>
       <c r="C152">
-        <v>0.7495480783406481</v>
+        <v>0.7576401478003308</v>
       </c>
       <c r="D152">
-        <v>0.6275445651614877</v>
+        <v>0.6258551403812097</v>
       </c>
       <c r="E152">
-        <v>0.6805022204510703</v>
+        <v>0.6838841353381545</v>
       </c>
       <c r="F152" t="s">
         <v>155</v>
@@ -4157,16 +4166,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.8369458128078817</v>
+        <v>0.835960591133005</v>
       </c>
       <c r="C153">
-        <v>0.7300264948084496</v>
+        <v>0.7281524547803617</v>
       </c>
       <c r="D153">
-        <v>0.6117453335810101</v>
+        <v>0.6073420912541</v>
       </c>
       <c r="E153">
-        <v>0.6602654315489446</v>
+        <v>0.6552504805136385</v>
       </c>
       <c r="F153" t="s">
         <v>156</v>
@@ -4177,16 +4186,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.8517972979563966</v>
+        <v>0.8596888260254596</v>
       </c>
       <c r="C154">
-        <v>0.7356469002695418</v>
+        <v>0.7527208927749655</v>
       </c>
       <c r="D154">
-        <v>0.6869374597034172</v>
+        <v>0.693379499061658</v>
       </c>
       <c r="E154">
-        <v>0.7076012706848472</v>
+        <v>0.7191426857771989</v>
       </c>
       <c r="F154" t="s">
         <v>157</v>
@@ -4197,16 +4206,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.8379554211578792</v>
+        <v>0.8281032044091109</v>
       </c>
       <c r="C155">
-        <v>0.7792046115041737</v>
+        <v>0.7448611111111111</v>
       </c>
       <c r="D155">
-        <v>0.5467925343585238</v>
+        <v>0.5288845655203626</v>
       </c>
       <c r="E155">
-        <v>0.635872091576459</v>
+        <v>0.6148128185843916</v>
       </c>
       <c r="F155" t="s">
         <v>158</v>
@@ -4217,16 +4226,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.8300492610837438</v>
+        <v>0.8369653221479784</v>
       </c>
       <c r="C156">
-        <v>0.7225916636554934</v>
+        <v>0.7459953491800637</v>
       </c>
       <c r="D156">
-        <v>0.5681072778497862</v>
+        <v>0.5604708199069102</v>
       </c>
       <c r="E156">
-        <v>0.6336523796121319</v>
+        <v>0.6391929918242873</v>
       </c>
       <c r="F156" t="s">
         <v>159</v>
@@ -4237,16 +4246,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.8488270009266936</v>
+        <v>0.8468809442520607</v>
       </c>
       <c r="C157">
-        <v>0.7394320782576597</v>
+        <v>0.7477338736913205</v>
       </c>
       <c r="D157">
-        <v>0.6453341384863125</v>
+        <v>0.6230961973287339</v>
       </c>
       <c r="E157">
-        <v>0.6881080726605023</v>
+        <v>0.678973374495687</v>
       </c>
       <c r="F157" t="s">
         <v>160</v>
@@ -4257,16 +4266,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.8250597473540457</v>
+        <v>0.8300687704238404</v>
       </c>
       <c r="C158">
-        <v>0.7081118881118881</v>
+        <v>0.7343816019739873</v>
       </c>
       <c r="D158">
-        <v>0.5564783591810653</v>
+        <v>0.5449289117591004</v>
       </c>
       <c r="E158">
-        <v>0.6159425481106897</v>
+        <v>0.6244006054895936</v>
       </c>
       <c r="F158" t="s">
         <v>161</v>
@@ -4277,16 +4286,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.8448080768667999</v>
+        <v>0.8487928595815246</v>
       </c>
       <c r="C159">
-        <v>0.7322832028722013</v>
+        <v>0.7446855775803144</v>
       </c>
       <c r="D159">
-        <v>0.6530058968685195</v>
+        <v>0.6244014152501663</v>
       </c>
       <c r="E159">
-        <v>0.6840489494218792</v>
+        <v>0.6787099408659472</v>
       </c>
       <c r="F159" t="s">
         <v>162</v>
@@ -4297,16 +4306,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.8488318782617178</v>
+        <v>0.8497780812564015</v>
       </c>
       <c r="C160">
-        <v>0.7370329527763364</v>
+        <v>0.7431761325219742</v>
       </c>
       <c r="D160">
-        <v>0.6563518518518519</v>
+        <v>0.6633297909609874</v>
       </c>
       <c r="E160">
-        <v>0.6915479061318043</v>
+        <v>0.6948090552698849</v>
       </c>
       <c r="F160" t="s">
         <v>163</v>
@@ -4317,16 +4326,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.8577135053406819</v>
+        <v>0.8556942886406868</v>
       </c>
       <c r="C161">
-        <v>0.752014652014652</v>
+        <v>0.729472049689441</v>
       </c>
       <c r="D161">
-        <v>0.6833737875028197</v>
+        <v>0.7073459891656613</v>
       </c>
       <c r="E161">
-        <v>0.7121498409157714</v>
+        <v>0.7128198033790925</v>
       </c>
       <c r="F161" t="s">
         <v>164</v>
@@ -4337,16 +4346,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.8458567038969906</v>
+        <v>0.8507486709262059</v>
       </c>
       <c r="C162">
-        <v>0.7355247098839536</v>
+        <v>0.7499170572386323</v>
       </c>
       <c r="D162">
-        <v>0.6145736814142746</v>
+        <v>0.6531020799124247</v>
       </c>
       <c r="E162">
-        <v>0.6687389374042739</v>
+        <v>0.6936765649252237</v>
       </c>
       <c r="F162" t="s">
         <v>165</v>
@@ -4357,16 +4366,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.8350241428083696</v>
+        <v>0.8289860020484806</v>
       </c>
       <c r="C163">
-        <v>0.7632311237149947</v>
+        <v>0.7377285384523249</v>
       </c>
       <c r="D163">
-        <v>0.522808124193306</v>
+        <v>0.5414811066126856</v>
       </c>
       <c r="E163">
-        <v>0.6200791805214468</v>
+        <v>0.6235907859563773</v>
       </c>
       <c r="F163" t="s">
         <v>166</v>
@@ -4377,16 +4386,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.8537433546310297</v>
+        <v>0.8596839486904354</v>
       </c>
       <c r="C164">
-        <v>0.75117602731011</v>
+        <v>0.7635195355864954</v>
       </c>
       <c r="D164">
-        <v>0.6434774676153987</v>
+        <v>0.659531833246119</v>
       </c>
       <c r="E164">
-        <v>0.6928332155737443</v>
+        <v>0.7067710291060065</v>
       </c>
       <c r="F164" t="s">
         <v>167</v>
@@ -4397,16 +4406,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.8369750768180266</v>
+        <v>0.8448422182119689</v>
       </c>
       <c r="C165">
-        <v>0.71484335839599</v>
+        <v>0.7317808545653135</v>
       </c>
       <c r="D165">
-        <v>0.6197838612617224</v>
+        <v>0.6504125578376568</v>
       </c>
       <c r="E165">
-        <v>0.6593365799716355</v>
+        <v>0.6824328954882924</v>
       </c>
       <c r="F165" t="s">
         <v>168</v>
@@ -4417,16 +4426,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.8527581329561528</v>
+        <v>0.8556894113056626</v>
       </c>
       <c r="C166">
-        <v>0.7524688349498947</v>
+        <v>0.7528843124711967</v>
       </c>
       <c r="D166">
-        <v>0.6580584048592047</v>
+        <v>0.6703626481332977</v>
       </c>
       <c r="E166">
-        <v>0.6969466551937714</v>
+        <v>0.7079617207126599</v>
       </c>
       <c r="F166" t="s">
         <v>169</v>
@@ -4437,16 +4446,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.855772326001073</v>
+        <v>0.8487928595815248</v>
       </c>
       <c r="C167">
-        <v>0.7477401203447716</v>
+        <v>0.7332523284079425</v>
       </c>
       <c r="D167">
-        <v>0.6781019746536988</v>
+        <v>0.6632772967772966</v>
       </c>
       <c r="E167">
-        <v>0.7100212114673063</v>
+        <v>0.6945000315122336</v>
       </c>
       <c r="F167" t="s">
         <v>170</v>
@@ -4457,16 +4466,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.8369555674779301</v>
+        <v>0.8389308881627079</v>
       </c>
       <c r="C168">
-        <v>0.7731429525187175</v>
+        <v>0.782121359805736</v>
       </c>
       <c r="D168">
-        <v>0.527131900616445</v>
+        <v>0.5322214993132364</v>
       </c>
       <c r="E168">
-        <v>0.6244306867962781</v>
+        <v>0.6321088046202462</v>
       </c>
       <c r="F168" t="s">
         <v>171</v>
@@ -4477,16 +4486,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.849792713261474</v>
+        <v>0.8438862605472369</v>
       </c>
       <c r="C169">
-        <v>0.8120163022473947</v>
+        <v>0.7869867632367632</v>
       </c>
       <c r="D169">
-        <v>0.5526039637273026</v>
+        <v>0.5422527289925096</v>
       </c>
       <c r="E169">
-        <v>0.6522661161468366</v>
+        <v>0.6415218281409272</v>
       </c>
       <c r="F169" t="s">
         <v>172</v>
@@ -4497,16 +4506,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.8458225625518218</v>
+        <v>0.8537140906208848</v>
       </c>
       <c r="C170">
-        <v>0.7765071083865919</v>
+        <v>0.7910170699485468</v>
       </c>
       <c r="D170">
-        <v>0.5710130718954248</v>
+        <v>0.6003897220878354</v>
       </c>
       <c r="E170">
-        <v>0.6543117501567299</v>
+        <v>0.6776767676767677</v>
       </c>
       <c r="F170" t="s">
         <v>173</v>
@@ -4517,16 +4526,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.820182412329903</v>
+        <v>0.8271082280641858</v>
       </c>
       <c r="C171">
-        <v>0.717737862495927</v>
+        <v>0.7332007000092107</v>
       </c>
       <c r="D171">
-        <v>0.4925947320457419</v>
+        <v>0.5544244535951852</v>
       </c>
       <c r="E171">
-        <v>0.5820688697691849</v>
+        <v>0.6255160576001748</v>
       </c>
       <c r="F171" t="s">
         <v>174</v>
@@ -4537,16 +4546,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.8152124079403015</v>
+        <v>0.8132517192605959</v>
       </c>
       <c r="C172">
-        <v>0.7161972498814604</v>
+        <v>0.7133244032669159</v>
       </c>
       <c r="D172">
-        <v>0.4776848132710202</v>
+        <v>0.4809886480908152</v>
       </c>
       <c r="E172">
-        <v>0.5726257076257076</v>
+        <v>0.5699086038944594</v>
       </c>
       <c r="F172" t="s">
         <v>175</v>
@@ -4557,16 +4566,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.8379749304979759</v>
+        <v>0.8360337511583671</v>
       </c>
       <c r="C173">
-        <v>0.7444883240420345</v>
+        <v>0.7334009090615912</v>
       </c>
       <c r="D173">
-        <v>0.5777797079415132</v>
+        <v>0.5803771043771044</v>
       </c>
       <c r="E173">
-        <v>0.6496048578348133</v>
+        <v>0.64715770609319</v>
       </c>
       <c r="F173" t="s">
         <v>176</v>
@@ -4577,16 +4586,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.8378822611325172</v>
+        <v>0.858742623030776</v>
       </c>
       <c r="C174">
-        <v>0.7338053199755328</v>
+        <v>0.7623727844482562</v>
       </c>
       <c r="D174">
-        <v>0.6109418189127036</v>
+        <v>0.663734423156072</v>
       </c>
       <c r="E174">
-        <v>0.6603186019513263</v>
+        <v>0.7065341330948579</v>
       </c>
       <c r="F174" t="s">
         <v>177</v>
@@ -4597,16 +4606,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.8567331610008292</v>
+        <v>0.8606789250353607</v>
       </c>
       <c r="C175">
-        <v>0.7451677759094983</v>
+        <v>0.7637685830192569</v>
       </c>
       <c r="D175">
-        <v>0.6738548457192526</v>
+        <v>0.672386906850526</v>
       </c>
       <c r="E175">
-        <v>0.7032656957957049</v>
+        <v>0.7139815042661857</v>
       </c>
       <c r="F175" t="s">
         <v>178</v>
@@ -4617,16 +4626,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.8626249817099936</v>
+        <v>0.8675803540945226</v>
       </c>
       <c r="C176">
-        <v>0.761288368361539</v>
+        <v>0.7689765672640607</v>
       </c>
       <c r="D176">
-        <v>0.6856841822861045</v>
+        <v>0.7044710163131216</v>
       </c>
       <c r="E176">
-        <v>0.7209879407647779</v>
+        <v>0.7334727071569177</v>
       </c>
       <c r="F176" t="s">
         <v>179</v>
@@ -4637,16 +4646,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.8557381846559039</v>
+        <v>0.8508120762815198</v>
       </c>
       <c r="C177">
-        <v>0.7620085470085469</v>
+        <v>0.764277512334713</v>
       </c>
       <c r="D177">
-        <v>0.6494984198504333</v>
+        <v>0.6326428123038292</v>
       </c>
       <c r="E177">
-        <v>0.6979878749211713</v>
+        <v>0.6855525667669881</v>
       </c>
       <c r="F177" t="s">
         <v>180</v>
@@ -4657,16 +4666,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.8567136516607325</v>
+        <v>0.8468468029068916</v>
       </c>
       <c r="C178">
-        <v>0.7579819786383905</v>
+        <v>0.7283165197450912</v>
       </c>
       <c r="D178">
-        <v>0.6563145857783395</v>
+        <v>0.6466502525252525</v>
       </c>
       <c r="E178">
-        <v>0.7015885302815995</v>
+        <v>0.6843890870879239</v>
       </c>
       <c r="F178" t="s">
         <v>181</v>
@@ -4677,16 +4686,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.8606984343754572</v>
+        <v>0.8577330146807783</v>
       </c>
       <c r="C179">
-        <v>0.7563134593506724</v>
+        <v>0.754674835692063</v>
       </c>
       <c r="D179">
-        <v>0.6938318265905169</v>
+        <v>0.6892634827153723</v>
       </c>
       <c r="E179">
-        <v>0.7222313926512306</v>
+        <v>0.7119435994101636</v>
       </c>
       <c r="F179" t="s">
         <v>182</v>
@@ -4697,16 +4706,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.8399112325025605</v>
+        <v>0.8280593083938935</v>
       </c>
       <c r="C180">
-        <v>0.7769427917620136</v>
+        <v>0.7505869801690235</v>
       </c>
       <c r="D180">
-        <v>0.5305239288697935</v>
+        <v>0.5105083853946657</v>
       </c>
       <c r="E180">
-        <v>0.6281479706503255</v>
+        <v>0.6029363879089205</v>
       </c>
       <c r="F180" t="s">
         <v>183</v>
@@ -4717,16 +4726,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.8300736477588645</v>
+        <v>0.8240696483441446</v>
       </c>
       <c r="C181">
-        <v>0.7494101731601732</v>
+        <v>0.7372081605762821</v>
       </c>
       <c r="D181">
-        <v>0.5180955140676961</v>
+        <v>0.5118479357858133</v>
       </c>
       <c r="E181">
-        <v>0.6114474278349438</v>
+        <v>0.5990771839601463</v>
       </c>
       <c r="F181" t="s">
         <v>184</v>
@@ -4737,16 +4746,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.8487733502414281</v>
+        <v>0.8507925669414231</v>
       </c>
       <c r="C182">
-        <v>0.7974632611304937</v>
+        <v>0.7953072976931772</v>
       </c>
       <c r="D182">
-        <v>0.5617049513953538</v>
+        <v>0.5633258053558805</v>
       </c>
       <c r="E182">
-        <v>0.6576551224135636</v>
+        <v>0.6571438307394974</v>
       </c>
       <c r="F182" t="s">
         <v>185</v>
@@ -4757,16 +4766,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.837945666487831</v>
+        <v>0.8320928644588597</v>
       </c>
       <c r="C183">
-        <v>0.7780172413793103</v>
+        <v>0.7435375735375735</v>
       </c>
       <c r="D183">
-        <v>0.5416189137738774</v>
+        <v>0.5350250530211493</v>
       </c>
       <c r="E183">
-        <v>0.6337564985204703</v>
+        <v>0.6188213124080051</v>
       </c>
       <c r="F183" t="s">
         <v>186</v>
@@ -4777,16 +4786,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.8429059162073843</v>
+        <v>0.8438960152172852</v>
       </c>
       <c r="C184">
-        <v>0.7490616487126881</v>
+        <v>0.7512148962148962</v>
       </c>
       <c r="D184">
-        <v>0.5948774028059456</v>
+        <v>0.630212726600074</v>
       </c>
       <c r="E184">
-        <v>0.6619851856965591</v>
+        <v>0.6708428731739875</v>
       </c>
       <c r="F184" t="s">
         <v>187</v>
@@ -4797,16 +4806,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.8557137979807832</v>
+        <v>0.8518021752914207</v>
       </c>
       <c r="C185">
-        <v>0.7631325234007934</v>
+        <v>0.7605920205920207</v>
       </c>
       <c r="D185">
-        <v>0.6599199428198953</v>
+        <v>0.6451272826552331</v>
       </c>
       <c r="E185">
-        <v>0.7045950574719099</v>
+        <v>0.6913588811568292</v>
       </c>
       <c r="F185" t="s">
         <v>188</v>
@@ -4817,16 +4826,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.8498268546066429</v>
+        <v>0.8507535482612301</v>
       </c>
       <c r="C186">
-        <v>0.7401618926618927</v>
+        <v>0.7418851096947898</v>
       </c>
       <c r="D186">
-        <v>0.6531707657421942</v>
+        <v>0.6514788487390983</v>
       </c>
       <c r="E186">
-        <v>0.6899484721928653</v>
+        <v>0.6922029616462027</v>
       </c>
       <c r="F186" t="s">
         <v>189</v>
@@ -4837,16 +4846,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.8459249865873287</v>
+        <v>0.8458469492269425</v>
       </c>
       <c r="C187">
-        <v>0.7490059214661418</v>
+        <v>0.7477435575109993</v>
       </c>
       <c r="D187">
-        <v>0.6296203814676573</v>
+        <v>0.6174641148325358</v>
       </c>
       <c r="E187">
-        <v>0.6767178624615745</v>
+        <v>0.673380566621211</v>
       </c>
       <c r="F187" t="s">
         <v>190</v>
@@ -4857,16 +4866,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.8438960152172852</v>
+        <v>0.843852119202068</v>
       </c>
       <c r="C188">
-        <v>0.7422563439270755</v>
+        <v>0.7445399459549795</v>
       </c>
       <c r="D188">
-        <v>0.612123743114267</v>
+        <v>0.6172070915426398</v>
       </c>
       <c r="E188">
-        <v>0.6684327455704413</v>
+        <v>0.6716005802530939</v>
       </c>
       <c r="F188" t="s">
         <v>191</v>
@@ -4877,16 +4886,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.8596010339950251</v>
+        <v>0.8577135053406819</v>
       </c>
       <c r="C189">
-        <v>0.7670189955553527</v>
+        <v>0.7604824706485837</v>
       </c>
       <c r="D189">
-        <v>0.6714413213561287</v>
+        <v>0.6669813809642747</v>
       </c>
       <c r="E189">
-        <v>0.713112481479502</v>
+        <v>0.7079161291325364</v>
       </c>
       <c r="F189" t="s">
         <v>192</v>
@@ -4897,16 +4906,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.8281373457542799</v>
+        <v>0.8290494074037944</v>
       </c>
       <c r="C190">
-        <v>0.7598590797480517</v>
+        <v>0.7598385903464456</v>
       </c>
       <c r="D190">
-        <v>0.5000649350649351</v>
+        <v>0.5071166926000237</v>
       </c>
       <c r="E190">
-        <v>0.6029371492321529</v>
+        <v>0.6017322949974382</v>
       </c>
       <c r="F190" t="s">
         <v>193</v>
@@ -4917,16 +4926,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.8408915768424132</v>
+        <v>0.8379407891528068</v>
       </c>
       <c r="C191">
-        <v>0.772861557429348</v>
+        <v>0.7635227775320654</v>
       </c>
       <c r="D191">
-        <v>0.5501194672353702</v>
+        <v>0.5538469447999975</v>
       </c>
       <c r="E191">
-        <v>0.6419415463370601</v>
+        <v>0.6375577994210608</v>
       </c>
       <c r="F191" t="s">
         <v>194</v>
@@ -4937,16 +4946,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.8448568502170414</v>
+        <v>0.8428766521972394</v>
       </c>
       <c r="C192">
-        <v>0.7685334471031814</v>
+        <v>0.7599043062200957</v>
       </c>
       <c r="D192">
-        <v>0.5805276627203051</v>
+        <v>0.5843129126258654</v>
       </c>
       <c r="E192">
-        <v>0.6568139476368338</v>
+        <v>0.6594808252830431</v>
       </c>
       <c r="F192" t="s">
         <v>195</v>
@@ -4957,16 +4966,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.8162171389552748</v>
+        <v>0.8241037896893137</v>
       </c>
       <c r="C193">
-        <v>0.6927717019822281</v>
+        <v>0.7250406976744187</v>
       </c>
       <c r="D193">
-        <v>0.515945726202418</v>
+        <v>0.5278365561614652</v>
       </c>
       <c r="E193">
-        <v>0.5905303523195521</v>
+        <v>0.603652260892839</v>
       </c>
       <c r="F193" t="s">
         <v>196</v>
@@ -4977,16 +4986,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.8439252792274301</v>
+        <v>0.843881383212213</v>
       </c>
       <c r="C194">
-        <v>0.7394576719576721</v>
+        <v>0.7359668788884657</v>
       </c>
       <c r="D194">
-        <v>0.6205960826342596</v>
+        <v>0.6286645190581146</v>
       </c>
       <c r="E194">
-        <v>0.6707747393236818</v>
+        <v>0.6752132893230864</v>
       </c>
       <c r="F194" t="s">
         <v>197</v>
@@ -4997,16 +5006,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.8547236989708823</v>
+        <v>0.8537287226259572</v>
       </c>
       <c r="C195">
-        <v>0.7596917070855569</v>
+        <v>0.7457423781891868</v>
       </c>
       <c r="D195">
-        <v>0.6416279235765781</v>
+        <v>0.6666500637727053</v>
       </c>
       <c r="E195">
-        <v>0.6946082152051758</v>
+        <v>0.70305156994236</v>
       </c>
       <c r="F195" t="s">
         <v>198</v>
@@ -5017,16 +5026,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.8577183826757059</v>
+        <v>0.862605472369897</v>
       </c>
       <c r="C196">
-        <v>0.7565475212511685</v>
+        <v>0.7607693370609596</v>
       </c>
       <c r="D196">
-        <v>0.6780305300803707</v>
+        <v>0.6973679505819732</v>
       </c>
       <c r="E196">
-        <v>0.7113553898931257</v>
+        <v>0.7236395534290271</v>
       </c>
       <c r="F196" t="s">
         <v>199</v>
@@ -5037,16 +5046,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.8488562649368385</v>
+        <v>0.8487879822465004</v>
       </c>
       <c r="C197">
-        <v>0.7470414197483387</v>
+        <v>0.7529406949639509</v>
       </c>
       <c r="D197">
-        <v>0.6352965367965367</v>
+        <v>0.6193890733914821</v>
       </c>
       <c r="E197">
-        <v>0.6858710025173415</v>
+        <v>0.6786113523775749</v>
       </c>
       <c r="F197" t="s">
         <v>200</v>
@@ -5057,16 +5066,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.8369653221479784</v>
+        <v>0.8399404965127054</v>
       </c>
       <c r="C198">
-        <v>0.7712698776875349</v>
+        <v>0.7807874812525976</v>
       </c>
       <c r="D198">
-        <v>0.53276697845431</v>
+        <v>0.5368553459119496</v>
       </c>
       <c r="E198">
-        <v>0.6283447480930167</v>
+        <v>0.6339388083735911</v>
       </c>
       <c r="F198" t="s">
         <v>201</v>
@@ -5077,16 +5086,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.847778373896503</v>
+        <v>0.8349412281129591</v>
       </c>
       <c r="C199">
-        <v>0.7517666123646191</v>
+        <v>0.7153989904131277</v>
       </c>
       <c r="D199">
-        <v>0.6270210457123564</v>
+        <v>0.5882965637924072</v>
       </c>
       <c r="E199">
-        <v>0.6817797623642083</v>
+        <v>0.64482742389915</v>
       </c>
       <c r="F199" t="s">
         <v>202</v>
@@ -5097,16 +5106,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.856728283665805</v>
+        <v>0.8468224162317709</v>
       </c>
       <c r="C200">
-        <v>0.7626583348002113</v>
+        <v>0.7378037751307744</v>
       </c>
       <c r="D200">
-        <v>0.6541070625281151</v>
+        <v>0.6392866251782229</v>
       </c>
       <c r="E200">
-        <v>0.701130145397251</v>
+        <v>0.6819415351994507</v>
       </c>
       <c r="F200" t="s">
         <v>203</v>
@@ -5117,16 +5126,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.8487977369165488</v>
+        <v>0.8517582792762035</v>
       </c>
       <c r="C201">
-        <v>0.7390094620897605</v>
+        <v>0.7468150896722325</v>
       </c>
       <c r="D201">
-        <v>0.6730962302499208</v>
+        <v>0.6512238611919863</v>
       </c>
       <c r="E201">
-        <v>0.6960674412289701</v>
+        <v>0.6947484270448419</v>
       </c>
       <c r="F201" t="s">
         <v>204</v>
@@ -5137,16 +5146,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.841901185192411</v>
+        <v>0.8498268546066429</v>
       </c>
       <c r="C202">
-        <v>0.7333503748296544</v>
+        <v>0.7567149758454106</v>
       </c>
       <c r="D202">
-        <v>0.6232192696768574</v>
+        <v>0.631689593699279</v>
       </c>
       <c r="E202">
-        <v>0.6719953849463456</v>
+        <v>0.6841558067579572</v>
       </c>
       <c r="F202" t="s">
         <v>205</v>
@@ -5157,16 +5166,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.8468224162317709</v>
+        <v>0.8429205482124568</v>
       </c>
       <c r="C203">
-        <v>0.7485779543891951</v>
+        <v>0.7432355662127049</v>
       </c>
       <c r="D203">
-        <v>0.618232156594294</v>
+        <v>0.6148815608759779</v>
       </c>
       <c r="E203">
-        <v>0.6760311736345024</v>
+        <v>0.6719517603689942</v>
       </c>
       <c r="F203" t="s">
         <v>206</v>
@@ -5177,16 +5186,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.8517777886162999</v>
+        <v>0.8646295664049163</v>
       </c>
       <c r="C204">
-        <v>0.7494729115206324</v>
+        <v>0.7777508038377604</v>
       </c>
       <c r="D204">
-        <v>0.6512753643481406</v>
+        <v>0.6766426699884219</v>
       </c>
       <c r="E204">
-        <v>0.6921544719702232</v>
+        <v>0.7190198435103394</v>
       </c>
       <c r="F204" t="s">
         <v>207</v>
@@ -5197,16 +5206,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.8340145344583719</v>
+        <v>0.8340096571233477</v>
       </c>
       <c r="C205">
-        <v>0.7635626535626535</v>
+        <v>0.7723306233062329</v>
       </c>
       <c r="D205">
-        <v>0.5261239109999903</v>
+        <v>0.513362024869918</v>
       </c>
       <c r="E205">
-        <v>0.619139622772346</v>
+        <v>0.6162166159966052</v>
       </c>
       <c r="F205" t="s">
         <v>208</v>
@@ -5217,16 +5226,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.8369506901429059</v>
+        <v>0.8350143881383213</v>
       </c>
       <c r="C206">
-        <v>0.7665723174214605</v>
+        <v>0.7626236868097334</v>
       </c>
       <c r="D206">
-        <v>0.5445764168876297</v>
+        <v>0.5477098418244609</v>
       </c>
       <c r="E206">
-        <v>0.6333718755336792</v>
+        <v>0.6353280723836654</v>
       </c>
       <c r="F206" t="s">
         <v>209</v>
@@ -5237,16 +5246,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.8527581329561528</v>
+        <v>0.842896161537336</v>
       </c>
       <c r="C207">
-        <v>0.7858642622617777</v>
+        <v>0.7750245222912413</v>
       </c>
       <c r="D207">
-        <v>0.5954863519772242</v>
+        <v>0.5656088590283218</v>
       </c>
       <c r="E207">
-        <v>0.6750360620207287</v>
+        <v>0.6504593184039258</v>
       </c>
       <c r="F207" t="s">
         <v>210</v>
@@ -5257,16 +5266,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.8330195581134469</v>
+        <v>0.8241184216943862</v>
       </c>
       <c r="C208">
-        <v>0.7442721927120904</v>
+        <v>0.729641042608995</v>
       </c>
       <c r="D208">
-        <v>0.5421329924555731</v>
+        <v>0.5277053107357951</v>
       </c>
       <c r="E208">
-        <v>0.624970576717967</v>
+        <v>0.6095249564778037</v>
       </c>
       <c r="F208" t="s">
         <v>211</v>
@@ -5277,16 +5286,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.8507486709262059</v>
+        <v>0.8468224162317709</v>
       </c>
       <c r="C209">
-        <v>0.7603847902971808</v>
+        <v>0.7456954835789885</v>
       </c>
       <c r="D209">
-        <v>0.6436348223499926</v>
+        <v>0.6337834681042228</v>
       </c>
       <c r="E209">
-        <v>0.6928558089902628</v>
+        <v>0.6827874548536215</v>
       </c>
       <c r="F209" t="s">
         <v>212</v>
@@ -5297,16 +5306,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.8507974442764473</v>
+        <v>0.8498170999365946</v>
       </c>
       <c r="C210">
-        <v>0.7524809982983551</v>
+        <v>0.7498855666297527</v>
       </c>
       <c r="D210">
-        <v>0.6469495328756907</v>
+        <v>0.6459186523180108</v>
       </c>
       <c r="E210">
-        <v>0.6906258221490493</v>
+        <v>0.689494084707634</v>
       </c>
       <c r="F210" t="s">
         <v>213</v>
@@ -5317,16 +5326,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.8567234063307809</v>
+        <v>0.8606789250353607</v>
       </c>
       <c r="C211">
-        <v>0.7531456554252907</v>
+        <v>0.7671245447181041</v>
       </c>
       <c r="D211">
-        <v>0.6786550027337342</v>
+        <v>0.6812333444610211</v>
       </c>
       <c r="E211">
-        <v>0.7095928500496523</v>
+        <v>0.7177299714762715</v>
       </c>
       <c r="F211" t="s">
         <v>214</v>
@@ -5337,16 +5346,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.8478369019167926</v>
+        <v>0.8517777886162999</v>
       </c>
       <c r="C212">
-        <v>0.7505130544810931</v>
+        <v>0.7504487843468205</v>
       </c>
       <c r="D212">
-        <v>0.6307899883430618</v>
+        <v>0.6494693662217347</v>
       </c>
       <c r="E212">
-        <v>0.6790941893741447</v>
+        <v>0.6916420736775388</v>
       </c>
       <c r="F212" t="s">
         <v>215</v>
@@ -5357,16 +5366,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.8349656147880798</v>
+        <v>0.8369458128078817</v>
       </c>
       <c r="C213">
-        <v>0.757297549650491</v>
+        <v>0.7721987309890537</v>
       </c>
       <c r="D213">
-        <v>0.5319316233994233</v>
+        <v>0.5343379575218903</v>
       </c>
       <c r="E213">
-        <v>0.6243615338206469</v>
+        <v>0.6294647460432674</v>
       </c>
       <c r="F213" t="s">
         <v>216</v>
@@ -5377,16 +5386,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.8429059162073843</v>
+        <v>0.8349217187728625</v>
       </c>
       <c r="C214">
-        <v>0.7319868575942718</v>
+        <v>0.7160021645021644</v>
       </c>
       <c r="D214">
-        <v>0.6234199506145067</v>
+        <v>0.6222994858320686</v>
       </c>
       <c r="E214">
-        <v>0.669894150423669</v>
+        <v>0.6636644090252337</v>
       </c>
       <c r="F214" t="s">
         <v>217</v>
@@ -5397,16 +5406,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.8458615812320147</v>
+        <v>0.8468516802419158</v>
       </c>
       <c r="C215">
-        <v>0.7413563284646258</v>
+        <v>0.7373335260394085</v>
       </c>
       <c r="D215">
-        <v>0.6464167110193983</v>
+        <v>0.6470965309200604</v>
       </c>
       <c r="E215">
-        <v>0.6855631649053763</v>
+        <v>0.6872720534186583</v>
       </c>
       <c r="F215" t="s">
         <v>218</v>
@@ -5417,16 +5426,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.8616495147051652</v>
+        <v>0.8547724723211237</v>
       </c>
       <c r="C216">
-        <v>0.7461522677480125</v>
+        <v>0.7245802598576155</v>
       </c>
       <c r="D216">
-        <v>0.7131555805670708</v>
+        <v>0.7003754906980714</v>
       </c>
       <c r="E216">
-        <v>0.7281885552393672</v>
+        <v>0.7088273176317229</v>
       </c>
       <c r="F216" t="s">
         <v>219</v>
@@ -5437,16 +5446,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.8339901477832512</v>
+        <v>0.8389308881627079</v>
       </c>
       <c r="C217">
-        <v>0.70985846840498</v>
+        <v>0.7142266519010706</v>
       </c>
       <c r="D217">
-        <v>0.6147107008116409</v>
+        <v>0.6330897502296586</v>
       </c>
       <c r="E217">
-        <v>0.6567269590019603</v>
+        <v>0.6686404305904462</v>
       </c>
       <c r="F217" t="s">
         <v>220</v>
@@ -5457,16 +5466,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.8300395064136955</v>
+        <v>0.8280788177339901</v>
       </c>
       <c r="C218">
-        <v>0.7181667403803627</v>
+        <v>0.7316624267573035</v>
       </c>
       <c r="D218">
-        <v>0.5729423239603875</v>
+        <v>0.5562278364069219</v>
       </c>
       <c r="E218">
-        <v>0.6345503042427273</v>
+        <v>0.621157990366365</v>
       </c>
       <c r="F218" t="s">
         <v>221</v>
@@ -5477,16 +5486,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.8497683265863533</v>
+        <v>0.854713944300834</v>
       </c>
       <c r="C219">
-        <v>0.7400698818888152</v>
+        <v>0.7587402845441268</v>
       </c>
       <c r="D219">
-        <v>0.6566859573175362</v>
+        <v>0.6528080289415334</v>
       </c>
       <c r="E219">
-        <v>0.6923949384044927</v>
+        <v>0.6992371148147063</v>
       </c>
       <c r="F219" t="s">
         <v>222</v>
@@ -5497,16 +5506,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.8448470955469931</v>
+        <v>0.8497975905964982</v>
       </c>
       <c r="C220">
-        <v>0.7461374478234942</v>
+        <v>0.7552056404230317</v>
       </c>
       <c r="D220">
-        <v>0.6156776591012235</v>
+        <v>0.621417179734441</v>
       </c>
       <c r="E220">
-        <v>0.6740363419352183</v>
+        <v>0.6805682644577244</v>
       </c>
       <c r="F220" t="s">
         <v>223</v>
@@ -5517,16 +5526,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.8527239916109837</v>
+        <v>0.8527873969662976</v>
       </c>
       <c r="C221">
-        <v>0.7518662842462941</v>
+        <v>0.7536460925833748</v>
       </c>
       <c r="D221">
-        <v>0.6544231791600212</v>
+        <v>0.6553815708101423</v>
       </c>
       <c r="E221">
-        <v>0.6959081871097761</v>
+        <v>0.6981493293673745</v>
       </c>
       <c r="F221" t="s">
         <v>224</v>
@@ -5537,16 +5546,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.8606350290201433</v>
+        <v>0.8576988733356095</v>
       </c>
       <c r="C222">
-        <v>0.769147841447493</v>
+        <v>0.7492476631644494</v>
       </c>
       <c r="D222">
-        <v>0.670844490207454</v>
+        <v>0.6729850464256011</v>
       </c>
       <c r="E222">
-        <v>0.7138937197217607</v>
+        <v>0.7071634145708983</v>
       </c>
       <c r="F222" t="s">
         <v>225</v>
@@ -5557,16 +5566,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.8349509827830073</v>
+        <v>0.8487928595815246</v>
       </c>
       <c r="C223">
-        <v>0.7247294731846227</v>
+        <v>0.746358029162842</v>
       </c>
       <c r="D223">
-        <v>0.5852922439878961</v>
+        <v>0.6344152983406469</v>
       </c>
       <c r="E223">
-        <v>0.646051873541879</v>
+        <v>0.6850932010494282</v>
       </c>
       <c r="F223" t="s">
         <v>226</v>
@@ -5577,16 +5586,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.8408964541774374</v>
+        <v>0.8478027605716237</v>
       </c>
       <c r="C224">
-        <v>0.7360638471888008</v>
+        <v>0.7555910165484634</v>
       </c>
       <c r="D224">
-        <v>0.6089646685016956</v>
+        <v>0.6105979576442655</v>
       </c>
       <c r="E224">
-        <v>0.6625911992704058</v>
+        <v>0.6733651331863937</v>
       </c>
       <c r="F224" t="s">
         <v>227</v>
@@ -5597,16 +5606,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.8606740477003365</v>
+        <v>0.8487977369165488</v>
       </c>
       <c r="C225">
-        <v>0.7554663450116051</v>
+        <v>0.7357605357605357</v>
       </c>
       <c r="D225">
-        <v>0.6932939652939653</v>
+        <v>0.6539222039111051</v>
       </c>
       <c r="E225">
-        <v>0.7184157155585726</v>
+        <v>0.6907006084421476</v>
       </c>
       <c r="F225" t="s">
         <v>228</v>
@@ -5617,16 +5626,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.830024874408623</v>
+        <v>0.8359703458030532</v>
       </c>
       <c r="C226">
-        <v>0.7644399794112358</v>
+        <v>0.7640284471697294</v>
       </c>
       <c r="D226">
-        <v>0.5090847748742486</v>
+        <v>0.5364416193006648</v>
       </c>
       <c r="E226">
-        <v>0.6021421362489486</v>
+        <v>0.6295956468711887</v>
       </c>
       <c r="F226" t="s">
         <v>229</v>
@@ -5637,16 +5646,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.8309954640784275</v>
+        <v>0.8389552748378286</v>
       </c>
       <c r="C227">
-        <v>0.7508598033815794</v>
+        <v>0.7764585440785284</v>
       </c>
       <c r="D227">
-        <v>0.5387101615091929</v>
+        <v>0.5441535786728484</v>
       </c>
       <c r="E227">
-        <v>0.6213076614342438</v>
+        <v>0.6354828555227564</v>
       </c>
       <c r="F227" t="s">
         <v>230</v>
@@ -5657,16 +5666,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.8459201092523045</v>
+        <v>0.8468663122469883</v>
       </c>
       <c r="C228">
-        <v>0.7800087892770821</v>
+        <v>0.7762245043503067</v>
       </c>
       <c r="D228">
-        <v>0.5784915303634516</v>
+        <v>0.5804592368348306</v>
       </c>
       <c r="E228">
-        <v>0.6614861743138031</v>
+        <v>0.6632453335769314</v>
       </c>
       <c r="F228" t="s">
         <v>231</v>
@@ -5677,16 +5686,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.8250890113641904</v>
+        <v>0.8201433936497098</v>
       </c>
       <c r="C229">
-        <v>0.7336314363143632</v>
+        <v>0.7145926002600698</v>
       </c>
       <c r="D229">
-        <v>0.5081919568095365</v>
+        <v>0.5022490363519095</v>
       </c>
       <c r="E229">
-        <v>0.5971923381818852</v>
+        <v>0.5880580351576159</v>
       </c>
       <c r="F229" t="s">
         <v>232</v>
@@ -5697,16 +5706,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.8557089206457592</v>
+        <v>0.8487831049114763</v>
       </c>
       <c r="C230">
-        <v>0.7631332536691485</v>
+        <v>0.7491861020678007</v>
       </c>
       <c r="D230">
-        <v>0.6508091605278306</v>
+        <v>0.6376019041391345</v>
       </c>
       <c r="E230">
-        <v>0.7009440941291607</v>
+        <v>0.683990065625092</v>
       </c>
       <c r="F230" t="s">
         <v>233</v>
@@ -5717,16 +5726,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.8557186753158075</v>
+        <v>0.8458225625518218</v>
       </c>
       <c r="C231">
-        <v>0.751738912956487</v>
+        <v>0.7419303831508294</v>
       </c>
       <c r="D231">
-        <v>0.6540888709532777</v>
+        <v>0.6372385437937773</v>
       </c>
       <c r="E231">
-        <v>0.699325822473738</v>
+        <v>0.6790224422634633</v>
       </c>
       <c r="F231" t="s">
         <v>234</v>
@@ -5737,16 +5746,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.8527142369409354</v>
+        <v>0.8606691703653123</v>
       </c>
       <c r="C232">
-        <v>0.7507434036970182</v>
+        <v>0.7630615907565408</v>
       </c>
       <c r="D232">
-        <v>0.6516450216450217</v>
+        <v>0.6712152133580706</v>
       </c>
       <c r="E232">
-        <v>0.6956338233254469</v>
+        <v>0.7127186505251022</v>
       </c>
       <c r="F232" t="s">
         <v>235</v>
@@ -5757,16 +5766,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.8498219772716189</v>
+        <v>0.8586645856703896</v>
       </c>
       <c r="C233">
-        <v>0.7584904120767033</v>
+        <v>0.7732268202185681</v>
       </c>
       <c r="D233">
-        <v>0.628818030624534</v>
+        <v>0.6518581293157564</v>
       </c>
       <c r="E233">
-        <v>0.6846921518198115</v>
+        <v>0.7025663751731592</v>
       </c>
       <c r="F233" t="s">
         <v>236</v>
@@ -5777,16 +5786,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.8389260108276837</v>
+        <v>0.8359410817929083</v>
       </c>
       <c r="C234">
-        <v>0.7722972972972972</v>
+        <v>0.7637794913461391</v>
       </c>
       <c r="D234">
-        <v>0.540759599123487</v>
+        <v>0.5242421171636564</v>
       </c>
       <c r="E234">
-        <v>0.6349650123712834</v>
+        <v>0.6197257488724188</v>
       </c>
       <c r="F234" t="s">
         <v>237</v>
@@ -5797,16 +5806,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.8488270009266936</v>
+        <v>0.8408769448373409</v>
       </c>
       <c r="C235">
-        <v>0.7512908884935137</v>
+        <v>0.7381160349474968</v>
       </c>
       <c r="D235">
-        <v>0.61855225876332</v>
+        <v>0.6009592539267791</v>
       </c>
       <c r="E235">
-        <v>0.676003533910527</v>
+        <v>0.6620124518845747</v>
       </c>
       <c r="F235" t="s">
         <v>238</v>
@@ -5817,16 +5826,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.8498122226015704</v>
+        <v>0.8478027605716237</v>
       </c>
       <c r="C236">
-        <v>0.75209568172538</v>
+        <v>0.7495751633986928</v>
       </c>
       <c r="D236">
-        <v>0.6309475295045097</v>
+        <v>0.6294076540469438</v>
       </c>
       <c r="E236">
-        <v>0.6837675324988272</v>
+        <v>0.6779820700451827</v>
       </c>
       <c r="F236" t="s">
         <v>239</v>
@@ -5837,16 +5846,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.8576988733356095</v>
+        <v>0.8626005950348729</v>
       </c>
       <c r="C237">
-        <v>0.7613084599063045</v>
+        <v>0.7731102141102142</v>
       </c>
       <c r="D237">
-        <v>0.6616016348600999</v>
+        <v>0.6798983172216254</v>
       </c>
       <c r="E237">
-        <v>0.7056524626099493</v>
+        <v>0.7191638966810582</v>
       </c>
       <c r="F237" t="s">
         <v>240</v>
@@ -5857,16 +5866,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.845837194556894</v>
+        <v>0.8428864068672877</v>
       </c>
       <c r="C238">
-        <v>0.7316762231859592</v>
+        <v>0.7380513833992095</v>
       </c>
       <c r="D238">
-        <v>0.6430748745940679</v>
+        <v>0.6158509368659744</v>
       </c>
       <c r="E238">
-        <v>0.6844762422166866</v>
+        <v>0.6698460177938654</v>
       </c>
       <c r="F238" t="s">
         <v>241</v>
@@ -5877,16 +5886,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.8359801004731015</v>
+        <v>0.8339901477832512</v>
       </c>
       <c r="C239">
-        <v>0.7594789524201289</v>
+        <v>0.7435574229691877</v>
       </c>
       <c r="D239">
-        <v>0.5340193704600484</v>
+        <v>0.5478369371464</v>
       </c>
       <c r="E239">
-        <v>0.6246294731954427</v>
+        <v>0.6299502448502236</v>
       </c>
       <c r="F239" t="s">
         <v>242</v>
@@ -5897,16 +5906,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.8576891186655612</v>
+        <v>0.8567038969906843</v>
       </c>
       <c r="C240">
-        <v>0.7734080538763985</v>
+        <v>0.7650800044906632</v>
       </c>
       <c r="D240">
-        <v>0.6495340243170523</v>
+        <v>0.655397118833868</v>
       </c>
       <c r="E240">
-        <v>0.701114690219053</v>
+        <v>0.7036114933595446</v>
       </c>
       <c r="F240" t="s">
         <v>243</v>
@@ -5917,16 +5926,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.8359459591279326</v>
+        <v>0.8478466565868409</v>
       </c>
       <c r="C241">
-        <v>0.7286574284366325</v>
+        <v>0.7528766790427885</v>
       </c>
       <c r="D241">
-        <v>0.5908854790798584</v>
+        <v>0.6184578223708659</v>
       </c>
       <c r="E241">
-        <v>0.6498764889752472</v>
+        <v>0.6765156637367591</v>
       </c>
       <c r="F241" t="s">
         <v>244</v>
@@ -5937,16 +5946,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.855772326001073</v>
+        <v>0.8498219772716189</v>
       </c>
       <c r="C242">
-        <v>0.7594112636072751</v>
+        <v>0.7390134607034302</v>
       </c>
       <c r="D242">
-        <v>0.6677125951147913</v>
+        <v>0.6558907379809019</v>
       </c>
       <c r="E242">
-        <v>0.7058993905235204</v>
+        <v>0.6944273688518546</v>
       </c>
       <c r="F242" t="s">
         <v>245</v>
@@ -5957,16 +5966,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.8596790713554114</v>
+        <v>0.861644637370141</v>
       </c>
       <c r="C243">
-        <v>0.747883295194508</v>
+        <v>0.7624778270509978</v>
       </c>
       <c r="D243">
-        <v>0.6875137146157819</v>
+        <v>0.6853530655391121</v>
       </c>
       <c r="E243">
-        <v>0.7157421503035362</v>
+        <v>0.7198961220873423</v>
       </c>
       <c r="F243" t="s">
         <v>246</v>
@@ -5977,16 +5986,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.8498170999365946</v>
+        <v>0.8429010388723601</v>
       </c>
       <c r="C244">
-        <v>0.7569808020608937</v>
+        <v>0.7331800232288037</v>
       </c>
       <c r="D244">
-        <v>0.6289081909723329</v>
+        <v>0.6267054742912636</v>
       </c>
       <c r="E244">
-        <v>0.6842124817476896</v>
+        <v>0.6728512543933645</v>
       </c>
       <c r="F244" t="s">
         <v>247</v>
@@ -5997,16 +6006,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.8438374871969956</v>
+        <v>0.8330000487733502</v>
       </c>
       <c r="C245">
-        <v>0.7856312349501204</v>
+        <v>0.744695012161279</v>
       </c>
       <c r="D245">
-        <v>0.554004718107979</v>
+        <v>0.5383749579975624</v>
       </c>
       <c r="E245">
-        <v>0.6457733873691319</v>
+        <v>0.6221767763965912</v>
       </c>
       <c r="F245" t="s">
         <v>248</v>
@@ -6017,16 +6026,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.8498073452665464</v>
+        <v>0.8478417792518167</v>
       </c>
       <c r="C246">
-        <v>0.7368645727794665</v>
+        <v>0.7380415499533146</v>
       </c>
       <c r="D246">
-        <v>0.6525072580963778</v>
+        <v>0.647347429537853</v>
       </c>
       <c r="E246">
-        <v>0.6894817123999588</v>
+        <v>0.6886113642844962</v>
       </c>
       <c r="F246" t="s">
         <v>249</v>
@@ -6037,16 +6046,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.8458176852167976</v>
+        <v>0.8527288689460079</v>
       </c>
       <c r="C247">
-        <v>0.7287204701848006</v>
+        <v>0.7460904433976649</v>
       </c>
       <c r="D247">
-        <v>0.6562003432672804</v>
+        <v>0.6651664136887711</v>
       </c>
       <c r="E247">
-        <v>0.6880220113516312</v>
+        <v>0.6977072324473069</v>
       </c>
       <c r="F247" t="s">
         <v>250</v>
@@ -6057,16 +6066,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.8448422182119689</v>
+        <v>0.8468663122469883</v>
       </c>
       <c r="C248">
-        <v>0.7551017686682936</v>
+        <v>0.7655013692034547</v>
       </c>
       <c r="D248">
-        <v>0.61454548284885</v>
+        <v>0.6186963036963037</v>
       </c>
       <c r="E248">
-        <v>0.6729485359361136</v>
+        <v>0.6750179297155151</v>
       </c>
       <c r="F248" t="s">
         <v>251</v>
@@ -6077,16 +6086,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.8517387699361068</v>
+        <v>0.8517826659513241</v>
       </c>
       <c r="C249">
-        <v>0.765163855752091</v>
+        <v>0.7462549731880297</v>
       </c>
       <c r="D249">
-        <v>0.6217577485464669</v>
+        <v>0.6558333333333334</v>
       </c>
       <c r="E249">
-        <v>0.6837987068818355</v>
+        <v>0.6962167423645164</v>
       </c>
       <c r="F249" t="s">
         <v>252</v>
@@ -6097,16 +6106,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.84685655757694</v>
+        <v>0.8517631566112275</v>
       </c>
       <c r="C250">
-        <v>0.7357979496307022</v>
+        <v>0.7460639967024346</v>
       </c>
       <c r="D250">
-        <v>0.6461718592041172</v>
+        <v>0.661939393939394</v>
       </c>
       <c r="E250">
-        <v>0.6861179288294857</v>
+        <v>0.6977696635234043</v>
       </c>
       <c r="F250" t="s">
         <v>253</v>
@@ -6117,16 +6126,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.8418767985172902</v>
+        <v>0.8487928595815246</v>
       </c>
       <c r="C251">
-        <v>0.7362227134567561</v>
+        <v>0.7410294373641189</v>
       </c>
       <c r="D251">
-        <v>0.6170552344785081</v>
+        <v>0.6432466825113884</v>
       </c>
       <c r="E251">
-        <v>0.6687380163445791</v>
+        <v>0.6864204586248894</v>
       </c>
       <c r="F251" t="s">
         <v>254</v>
@@ -6137,16 +6146,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.8379212798127103</v>
+        <v>0.8409110861825099</v>
       </c>
       <c r="C252">
-        <v>0.7635768565799526</v>
+        <v>0.7763188524403828</v>
       </c>
       <c r="D252">
-        <v>0.5491012078623154</v>
+        <v>0.5455366630777156</v>
       </c>
       <c r="E252">
-        <v>0.6363344580554603</v>
+        <v>0.6358409099828142</v>
       </c>
       <c r="F252" t="s">
         <v>255</v>
@@ -6157,16 +6166,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.8507535482612301</v>
+        <v>0.857786665366044</v>
       </c>
       <c r="C253">
-        <v>0.7473723257418909</v>
+        <v>0.7648656769176387</v>
       </c>
       <c r="D253">
-        <v>0.6438975590236095</v>
+        <v>0.6594042232277526</v>
       </c>
       <c r="E253">
-        <v>0.6906060973712502</v>
+        <v>0.7048045578462914</v>
       </c>
       <c r="F253" t="s">
         <v>256</v>
@@ -6177,16 +6186,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.8537726186411744</v>
+        <v>0.8468516802419158</v>
       </c>
       <c r="C254">
-        <v>0.7520290481631309</v>
+        <v>0.7377591694957306</v>
       </c>
       <c r="D254">
-        <v>0.6519917400922633</v>
+        <v>0.6251656583686106</v>
       </c>
       <c r="E254">
-        <v>0.6960702595700783</v>
+        <v>0.6725175636938261</v>
       </c>
       <c r="F254" t="s">
         <v>257</v>
@@ -6197,16 +6206,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.8468419255718675</v>
+        <v>0.8498707506218602</v>
       </c>
       <c r="C255">
-        <v>0.7440213049807589</v>
+        <v>0.7518456947996589</v>
       </c>
       <c r="D255">
-        <v>0.6322912153367095</v>
+        <v>0.6331874716137372</v>
       </c>
       <c r="E255">
-        <v>0.680404089751242</v>
+        <v>0.6860979034906215</v>
       </c>
       <c r="F255" t="s">
         <v>258</v>
@@ -6217,16 +6226,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.8448812368921621</v>
+        <v>0.8497780812564015</v>
       </c>
       <c r="C256">
-        <v>0.7404673962608299</v>
+        <v>0.7535971055088703</v>
       </c>
       <c r="D256">
-        <v>0.6226606589333077</v>
+        <v>0.6445851826331326</v>
       </c>
       <c r="E256">
-        <v>0.6709802953084424</v>
+        <v>0.6893250321540194</v>
       </c>
       <c r="F256" t="s">
         <v>259</v>
